--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="class_booking" sheetId="1" r:id="rId2"/>
-    <sheet name="stu" sheetId="3" r:id="rId3"/>
+    <sheet name="class_booking" sheetId="1" r:id="rId1"/>
+    <sheet name="stu" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,8 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="152">
   <si>
     <t>password</t>
   </si>
@@ -470,6 +505,18 @@
   </si>
   <si>
     <t>12/25</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>sendhan-therapist/personal-growth-online-grp-pre-scho-begi-thurs</t>
+  </si>
+  <si>
+    <t>sen2023</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -480,7 +527,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +573,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -640,333 +700,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>class_booking!$AI$1:$AI$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>expectedError</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Login Success &gt; Class booked</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Login Success &gt; Class booked</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Login Success &gt; Class booked</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>class_booking!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1F7-48B7-AD55-62773C69434F}"/>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>class_booking!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="233791880"/>
-        <c:axId val="233792664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="233791880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="233792664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="233792664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="233791880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8652387" cy="6276258"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,12 +988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1019,7 @@
     <col min="21" max="21" width="12" customWidth="1"/>
     <col min="22" max="22" width="12.140625" style="12" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" style="9" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" style="27" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="27" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" customWidth="1"/>
     <col min="26" max="26" width="14.140625" style="16" customWidth="1"/>
     <col min="27" max="27" width="13.28515625" style="16" customWidth="1"/>
@@ -1413,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>17</v>
@@ -1425,22 +1158,22 @@
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
       </c>
       <c r="J2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -1449,20 +1182,20 @@
         <v>1</v>
       </c>
       <c r="N2" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" s="11">
         <f t="shared" ref="O2:O6" si="0">N2+R2</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:P37" si="1">(((M2+1)*O2)*I2)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="11">
         <f t="shared" ref="R2:R6" si="2">N2*S2</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S2" s="3">
         <v>0.25</v>
@@ -1472,15 +1205,15 @@
       </c>
       <c r="U2" s="6">
         <f t="shared" ref="U2:U6" si="3">P2*T2</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="V2" s="11">
         <f t="shared" ref="V2:V6" si="4">T2*P2</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" ref="W2:W6" si="5">P2+V2</f>
-        <v>40.4</v>
+        <v>50.5</v>
       </c>
       <c r="X2" s="20"/>
       <c r="Y2" s="3" t="s">
@@ -1491,19 +1224,19 @@
       </c>
       <c r="AA2" s="13">
         <f t="shared" ref="AA2:AA4" si="6">SUM(T2*AB2)</f>
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="AB2" s="9">
         <f t="shared" ref="AB2:AB4" si="7">SUM(P2-Z2)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="9">
         <f t="shared" ref="AC2:AC4" si="8">SUM(T2*AB2)</f>
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="9">
         <f t="shared" ref="AD2:AD4" si="9">SUM(AA2+AB2)</f>
-        <v>38.380000000000003</v>
+        <v>48.48</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>18</v>
@@ -1759,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>17</v>
@@ -11393,6 +11126,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId59"/>
+  <legacyDrawing r:id="rId60"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96F78A-CDF2-4C34-9597-615BCA04939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95783568-E4B3-447F-8757-D4DFEAA3469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{02B2C1DE-3C52-4BF0-829F-F9EAA47FDE9E}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{C88D2D2C-1DA5-44F6-A30A-D47422B37E7C}">
       <text>
         <r>
           <rPr>
@@ -316,12 +316,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{7C28175A-9730-4514-B084-6D7B53073190}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="150">
   <si>
     <t>password</t>
   </si>
@@ -518,9 +544,6 @@
     <t>holley.worland@hotmail.com</t>
   </si>
   <si>
-    <t>dhaag@hotmail.com</t>
-  </si>
-  <si>
     <t>edelmira_pedregon@hotmail.com</t>
   </si>
   <si>
@@ -734,9 +757,6 @@
     <t>YIGXWD76</t>
   </si>
   <si>
-    <t>parvatha79@gmail.com</t>
-  </si>
-  <si>
     <t>thilakdev@gmail.com</t>
   </si>
   <si>
@@ -765,6 +785,18 @@
   </si>
   <si>
     <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>srini2022</t>
+  </si>
+  <si>
+    <t>srini-vas/cello-group</t>
+  </si>
+  <si>
+    <t>srinivas.e@netkathir.com</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1294,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,13 +1458,13 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -1441,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -1453,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O5" si="0">N2+R2</f>
+        <f t="shared" ref="O2:O6" si="0">N2+R2</f>
         <v>12.5</v>
       </c>
       <c r="P2" s="6">
@@ -1462,7 +1494,7 @@
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="9">
-        <f t="shared" ref="R2:R5" si="2">N2*S2</f>
+        <f t="shared" ref="R2:R6" si="2">N2*S2</f>
         <v>2.5</v>
       </c>
       <c r="S2" s="3">
@@ -1472,15 +1504,15 @@
         <v>0.01</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U5" si="3">P2*T2</f>
+        <f t="shared" ref="U2:U6" si="3">P2*T2</f>
         <v>0.5</v>
       </c>
       <c r="V2" s="9">
-        <f t="shared" ref="V2:V5" si="4">T2*P2</f>
+        <f t="shared" ref="V2:V6" si="4">T2*P2</f>
         <v>0.5</v>
       </c>
       <c r="W2" s="6">
-        <f t="shared" ref="W2:W5" si="5">P2+V2</f>
+        <f t="shared" ref="W2:W6" si="5">P2+V2</f>
         <v>50.5</v>
       </c>
       <c r="X2" s="15"/>
@@ -1539,13 +1571,13 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -1554,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -1652,13 +1684,13 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
         <v>131</v>
       </c>
-      <c r="G4" t="s">
-        <v>132</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -1667,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -1765,13 +1797,13 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
         <v>131</v>
       </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
@@ -1780,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -1823,10 +1855,10 @@
         <v>20</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z5">
         <f>SUM(I5*0.05)</f>
@@ -1869,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -1881,22 +1913,22 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -1908,60 +1940,59 @@
         <v>4</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6" si="10">N6+R6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" ref="P6" si="11">(((M6+1)*O6)*I6)</f>
-        <v>5</v>
+        <f t="shared" ref="P6" si="10">(((M6+1)*O6)*I6)</f>
+        <v>10</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="9">
-        <f t="shared" ref="R6" si="12">N6*S6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S6" s="3">
         <v>0.25</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6" si="13">P6*T6</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" ref="V6" si="14">T6*P6</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="W6" s="6">
-        <f t="shared" ref="W6" si="15">P6+V6</f>
-        <v>5</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>80</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>10.1</v>
+      </c>
+      <c r="X6" s="15"/>
       <c r="Y6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z6">
-        <v>0.05</v>
+        <f>SUM(I6*0.05)</f>
+        <v>0.1</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA6" si="16">SUM(T6*AB6)</f>
-        <v>0</v>
+        <f t="shared" ref="AA6" si="11">SUM(T6*AB6)</f>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AB6" s="7">
-        <f>SUM(P6-Z6)</f>
-        <v>4.95</v>
+        <f t="shared" ref="AB6" si="12">SUM(P6-Z6)</f>
+        <v>9.9</v>
       </c>
       <c r="AC6" s="7">
-        <f>SUM(T6*AB6)</f>
-        <v>0</v>
+        <f t="shared" ref="AC6" si="13">SUM(T6*AB6)</f>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AD6" s="7">
-        <f t="shared" ref="AD6" si="17">SUM(AA6+AB6)</f>
-        <v>4.95</v>
+        <f t="shared" ref="AD6" si="14">SUM(AA6+AB6)</f>
+        <v>9.9990000000000006</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>18</v>
@@ -1984,25 +2015,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
         <v>147</v>
       </c>
-      <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" t="s">
-        <v>144</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -2011,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -2023,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" ref="O7:O11" si="18">N7+R7</f>
+        <f t="shared" ref="O7:O11" si="15">N7+R7</f>
         <v>5</v>
       </c>
       <c r="P7" s="6">
@@ -2032,50 +2063,50 @@
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="9">
-        <f t="shared" ref="R7:R11" si="19">N7*S7</f>
+        <f t="shared" ref="R7:R11" si="16">N7*S7</f>
         <v>1</v>
       </c>
       <c r="S7" s="3">
         <v>0.25</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ref="U7:U11" si="20">P7*T7</f>
-        <v>0</v>
+        <f t="shared" ref="U7:U11" si="17">P7*T7</f>
+        <v>0.1</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" ref="V7:V11" si="21">T7*P7</f>
-        <v>0</v>
+        <f t="shared" ref="V7:V11" si="18">T7*P7</f>
+        <v>0.1</v>
       </c>
       <c r="W7" s="6">
-        <f t="shared" ref="W7:W11" si="22">P7+V7</f>
-        <v>10</v>
+        <f t="shared" ref="W7:W11" si="19">P7+V7</f>
+        <v>10.1</v>
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z7">
         <f>SUM(I7*0.05)</f>
         <v>0.1</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7:AA67" si="23">SUM(T7*AB7)</f>
-        <v>0</v>
+        <f t="shared" ref="AA7:AA67" si="20">SUM(T7*AB7)</f>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AB7" s="7">
-        <f t="shared" ref="AB7:AB67" si="24">SUM(P7-Z7)</f>
+        <f t="shared" ref="AB7:AB67" si="21">SUM(P7-Z7)</f>
         <v>9.9</v>
       </c>
       <c r="AC7" s="7">
-        <f t="shared" ref="AC7:AC67" si="25">SUM(T7*AB7)</f>
-        <v>0</v>
+        <f t="shared" ref="AC7:AC67" si="22">SUM(T7*AB7)</f>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AD7" s="7">
-        <f t="shared" ref="AD7:AD67" si="26">SUM(AA7+AB7)</f>
-        <v>9.9</v>
+        <f t="shared" ref="AD7:AD67" si="23">SUM(AA7+AB7)</f>
+        <v>9.9990000000000006</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>18</v>
@@ -2098,25 +2129,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -2125,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -2137,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="P8" s="6">
@@ -2146,7 +2177,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S8" s="3">
@@ -2156,15 +2187,15 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="X8" s="15"/>
@@ -2175,19 +2206,19 @@
         <v>2</v>
       </c>
       <c r="AA8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC8" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC8" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AE8" s="4" t="s">
@@ -2211,25 +2242,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -2238,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -2250,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="P9" s="6">
@@ -2259,7 +2290,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S9" s="3">
@@ -2269,15 +2300,15 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W9" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="X9" s="15"/>
@@ -2288,19 +2319,19 @@
         <v>2</v>
       </c>
       <c r="AA9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC9" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC9" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AE9" s="4" t="s">
@@ -2324,25 +2355,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -2351,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -2363,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="P10" s="6">
@@ -2372,7 +2403,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S10" s="3">
@@ -2382,15 +2413,15 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V10" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W10" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="X10" s="15"/>
@@ -2401,19 +2432,19 @@
         <v>2</v>
       </c>
       <c r="AA10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC10" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC10" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AE10" s="4" t="s">
@@ -2437,25 +2468,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -2464,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -2476,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="P11" s="6">
@@ -2485,7 +2516,7 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S11" s="3">
@@ -2495,15 +2526,15 @@
         <v>0</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W11" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="X11" s="15"/>
@@ -2514,19 +2545,19 @@
         <v>2</v>
       </c>
       <c r="AA11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC11" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC11" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AE11" s="4" t="s">
@@ -2550,25 +2581,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -2577,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -2589,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" ref="O12:O25" si="27">N12+R12</f>
+        <f t="shared" ref="O12:O25" si="24">N12+R12</f>
         <v>5</v>
       </c>
       <c r="P12" s="6">
@@ -2598,7 +2629,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="9">
-        <f t="shared" ref="R12:R25" si="28">N12*S12</f>
+        <f t="shared" ref="R12:R25" si="25">N12*S12</f>
         <v>1</v>
       </c>
       <c r="S12" s="3">
@@ -2608,15 +2639,15 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" ref="U12:U25" si="29">P12*T12</f>
+        <f t="shared" ref="U12:U25" si="26">P12*T12</f>
         <v>0</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" ref="V12:V25" si="30">T12*P12</f>
+        <f t="shared" ref="V12:V25" si="27">T12*P12</f>
         <v>0</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" ref="W12:W25" si="31">P12+V12</f>
+        <f t="shared" ref="W12:W25" si="28">P12+V12</f>
         <v>10</v>
       </c>
       <c r="X12" s="15"/>
@@ -2627,19 +2658,19 @@
         <v>2</v>
       </c>
       <c r="AA12">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC12" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC12" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="7">
-        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AE12" s="4" t="s">
@@ -2675,13 +2706,13 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -2690,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -2702,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P13" s="6">
@@ -2711,49 +2742,50 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S13" s="3">
         <v>0.25</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>0.1</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="31"/>
-        <v>10</v>
+        <f t="shared" si="28"/>
+        <v>10.1</v>
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="3" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <f>SUM(I13*0.05)</f>
+        <v>0.1</v>
       </c>
       <c r="AA13">
+        <f t="shared" si="20"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" si="21"/>
+        <v>9.9</v>
+      </c>
+      <c r="AC13" s="7">
+        <f t="shared" si="22"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AD13" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC13" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <v>9.9990000000000006</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>18</v>
@@ -2782,19 +2814,19 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="5">
         <v>3</v>
@@ -2815,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P14" s="6">
@@ -2824,7 +2856,7 @@
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S14" s="3">
@@ -2834,15 +2866,15 @@
         <v>0.01</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X14" s="15"/>
@@ -2853,19 +2885,19 @@
         <v>2</v>
       </c>
       <c r="AA14">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB14" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC14" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD14" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB14" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC14" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD14" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE14" s="4" t="s">
@@ -2894,20 +2926,20 @@
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
+      <c r="D15" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="5">
         <v>3</v>
@@ -2928,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P15" s="6">
@@ -2937,7 +2969,7 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S15" s="3">
@@ -2947,15 +2979,15 @@
         <v>0.01</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X15" s="15"/>
@@ -2966,19 +2998,19 @@
         <v>2</v>
       </c>
       <c r="AA15">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB15" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD15" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB15" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC15" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD15" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE15" s="4" t="s">
@@ -3008,19 +3040,19 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -3041,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P16" s="6">
@@ -3050,7 +3082,7 @@
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S16" s="3">
@@ -3060,15 +3092,15 @@
         <v>0.01</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X16" s="15"/>
@@ -3079,19 +3111,19 @@
         <v>2</v>
       </c>
       <c r="AA16">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD16" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB16" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC16" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD16" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE16" s="4" t="s">
@@ -3121,19 +3153,19 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="5">
         <v>3</v>
@@ -3154,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P17" s="6">
@@ -3163,7 +3195,7 @@
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S17" s="3">
@@ -3173,15 +3205,15 @@
         <v>0.01</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X17" s="15"/>
@@ -3192,19 +3224,19 @@
         <v>2</v>
       </c>
       <c r="AA17">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD17" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB17" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC17" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD17" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE17" s="4" t="s">
@@ -3234,19 +3266,19 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="5">
         <v>3</v>
@@ -3267,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P18" s="6">
@@ -3276,7 +3308,7 @@
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S18" s="3">
@@ -3286,15 +3318,15 @@
         <v>0.01</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X18" s="15"/>
@@ -3305,19 +3337,19 @@
         <v>2</v>
       </c>
       <c r="AA18">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD18" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB18" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC18" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD18" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE18" s="4" t="s">
@@ -3347,19 +3379,19 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="5">
         <v>3</v>
@@ -3380,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P19" s="6">
@@ -3389,7 +3421,7 @@
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S19" s="3">
@@ -3399,15 +3431,15 @@
         <v>0.01</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X19" s="15"/>
@@ -3418,19 +3450,19 @@
         <v>2</v>
       </c>
       <c r="AA19">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD19" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB19" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC19" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE19" s="4" t="s">
@@ -3460,19 +3492,19 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="5">
         <v>3</v>
@@ -3493,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P20" s="6">
@@ -3502,7 +3534,7 @@
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S20" s="3">
@@ -3512,15 +3544,15 @@
         <v>0.01</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V20" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X20" s="15"/>
@@ -3531,19 +3563,19 @@
         <v>2</v>
       </c>
       <c r="AA20">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD20" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB20" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC20" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE20" s="4" t="s">
@@ -3573,19 +3605,19 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5">
         <v>3</v>
@@ -3606,7 +3638,7 @@
         <v>4</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P21" s="6">
@@ -3615,7 +3647,7 @@
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S21" s="3">
@@ -3625,15 +3657,15 @@
         <v>0.01</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X21" s="15"/>
@@ -3644,19 +3676,19 @@
         <v>2</v>
       </c>
       <c r="AA21">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD21" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB21" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC21" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD21" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE21" s="4" t="s">
@@ -3686,19 +3718,19 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" s="5">
         <v>3</v>
@@ -3719,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P22" s="6">
@@ -3728,7 +3760,7 @@
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S22" s="3">
@@ -3738,15 +3770,15 @@
         <v>0.01</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X22" s="15"/>
@@ -3757,19 +3789,19 @@
         <v>2</v>
       </c>
       <c r="AA22">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD22" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB22" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC22" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD22" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE22" s="4" t="s">
@@ -3799,19 +3831,19 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="5">
         <v>3</v>
@@ -3832,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P23" s="6">
@@ -3841,7 +3873,7 @@
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S23" s="3">
@@ -3851,15 +3883,15 @@
         <v>0.01</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X23" s="15"/>
@@ -3870,19 +3902,19 @@
         <v>2</v>
       </c>
       <c r="AA23">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB23" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC23" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD23" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB23" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC23" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD23" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE23" s="4" t="s">
@@ -3912,19 +3944,19 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="5">
         <v>3</v>
@@ -3945,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P24" s="6">
@@ -3954,7 +3986,7 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S24" s="3">
@@ -3964,15 +3996,15 @@
         <v>0.01</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W24" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X24" s="15"/>
@@ -3983,19 +4015,19 @@
         <v>2</v>
       </c>
       <c r="AA24">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD24" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB24" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC24" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD24" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE24" s="4" t="s">
@@ -4025,19 +4057,19 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="5">
         <v>3</v>
@@ -4058,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="P25" s="6">
@@ -4067,7 +4099,7 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S25" s="3">
@@ -4077,15 +4109,15 @@
         <v>0.01</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>15.15</v>
       </c>
       <c r="X25" s="15"/>
@@ -4096,19 +4128,19 @@
         <v>2</v>
       </c>
       <c r="AA25">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD25" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB25" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC25" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD25" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE25" s="4" t="s">
@@ -4138,19 +4170,19 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="5">
         <v>3</v>
@@ -4171,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" ref="O26:O27" si="32">N26+R26</f>
+        <f t="shared" ref="O26:O27" si="29">N26+R26</f>
         <v>5</v>
       </c>
       <c r="P26" s="6">
@@ -4180,7 +4212,7 @@
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="9">
-        <f t="shared" ref="R26:R27" si="33">N26*S26</f>
+        <f t="shared" ref="R26:R27" si="30">N26*S26</f>
         <v>1</v>
       </c>
       <c r="S26" s="3">
@@ -4190,15 +4222,15 @@
         <v>0.01</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" ref="U26:U27" si="34">P26*T26</f>
+        <f t="shared" ref="U26:U27" si="31">P26*T26</f>
         <v>0.15</v>
       </c>
       <c r="V26" s="9">
-        <f t="shared" ref="V26:V27" si="35">T26*P26</f>
+        <f t="shared" ref="V26:V27" si="32">T26*P26</f>
         <v>0.15</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" ref="W26:W27" si="36">P26+V26</f>
+        <f t="shared" ref="W26:W27" si="33">P26+V26</f>
         <v>15.15</v>
       </c>
       <c r="X26" s="15"/>
@@ -4209,19 +4241,19 @@
         <v>2</v>
       </c>
       <c r="AA26">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB26" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD26" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB26" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC26" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD26" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE26" s="4" t="s">
@@ -4251,19 +4283,19 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="5">
         <v>3</v>
@@ -4284,7 +4316,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="P27" s="6">
@@ -4293,7 +4325,7 @@
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S27" s="3">
@@ -4303,15 +4335,15 @@
         <v>0.01</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0.15</v>
       </c>
       <c r="V27" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0.15</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>15.15</v>
       </c>
       <c r="X27" s="15"/>
@@ -4322,19 +4354,19 @@
         <v>2</v>
       </c>
       <c r="AA27">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB27" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC27" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD27" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB27" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC27" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD27" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE27" s="4" t="s">
@@ -4364,19 +4396,19 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" s="5">
         <v>3</v>
@@ -4397,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" ref="O28:O37" si="37">N28+R28</f>
+        <f t="shared" ref="O28:O37" si="34">N28+R28</f>
         <v>5</v>
       </c>
       <c r="P28" s="6">
@@ -4406,7 +4438,7 @@
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="9">
-        <f t="shared" ref="R28:R37" si="38">N28*S28</f>
+        <f t="shared" ref="R28:R37" si="35">N28*S28</f>
         <v>1</v>
       </c>
       <c r="S28" s="3">
@@ -4416,15 +4448,15 @@
         <v>0.01</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" ref="U28:U37" si="39">P28*T28</f>
+        <f t="shared" ref="U28:U37" si="36">P28*T28</f>
         <v>0.15</v>
       </c>
       <c r="V28" s="9">
-        <f t="shared" ref="V28:V37" si="40">T28*P28</f>
+        <f t="shared" ref="V28:V37" si="37">T28*P28</f>
         <v>0.15</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" ref="W28:W37" si="41">P28+V28</f>
+        <f t="shared" ref="W28:W37" si="38">P28+V28</f>
         <v>15.15</v>
       </c>
       <c r="X28" s="15"/>
@@ -4435,19 +4467,19 @@
         <v>2</v>
       </c>
       <c r="AA28">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB28" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD28" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC28" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD28" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE28" s="4" t="s">
@@ -4477,19 +4509,19 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" s="5">
         <v>3</v>
@@ -4510,7 +4542,7 @@
         <v>4</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P29" s="6">
@@ -4519,7 +4551,7 @@
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S29" s="3">
@@ -4529,15 +4561,15 @@
         <v>0.01</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V29" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X29" s="15"/>
@@ -4548,19 +4580,19 @@
         <v>2</v>
       </c>
       <c r="AA29">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB29" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC29" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD29" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB29" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC29" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD29" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE29" s="4" t="s">
@@ -4590,19 +4622,19 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="5">
         <v>3</v>
@@ -4623,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P30" s="6">
@@ -4632,7 +4664,7 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S30" s="3">
@@ -4642,15 +4674,15 @@
         <v>0.01</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X30" s="15"/>
@@ -4661,19 +4693,19 @@
         <v>2</v>
       </c>
       <c r="AA30">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB30" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC30" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD30" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB30" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC30" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD30" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE30" s="4" t="s">
@@ -4703,19 +4735,19 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="5">
         <v>3</v>
@@ -4736,7 +4768,7 @@
         <v>4</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P31" s="6">
@@ -4745,7 +4777,7 @@
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S31" s="3">
@@ -4755,15 +4787,15 @@
         <v>0.01</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X31" s="15"/>
@@ -4774,19 +4806,19 @@
         <v>2</v>
       </c>
       <c r="AA31">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB31" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC31" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD31" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB31" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC31" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD31" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE31" s="4" t="s">
@@ -4816,19 +4848,19 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="5">
         <v>3</v>
@@ -4849,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P32" s="6">
@@ -4858,7 +4890,7 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S32" s="3">
@@ -4868,15 +4900,15 @@
         <v>0.01</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X32" s="15"/>
@@ -4887,19 +4919,19 @@
         <v>2</v>
       </c>
       <c r="AA32">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB32" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD32" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB32" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC32" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD32" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE32" s="4" t="s">
@@ -4929,19 +4961,19 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="5">
         <v>3</v>
@@ -4962,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P33" s="6">
@@ -4971,7 +5003,7 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S33" s="3">
@@ -4981,15 +5013,15 @@
         <v>0.01</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X33" s="15"/>
@@ -5000,19 +5032,19 @@
         <v>2</v>
       </c>
       <c r="AA33">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB33" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC33" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD33" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB33" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC33" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD33" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE33" s="4" t="s">
@@ -5048,13 +5080,13 @@
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="5">
         <v>3</v>
@@ -5075,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P34" s="6">
@@ -5084,7 +5116,7 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S34" s="3">
@@ -5094,15 +5126,15 @@
         <v>0.01</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V34" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X34" s="15"/>
@@ -5113,19 +5145,19 @@
         <v>2</v>
       </c>
       <c r="AA34">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC34" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD34" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB34" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC34" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD34" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE34" s="4" t="s">
@@ -5155,19 +5187,19 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="5">
         <v>3</v>
@@ -5188,7 +5220,7 @@
         <v>4</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P35" s="6">
@@ -5197,7 +5229,7 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S35" s="3">
@@ -5207,15 +5239,15 @@
         <v>0.01</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V35" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X35" s="15"/>
@@ -5226,19 +5258,19 @@
         <v>2</v>
       </c>
       <c r="AA35">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB35" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC35" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD35" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB35" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC35" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD35" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE35" s="4" t="s">
@@ -5268,19 +5300,19 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="5">
         <v>3</v>
@@ -5301,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P36" s="6">
@@ -5310,7 +5342,7 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S36" s="3">
@@ -5320,15 +5352,15 @@
         <v>0.01</v>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X36" s="15"/>
@@ -5339,19 +5371,19 @@
         <v>2</v>
       </c>
       <c r="AA36">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB36" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC36" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD36" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB36" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC36" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD36" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE36" s="4" t="s">
@@ -5381,19 +5413,19 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="5">
         <v>3</v>
@@ -5414,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="P37" s="6">
@@ -5423,7 +5455,7 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S37" s="3">
@@ -5433,19 +5465,19 @@
         <v>0.01</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>15.15</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y37" s="3" t="s">
         <v>60</v>
@@ -5454,19 +5486,19 @@
         <v>2</v>
       </c>
       <c r="AA37">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB37" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC37" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD37" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB37" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC37" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD37" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE37" s="4" t="s">
@@ -5496,19 +5528,19 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="5">
         <v>3</v>
@@ -5529,16 +5561,16 @@
         <v>4</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" ref="O38:O41" si="42">N38+R38</f>
+        <f t="shared" ref="O38:O41" si="39">N38+R38</f>
         <v>5</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" ref="P38:P41" si="43">(((M38+1)*O38)*I38)</f>
+        <f t="shared" ref="P38:P41" si="40">(((M38+1)*O38)*I38)</f>
         <v>15</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="9">
-        <f t="shared" ref="R38:R41" si="44">N38*S38</f>
+        <f t="shared" ref="R38:R41" si="41">N38*S38</f>
         <v>1</v>
       </c>
       <c r="S38" s="3">
@@ -5548,15 +5580,15 @@
         <v>0.01</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" ref="U38:U41" si="45">P38*T38</f>
+        <f t="shared" ref="U38:U41" si="42">P38*T38</f>
         <v>0.15</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" ref="V38:V41" si="46">T38*P38</f>
+        <f t="shared" ref="V38:V41" si="43">T38*P38</f>
         <v>0.15</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" ref="W38:W41" si="47">P38+V38</f>
+        <f t="shared" ref="W38:W41" si="44">P38+V38</f>
         <v>15.15</v>
       </c>
       <c r="X38" s="15"/>
@@ -5567,19 +5599,19 @@
         <v>2</v>
       </c>
       <c r="AA38">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB38" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC38" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD38" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB38" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC38" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD38" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE38" s="4" t="s">
@@ -5609,19 +5641,19 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="5">
         <v>3</v>
@@ -5642,16 +5674,16 @@
         <v>4</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="S39" s="3">
@@ -5661,15 +5693,15 @@
         <v>0.01</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0.15</v>
       </c>
       <c r="V39" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>0.15</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>15.15</v>
       </c>
       <c r="X39" s="15"/>
@@ -5680,19 +5712,19 @@
         <v>2</v>
       </c>
       <c r="AA39">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB39" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC39" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD39" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB39" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC39" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD39" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE39" s="4" t="s">
@@ -5722,19 +5754,19 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I40" s="5">
         <v>3</v>
@@ -5755,16 +5787,16 @@
         <v>4</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="S40" s="3">
@@ -5774,15 +5806,15 @@
         <v>0.01</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0.15</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>0.15</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>15.15</v>
       </c>
       <c r="X40" s="15"/>
@@ -5793,19 +5825,19 @@
         <v>2</v>
       </c>
       <c r="AA40">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC40" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD40" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB40" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC40" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD40" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE40" s="4" t="s">
@@ -5835,19 +5867,19 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I41" s="5">
         <v>3</v>
@@ -5868,16 +5900,16 @@
         <v>4</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="S41" s="3">
@@ -5887,15 +5919,15 @@
         <v>0.01</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>0.15</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>0.15</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>15.15</v>
       </c>
       <c r="X41" s="15"/>
@@ -5906,19 +5938,19 @@
         <v>2</v>
       </c>
       <c r="AA41">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB41" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC41" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD41" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB41" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC41" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD41" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE41" s="4" t="s">
@@ -5954,13 +5986,13 @@
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I42" s="5">
         <v>3</v>
@@ -5981,16 +6013,16 @@
         <v>4</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" ref="O42" si="48">N42+R42</f>
+        <f t="shared" ref="O42" si="45">N42+R42</f>
         <v>5</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" ref="P42" si="49">(((M42+1)*O42)*I42)</f>
+        <f t="shared" ref="P42" si="46">(((M42+1)*O42)*I42)</f>
         <v>15</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="9">
-        <f t="shared" ref="R42" si="50">N42*S42</f>
+        <f t="shared" ref="R42" si="47">N42*S42</f>
         <v>1</v>
       </c>
       <c r="S42" s="3">
@@ -6000,15 +6032,15 @@
         <v>0.01</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" ref="U42" si="51">P42*T42</f>
+        <f t="shared" ref="U42" si="48">P42*T42</f>
         <v>0.15</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" ref="V42" si="52">T42*P42</f>
+        <f t="shared" ref="V42" si="49">T42*P42</f>
         <v>0.15</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" ref="W42" si="53">P42+V42</f>
+        <f t="shared" ref="W42" si="50">P42+V42</f>
         <v>15.15</v>
       </c>
       <c r="X42" s="15"/>
@@ -6019,19 +6051,19 @@
         <v>2</v>
       </c>
       <c r="AA42">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB42" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC42" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD42" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB42" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC42" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD42" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE42" s="4" t="s">
@@ -6061,19 +6093,19 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" s="5">
         <v>3</v>
@@ -6094,16 +6126,16 @@
         <v>4</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" ref="O43:O47" si="54">N43+R43</f>
+        <f t="shared" ref="O43:O47" si="51">N43+R43</f>
         <v>5</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:P47" si="55">(((M43+1)*O43)*I43)</f>
+        <f t="shared" ref="P43:P47" si="52">(((M43+1)*O43)*I43)</f>
         <v>15</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="9">
-        <f t="shared" ref="R43:R47" si="56">N43*S43</f>
+        <f t="shared" ref="R43:R47" si="53">N43*S43</f>
         <v>1</v>
       </c>
       <c r="S43" s="3">
@@ -6113,38 +6145,38 @@
         <v>0.01</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" ref="U43:U47" si="57">P43*T43</f>
+        <f t="shared" ref="U43:U47" si="54">P43*T43</f>
         <v>0.15</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" ref="V43:V47" si="58">T43*P43</f>
+        <f t="shared" ref="V43:V47" si="55">T43*P43</f>
         <v>0.15</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" ref="W43:W47" si="59">P43+V43</f>
+        <f t="shared" ref="W43:W47" si="56">P43+V43</f>
         <v>15.15</v>
       </c>
       <c r="X43" s="15"/>
       <c r="Y43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z43">
         <v>2</v>
       </c>
       <c r="AA43">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB43" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC43" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD43" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB43" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC43" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD43" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE43" s="4" t="s">
@@ -6174,19 +6206,19 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="5">
         <v>3</v>
@@ -6207,16 +6239,16 @@
         <v>4</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="S44" s="3">
@@ -6226,15 +6258,15 @@
         <v>0.01</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.15</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0.15</v>
       </c>
       <c r="W44" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>15.15</v>
       </c>
       <c r="X44" s="15"/>
@@ -6245,19 +6277,19 @@
         <v>2</v>
       </c>
       <c r="AA44">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB44" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC44" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD44" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB44" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC44" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD44" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE44" s="4" t="s">
@@ -6287,19 +6319,19 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" s="5">
         <v>3</v>
@@ -6320,16 +6352,16 @@
         <v>4</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="S45" s="3">
@@ -6339,15 +6371,15 @@
         <v>0.01</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.15</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0.15</v>
       </c>
       <c r="W45" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>15.15</v>
       </c>
       <c r="X45" s="15"/>
@@ -6358,19 +6390,19 @@
         <v>2</v>
       </c>
       <c r="AA45">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB45" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC45" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD45" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB45" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC45" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD45" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE45" s="4" t="s">
@@ -6400,19 +6432,19 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="5">
         <v>3</v>
@@ -6433,16 +6465,16 @@
         <v>4</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="S46" s="3">
@@ -6452,15 +6484,15 @@
         <v>0.01</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.15</v>
       </c>
       <c r="V46" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0.15</v>
       </c>
       <c r="W46" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>15.15</v>
       </c>
       <c r="X46" s="15"/>
@@ -6471,19 +6503,19 @@
         <v>2</v>
       </c>
       <c r="AA46">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB46" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC46" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD46" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB46" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC46" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD46" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE46" s="4" t="s">
@@ -6513,19 +6545,19 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I47" s="5">
         <v>3</v>
@@ -6546,16 +6578,16 @@
         <v>4</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="S47" s="3">
@@ -6565,15 +6597,15 @@
         <v>0.01</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.15</v>
       </c>
       <c r="V47" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>0.15</v>
       </c>
       <c r="W47" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>15.15</v>
       </c>
       <c r="X47" s="15"/>
@@ -6584,19 +6616,19 @@
         <v>2</v>
       </c>
       <c r="AA47">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB47" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC47" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD47" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB47" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC47" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD47" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE47" s="4" t="s">
@@ -6626,19 +6658,19 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I48" s="5">
         <v>3</v>
@@ -6659,16 +6691,16 @@
         <v>4</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O53" si="60">N48+R48</f>
+        <f t="shared" ref="O48:O53" si="57">N48+R48</f>
         <v>5</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" ref="P48:P53" si="61">(((M48+1)*O48)*I48)</f>
+        <f t="shared" ref="P48:P53" si="58">(((M48+1)*O48)*I48)</f>
         <v>15</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="9">
-        <f t="shared" ref="R48:R53" si="62">N48*S48</f>
+        <f t="shared" ref="R48:R53" si="59">N48*S48</f>
         <v>1</v>
       </c>
       <c r="S48" s="3">
@@ -6678,15 +6710,15 @@
         <v>0.01</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" ref="U48:U53" si="63">P48*T48</f>
+        <f t="shared" ref="U48:U53" si="60">P48*T48</f>
         <v>0.15</v>
       </c>
       <c r="V48" s="9">
-        <f t="shared" ref="V48:V53" si="64">T48*P48</f>
+        <f t="shared" ref="V48:V53" si="61">T48*P48</f>
         <v>0.15</v>
       </c>
       <c r="W48" s="6">
-        <f t="shared" ref="W48:W53" si="65">P48+V48</f>
+        <f t="shared" ref="W48:W53" si="62">P48+V48</f>
         <v>15.15</v>
       </c>
       <c r="X48" s="15"/>
@@ -6697,19 +6729,19 @@
         <v>2</v>
       </c>
       <c r="AA48">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB48" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC48" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD48" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB48" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC48" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD48" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE48" s="4" t="s">
@@ -6739,19 +6771,19 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I49" s="5">
         <v>3</v>
@@ -6772,16 +6804,16 @@
         <v>4</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="S49" s="3">
@@ -6791,15 +6823,15 @@
         <v>0.01</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
       <c r="V49" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.15</v>
       </c>
       <c r="W49" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>15.15</v>
       </c>
       <c r="X49" s="15"/>
@@ -6810,19 +6842,19 @@
         <v>2</v>
       </c>
       <c r="AA49">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB49" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC49" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD49" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB49" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC49" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD49" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE49" s="4" t="s">
@@ -6852,19 +6884,19 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" s="5">
         <v>3</v>
@@ -6885,16 +6917,16 @@
         <v>4</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="S50" s="3">
@@ -6904,15 +6936,15 @@
         <v>0.01</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
       <c r="V50" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.15</v>
       </c>
       <c r="W50" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>15.15</v>
       </c>
       <c r="X50" s="15"/>
@@ -6923,19 +6955,19 @@
         <v>2</v>
       </c>
       <c r="AA50">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB50" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC50" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD50" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB50" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC50" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD50" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE50" s="4" t="s">
@@ -6965,19 +6997,19 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I51" s="5">
         <v>3</v>
@@ -6998,16 +7030,16 @@
         <v>4</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="S51" s="3">
@@ -7017,15 +7049,15 @@
         <v>0.01</v>
       </c>
       <c r="U51" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
       <c r="V51" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.15</v>
       </c>
       <c r="W51" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>15.15</v>
       </c>
       <c r="X51" s="15"/>
@@ -7036,19 +7068,19 @@
         <v>2</v>
       </c>
       <c r="AA51">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB51" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC51" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD51" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB51" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC51" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD51" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE51" s="4" t="s">
@@ -7078,19 +7110,19 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" s="5">
         <v>3</v>
@@ -7111,16 +7143,16 @@
         <v>4</v>
       </c>
       <c r="O52" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="S52" s="3">
@@ -7130,15 +7162,15 @@
         <v>0.01</v>
       </c>
       <c r="U52" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
       <c r="V52" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.15</v>
       </c>
       <c r="W52" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>15.15</v>
       </c>
       <c r="X52" s="15"/>
@@ -7149,19 +7181,19 @@
         <v>2</v>
       </c>
       <c r="AA52">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB52" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC52" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD52" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB52" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC52" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD52" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE52" s="4" t="s">
@@ -7191,19 +7223,19 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" s="5">
         <v>3</v>
@@ -7224,16 +7256,16 @@
         <v>4</v>
       </c>
       <c r="O53" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="S53" s="3">
@@ -7243,15 +7275,15 @@
         <v>0.01</v>
       </c>
       <c r="U53" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>0.15</v>
       </c>
       <c r="V53" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.15</v>
       </c>
       <c r="W53" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>15.15</v>
       </c>
       <c r="X53" s="15"/>
@@ -7262,19 +7294,19 @@
         <v>2</v>
       </c>
       <c r="AA53">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB53" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC53" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD53" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB53" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC53" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD53" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE53" s="4" t="s">
@@ -7304,19 +7336,19 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I54" s="5">
         <v>3</v>
@@ -7337,16 +7369,16 @@
         <v>4</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" ref="O54:O61" si="66">N54+R54</f>
+        <f t="shared" ref="O54:O61" si="63">N54+R54</f>
         <v>5</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" ref="P54:P61" si="67">(((M54+1)*O54)*I54)</f>
+        <f t="shared" ref="P54:P61" si="64">(((M54+1)*O54)*I54)</f>
         <v>15</v>
       </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="9">
-        <f t="shared" ref="R54:R61" si="68">N54*S54</f>
+        <f t="shared" ref="R54:R61" si="65">N54*S54</f>
         <v>1</v>
       </c>
       <c r="S54" s="3">
@@ -7356,15 +7388,15 @@
         <v>0.01</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" ref="U54:U61" si="69">P54*T54</f>
+        <f t="shared" ref="U54:U61" si="66">P54*T54</f>
         <v>0.15</v>
       </c>
       <c r="V54" s="9">
-        <f t="shared" ref="V54:V61" si="70">T54*P54</f>
+        <f t="shared" ref="V54:V61" si="67">T54*P54</f>
         <v>0.15</v>
       </c>
       <c r="W54" s="6">
-        <f t="shared" ref="W54:W61" si="71">P54+V54</f>
+        <f t="shared" ref="W54:W61" si="68">P54+V54</f>
         <v>15.15</v>
       </c>
       <c r="X54" s="15"/>
@@ -7375,19 +7407,19 @@
         <v>2</v>
       </c>
       <c r="AA54">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB54" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC54" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD54" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB54" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC54" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD54" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE54" s="4" t="s">
@@ -7417,19 +7449,19 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
@@ -7450,16 +7482,16 @@
         <v>4</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S55" s="3">
@@ -7469,15 +7501,15 @@
         <v>0.01</v>
       </c>
       <c r="U55" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W55" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X55" s="15"/>
@@ -7488,19 +7520,19 @@
         <v>2</v>
       </c>
       <c r="AA55">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC55" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD55" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB55" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC55" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD55" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE55" s="4" t="s">
@@ -7530,19 +7562,19 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I56" s="5">
         <v>3</v>
@@ -7563,16 +7595,16 @@
         <v>4</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S56" s="3">
@@ -7582,15 +7614,15 @@
         <v>0.01</v>
       </c>
       <c r="U56" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W56" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X56" s="15"/>
@@ -7601,19 +7633,19 @@
         <v>2</v>
       </c>
       <c r="AA56">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB56" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC56" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD56" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB56" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC56" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD56" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE56" s="4" t="s">
@@ -7643,19 +7675,19 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I57" s="5">
         <v>3</v>
@@ -7676,16 +7708,16 @@
         <v>4</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P57" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S57" s="3">
@@ -7695,15 +7727,15 @@
         <v>0.01</v>
       </c>
       <c r="U57" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W57" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X57" s="15"/>
@@ -7714,19 +7746,19 @@
         <v>2</v>
       </c>
       <c r="AA57">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB57" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC57" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD57" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB57" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC57" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD57" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE57" s="4" t="s">
@@ -7756,19 +7788,19 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I58" s="5">
         <v>3</v>
@@ -7789,16 +7821,16 @@
         <v>4</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S58" s="3">
@@ -7808,15 +7840,15 @@
         <v>0.01</v>
       </c>
       <c r="U58" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W58" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X58" s="15"/>
@@ -7827,19 +7859,19 @@
         <v>2</v>
       </c>
       <c r="AA58">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB58" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC58" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD58" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB58" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC58" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD58" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE58" s="4" t="s">
@@ -7869,19 +7901,19 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I59" s="5">
         <v>3</v>
@@ -7902,16 +7934,16 @@
         <v>4</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S59" s="3">
@@ -7921,15 +7953,15 @@
         <v>0.01</v>
       </c>
       <c r="U59" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W59" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X59" s="15"/>
@@ -7940,19 +7972,19 @@
         <v>2</v>
       </c>
       <c r="AA59">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB59" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC59" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD59" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB59" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC59" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD59" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE59" s="4" t="s">
@@ -7982,19 +8014,19 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I60" s="5">
         <v>3</v>
@@ -8015,16 +8047,16 @@
         <v>4</v>
       </c>
       <c r="O60" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S60" s="3">
@@ -8034,15 +8066,15 @@
         <v>0.01</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W60" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X60" s="15"/>
@@ -8053,19 +8085,19 @@
         <v>2</v>
       </c>
       <c r="AA60">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB60" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC60" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD60" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB60" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC60" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD60" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE60" s="4" t="s">
@@ -8095,19 +8127,19 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I61" s="5">
         <v>3</v>
@@ -8128,16 +8160,16 @@
         <v>4</v>
       </c>
       <c r="O61" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S61" s="3">
@@ -8147,15 +8179,15 @@
         <v>0.01</v>
       </c>
       <c r="U61" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>0.15</v>
       </c>
       <c r="V61" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
       <c r="W61" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>15.15</v>
       </c>
       <c r="X61" s="15"/>
@@ -8166,19 +8198,19 @@
         <v>2</v>
       </c>
       <c r="AA61">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="AB61" s="7">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AC61" s="7">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD61" s="7">
         <f t="shared" si="23"/>
-        <v>0.13</v>
-      </c>
-      <c r="AB61" s="7">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AC61" s="7">
-        <f t="shared" si="25"/>
-        <v>0.13</v>
-      </c>
-      <c r="AD61" s="7">
-        <f t="shared" si="26"/>
         <v>13.13</v>
       </c>
       <c r="AE61" s="4" t="s">
@@ -8208,19 +8240,19 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -8229,7 +8261,7 @@
         <v>2</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L62" s="5">
         <v>0</v>
@@ -8241,16 +8273,16 @@
         <v>4</v>
       </c>
       <c r="O62" s="9">
-        <f t="shared" ref="O62:O66" si="72">N62+R62</f>
+        <f t="shared" ref="O62:O66" si="69">N62+R62</f>
         <v>5</v>
       </c>
       <c r="P62" s="6">
-        <f t="shared" ref="P62:P66" si="73">(((M62+1)*O62)*I62)</f>
+        <f t="shared" ref="P62:P66" si="70">(((M62+1)*O62)*I62)</f>
         <v>5</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="9">
-        <f t="shared" ref="R62:R66" si="74">N62*S62</f>
+        <f t="shared" ref="R62:R66" si="71">N62*S62</f>
         <v>1</v>
       </c>
       <c r="S62" s="3">
@@ -8260,15 +8292,15 @@
         <v>0.01</v>
       </c>
       <c r="U62" s="3">
-        <f t="shared" ref="U62:U66" si="75">P62*T62</f>
+        <f t="shared" ref="U62:U66" si="72">P62*T62</f>
         <v>0.05</v>
       </c>
       <c r="V62" s="9">
-        <f t="shared" ref="V62:V66" si="76">T62*P62</f>
+        <f t="shared" ref="V62:V66" si="73">T62*P62</f>
         <v>0.05</v>
       </c>
       <c r="W62" s="6">
-        <f t="shared" ref="W62:W66" si="77">P62+V62</f>
+        <f t="shared" ref="W62:W66" si="74">P62+V62</f>
         <v>5.05</v>
       </c>
       <c r="X62" s="15"/>
@@ -8279,19 +8311,19 @@
         <v>2</v>
       </c>
       <c r="AA62">
+        <f t="shared" si="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB62" s="7">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AC62" s="7">
+        <f t="shared" si="22"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD62" s="7">
         <f t="shared" si="23"/>
-        <v>0.03</v>
-      </c>
-      <c r="AB62" s="7">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="AC62" s="7">
-        <f t="shared" si="25"/>
-        <v>0.03</v>
-      </c>
-      <c r="AD62" s="7">
-        <f t="shared" si="26"/>
         <v>3.03</v>
       </c>
       <c r="AE62" s="4" t="s">
@@ -8321,19 +8353,19 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -8342,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
@@ -8354,16 +8386,16 @@
         <v>4</v>
       </c>
       <c r="O63" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>5</v>
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="S63" s="3">
@@ -8373,15 +8405,15 @@
         <v>0.01</v>
       </c>
       <c r="U63" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>0.05</v>
       </c>
       <c r="V63" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
       <c r="W63" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>5.05</v>
       </c>
       <c r="X63" s="15"/>
@@ -8392,19 +8424,19 @@
         <v>2</v>
       </c>
       <c r="AA63">
+        <f t="shared" si="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB63" s="7">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AC63" s="7">
+        <f t="shared" si="22"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD63" s="7">
         <f t="shared" si="23"/>
-        <v>0.03</v>
-      </c>
-      <c r="AB63" s="7">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="AC63" s="7">
-        <f t="shared" si="25"/>
-        <v>0.03</v>
-      </c>
-      <c r="AD63" s="7">
-        <f t="shared" si="26"/>
         <v>3.03</v>
       </c>
       <c r="AE63" s="4" t="s">
@@ -8434,19 +8466,19 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -8455,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L64" s="5">
         <v>0</v>
@@ -8467,16 +8499,16 @@
         <v>4</v>
       </c>
       <c r="O64" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>5</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="S64" s="3">
@@ -8486,15 +8518,15 @@
         <v>0.01</v>
       </c>
       <c r="U64" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>0.05</v>
       </c>
       <c r="V64" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
       <c r="W64" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>5.05</v>
       </c>
       <c r="X64" s="15"/>
@@ -8505,19 +8537,19 @@
         <v>2</v>
       </c>
       <c r="AA64">
+        <f t="shared" si="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB64" s="7">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AC64" s="7">
+        <f t="shared" si="22"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD64" s="7">
         <f t="shared" si="23"/>
-        <v>0.03</v>
-      </c>
-      <c r="AB64" s="7">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="AC64" s="7">
-        <f t="shared" si="25"/>
-        <v>0.03</v>
-      </c>
-      <c r="AD64" s="7">
-        <f t="shared" si="26"/>
         <v>3.03</v>
       </c>
       <c r="AE64" s="4" t="s">
@@ -8547,19 +8579,19 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -8568,7 +8600,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
@@ -8580,16 +8612,16 @@
         <v>4</v>
       </c>
       <c r="O65" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>5</v>
       </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="S65" s="3">
@@ -8599,15 +8631,15 @@
         <v>0.01</v>
       </c>
       <c r="U65" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>0.05</v>
       </c>
       <c r="V65" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
       <c r="W65" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>5.05</v>
       </c>
       <c r="X65" s="15"/>
@@ -8618,19 +8650,19 @@
         <v>2</v>
       </c>
       <c r="AA65">
+        <f t="shared" si="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB65" s="7">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AC65" s="7">
+        <f t="shared" si="22"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD65" s="7">
         <f t="shared" si="23"/>
-        <v>0.03</v>
-      </c>
-      <c r="AB65" s="7">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="AC65" s="7">
-        <f t="shared" si="25"/>
-        <v>0.03</v>
-      </c>
-      <c r="AD65" s="7">
-        <f t="shared" si="26"/>
         <v>3.03</v>
       </c>
       <c r="AE65" s="4" t="s">
@@ -8660,19 +8692,19 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I66" s="5">
         <v>6</v>
@@ -8681,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L66" s="5">
         <v>0</v>
@@ -8693,16 +8725,16 @@
         <v>8</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>10</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>60</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
       <c r="S66" s="3">
@@ -8712,15 +8744,15 @@
         <v>0.1</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>6</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>6</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>66</v>
       </c>
       <c r="X66" s="15"/>
@@ -8731,19 +8763,19 @@
         <v>2</v>
       </c>
       <c r="AA66">
+        <f t="shared" si="20"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="AB66" s="7">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="AC66" s="7">
+        <f t="shared" si="22"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="AD66" s="7">
         <f t="shared" si="23"/>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="AB66" s="7">
-        <f t="shared" si="24"/>
-        <v>58</v>
-      </c>
-      <c r="AC66" s="7">
-        <f t="shared" si="25"/>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="AD66" s="7">
-        <f t="shared" si="26"/>
         <v>63.8</v>
       </c>
       <c r="AE66" s="4" t="s">
@@ -8770,19 +8802,19 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -8791,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>
@@ -8803,16 +8835,16 @@
         <v>8</v>
       </c>
       <c r="O67" s="9">
-        <f t="shared" ref="O67" si="78">N67+R67</f>
+        <f t="shared" ref="O67" si="75">N67+R67</f>
         <v>10</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" ref="P67" si="79">(((M67+1)*O67)*I67)</f>
+        <f t="shared" ref="P67" si="76">(((M67+1)*O67)*I67)</f>
         <v>10</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="9">
-        <f t="shared" ref="R67" si="80">N67*S67</f>
+        <f t="shared" ref="R67" si="77">N67*S67</f>
         <v>2</v>
       </c>
       <c r="S67" s="3">
@@ -8822,15 +8854,15 @@
         <v>0.1</v>
       </c>
       <c r="U67" s="3">
-        <f t="shared" ref="U67" si="81">P67*T67</f>
+        <f t="shared" ref="U67" si="78">P67*T67</f>
         <v>1</v>
       </c>
       <c r="V67" s="9">
-        <f t="shared" ref="V67" si="82">T67*P67</f>
+        <f t="shared" ref="V67" si="79">T67*P67</f>
         <v>1</v>
       </c>
       <c r="W67" s="6">
-        <f t="shared" ref="W67" si="83">P67+V67</f>
+        <f t="shared" ref="W67" si="80">P67+V67</f>
         <v>11</v>
       </c>
       <c r="X67" s="15"/>
@@ -8841,19 +8873,19 @@
         <v>2</v>
       </c>
       <c r="AA67">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB67" s="7">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC67" s="7">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD67" s="7">
         <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="AB67" s="7">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AC67" s="7">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
-      </c>
-      <c r="AD67" s="7">
-        <f t="shared" si="26"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="AE67" s="4" t="s">
@@ -10961,68 +10993,68 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3:E12" r:id="rId2" display="Test@1234" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E6" r:id="rId59" xr:uid="{D2E32910-7F03-4D93-914B-C851F07ABF38}"/>
-    <hyperlink ref="E5" r:id="rId60" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
-    <hyperlink ref="D8" r:id="rId61" xr:uid="{0F2190F1-767F-4ECC-82A3-75E99E41A3DB}"/>
-    <hyperlink ref="D9" r:id="rId62" xr:uid="{49303FA7-DC4C-4BA1-AD08-2083402256AC}"/>
-    <hyperlink ref="E7" r:id="rId63" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E67" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E5" r:id="rId57" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
+    <hyperlink ref="D8" r:id="rId58" xr:uid="{0F2190F1-767F-4ECC-82A3-75E99E41A3DB}"/>
+    <hyperlink ref="D9" r:id="rId59" xr:uid="{49303FA7-DC4C-4BA1-AD08-2083402256AC}"/>
+    <hyperlink ref="E7" r:id="rId60" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
+    <hyperlink ref="E6" r:id="rId61" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
+    <hyperlink ref="E13" r:id="rId62" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
+    <hyperlink ref="D15" r:id="rId63" xr:uid="{B68A5DCE-F1F6-4BFE-A268-8263EF371C64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId64"/>

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95783568-E4B3-447F-8757-D4DFEAA3469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D7545-C920-4A03-A7E3-AFB84E2CF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{EAD7A583-7E63-48CB-A7BE-5B17ED4C5EAE}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{5496C9A2-A815-4FFB-8E03-37D23206422F}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{C88D2D2C-1DA5-44F6-A30A-D47422B37E7C}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{4FCC57CB-56F9-4704-A95E-A63C8AB01F12}">
       <text>
         <r>
           <rPr>
@@ -342,12 +342,1312 @@
         </r>
       </text>
     </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{85D2EA5F-1647-4488-9274-773E205EDF88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{A18D6AC8-9F5F-4C87-9BAB-5BCFDF05B298}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{3F7A04E5-F975-4D98-9528-EE67A4EA67D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{181A56B4-CCE0-49DB-930D-D5F5340C96F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{A805460C-DF56-493C-AEAB-654283034DFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{A983F33A-3CE1-4E6A-B642-029CB6D5EB7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{961FE27D-1137-4CB0-AB72-349414FDB5F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{C02CF64E-207C-4D6F-8A5C-DFDDD1BB579B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{33DB6552-9F09-442A-9560-F7AE492AAF64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{F1FE3ABC-7175-4958-A7E1-7C342C585693}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{FA5B55D7-7A94-47C4-8C74-0D27EB4E7F52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{47F26D5E-1F16-476F-BBC5-5C9FC9D72129}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{060D982C-C8CD-4E16-B6AB-3E9098BDEAA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{590D58E2-5D2C-4C2E-87DA-BE8A515A3499}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{275CE646-3637-4684-82DB-27851BEDF5FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{6881B2EC-FBBD-4D12-803E-C12894286824}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{CED24C5F-1D5F-4E3F-9C2C-C885FBE3D7B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{9E848D41-B6D0-4582-9E8D-E76C04D3A94A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{2C005905-5C4E-422E-9C1A-79EAB5D1F24F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{B27D97AA-E72F-44D6-B241-BB6D0A678172}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{B0342C6F-2C7A-4A60-824C-75EEE424C84F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{905EB510-43DA-41F5-81B3-0F4250C0F004}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{B366351E-041F-4FB4-A3E1-ACB2E060B2F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{9E96B554-C880-4279-8B2C-23FA682F5739}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{1C3E2FA7-BB19-479C-B8E7-F6F1B42DEE17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J41" authorId="0" shapeId="0" xr:uid="{32594EBF-9EEE-4081-80C3-C8BE8233ACE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{31201D85-5357-4220-B0A5-90BB5598F18F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{745F30EC-AF71-4C46-B628-1522C2ED4D0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{F4D52E81-D215-4C2F-9A03-702BE23AA71D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J45" authorId="0" shapeId="0" xr:uid="{B9D3D3C7-DB56-4177-B6E6-0C6569B36840}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{0A9FA41A-D056-4825-827A-9777058C0401}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{4A422988-7DB3-42EA-AD4F-49833B605BB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{9CA2CFD2-5AB3-4533-A140-DED47E16EBEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{32CF9599-75D4-41B2-B71D-6D72192B9E25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{950543CB-80F3-4BF7-99C2-15DBF7A2C0A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J51" authorId="0" shapeId="0" xr:uid="{59513D08-D7EC-49DE-B675-98CDCF033316}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{C154CED4-FADB-4753-A341-8B1E36C01EF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{5CCE012D-9DBF-4BB7-B9E8-EA9C20BB9B32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{537DC13E-0EFD-44AD-B350-20E8ECA8126F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J55" authorId="0" shapeId="0" xr:uid="{AD393F18-1D93-4B93-B18E-6F495E8CAD3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J56" authorId="0" shapeId="0" xr:uid="{B6E987FB-C5E9-42E9-98AB-D31C7E9D8D7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J57" authorId="0" shapeId="0" xr:uid="{74D6E9EA-F697-48CA-AF67-836605BD1680}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J58" authorId="0" shapeId="0" xr:uid="{3E1EBFD1-00EE-45F5-8009-FB6CD912F00C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J59" authorId="0" shapeId="0" xr:uid="{C8B290E9-A011-4AA8-9ED1-19D4A76801C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J60" authorId="0" shapeId="0" xr:uid="{2EDBE0C8-E556-478F-8213-72CB53B07615}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J61" authorId="0" shapeId="0" xr:uid="{418AB2AD-93E7-49C1-97D8-66BD09790E9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J62" authorId="0" shapeId="0" xr:uid="{04269282-C1CC-48BF-8EC8-45FCB82781EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J63" authorId="0" shapeId="0" xr:uid="{EBD61D5E-EA67-4883-9324-99C607E07B9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J64" authorId="0" shapeId="0" xr:uid="{94732F4E-6831-499A-ABC2-BA4D4D2DEED8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J65" authorId="0" shapeId="0" xr:uid="{B6139FF7-8288-4883-8CB2-3FB498486573}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Session
+1 - Subscription
+2 - Monthly</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="155">
   <si>
     <t>password</t>
   </si>
@@ -538,12 +1838,6 @@
     <t>Wed</t>
   </si>
   <si>
-    <t>malcolm@yahoo.com</t>
-  </si>
-  <si>
-    <t>holley.worland@hotmail.com</t>
-  </si>
-  <si>
     <t>edelmira_pedregon@hotmail.com</t>
   </si>
   <si>
@@ -553,18 +1847,6 @@
     <t>bharat</t>
   </si>
   <si>
-    <t>hester_dollins@gmail.com</t>
-  </si>
-  <si>
-    <t>dahlia.tummons@gmail.com</t>
-  </si>
-  <si>
-    <t>osvaldo.falvey@yahoo.com</t>
-  </si>
-  <si>
-    <t>armando.barkley@yahoo.com</t>
-  </si>
-  <si>
     <t>torie_deras@yahoo.com</t>
   </si>
   <si>
@@ -595,75 +1877,9 @@
     <t>mdecelles@decelles.net.au</t>
   </si>
   <si>
-    <t>javier@osmer.com.au</t>
-  </si>
-  <si>
     <t>kizzy.stangle@yahoo.com</t>
   </si>
   <si>
-    <t>sharan@wodicka.net.au</t>
-  </si>
-  <si>
-    <t>nfritch@fritch.com.au</t>
-  </si>
-  <si>
-    <t>german@gmail.com</t>
-  </si>
-  <si>
-    <t>robt.blanck@yahoo.com</t>
-  </si>
-  <si>
-    <t>rossana.biler@biler.net.au</t>
-  </si>
-  <si>
-    <t>henriette.gish@gish.net.au</t>
-  </si>
-  <si>
-    <t>buffy_stitely@stitely.com.au</t>
-  </si>
-  <si>
-    <t>christiane@gmail.com</t>
-  </si>
-  <si>
-    <t>alothridge@hotmail.com</t>
-  </si>
-  <si>
-    <t>vanesa@glockner.com.au</t>
-  </si>
-  <si>
-    <t>gennie.pastorino@gmail.com</t>
-  </si>
-  <si>
-    <t>tkenfield@kenfield.com.au</t>
-  </si>
-  <si>
-    <t>tien_kinney@kinney.com.au</t>
-  </si>
-  <si>
-    <t>malcom@leja.com.au</t>
-  </si>
-  <si>
-    <t>claudia@gmail.com</t>
-  </si>
-  <si>
-    <t>lorita_roches@roches.net.au</t>
-  </si>
-  <si>
-    <t>annita.lek@lek.net.au</t>
-  </si>
-  <si>
-    <t>emikovec@mikovec.com.au</t>
-  </si>
-  <si>
-    <t>tyisha@yahoo.com</t>
-  </si>
-  <si>
-    <t>colene.tolbent@tolbent.net.au</t>
-  </si>
-  <si>
-    <t>fsenters@gmail.com</t>
-  </si>
-  <si>
     <t>lillian@hotmail.com</t>
   </si>
   <si>
@@ -751,9 +1967,6 @@
     <t>gms-academy/draw-2</t>
   </si>
   <si>
-    <t>gms-academy/oil-painting</t>
-  </si>
-  <si>
     <t>YIGXWD76</t>
   </si>
   <si>
@@ -797,6 +2010,108 @@
   </si>
   <si>
     <t>srinivas.e@netkathir.com</t>
+  </si>
+  <si>
+    <t>ycs-acadamy/php-variable</t>
+  </si>
+  <si>
+    <t>jsc</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-1</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-15</t>
+  </si>
+  <si>
+    <t>msimco@gmail.com</t>
+  </si>
+  <si>
+    <t>curtis@ware.net.au</t>
+  </si>
+  <si>
+    <t>denae_saeteun@hotmail.com</t>
+  </si>
+  <si>
+    <t>irving@hotmail.com</t>
+  </si>
+  <si>
+    <t>mirene@gmail.com</t>
+  </si>
+  <si>
+    <t>lawana_yuasa@yuasa.net.au</t>
+  </si>
+  <si>
+    <t>lindsey_rathmann@rathmann.com.au</t>
+  </si>
+  <si>
+    <t>bbogacz@hotmail.com</t>
+  </si>
+  <si>
+    <t>rachael@gmail.com</t>
+  </si>
+  <si>
+    <t>thomasena@gmail.com</t>
+  </si>
+  <si>
+    <t>halina.dellen@dellen.com.au</t>
+  </si>
+  <si>
+    <t>ryann@hotmail.com</t>
+  </si>
+  <si>
+    <t>svugteveen@vugteveen.net.au</t>
+  </si>
+  <si>
+    <t>leah@milsap.com.au</t>
+  </si>
+  <si>
+    <t>ira.zihal@yahoo.com</t>
+  </si>
+  <si>
+    <t>paris.kinnison@gmail.com</t>
+  </si>
+  <si>
+    <t>shayne.sundahl@gmail.com</t>
+  </si>
+  <si>
+    <t>ernestine.paavola@paavola.com.au</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-19</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-18</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-16</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-14</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-13</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-3</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-2</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-4</t>
+  </si>
+  <si>
+    <t>jaya/paint-sess-12</t>
+  </si>
+  <si>
+    <t>jaya/paint-var-5</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +2608,8 @@
   <dimension ref="A1:AR129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,13 +2773,13 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -1473,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -1571,13 +2886,13 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -1586,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -1684,13 +2999,13 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -1699,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -1797,28 +3112,28 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -1854,15 +3169,13 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="X5" s="15"/>
       <c r="Y5" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="Z5">
         <f>SUM(I5*0.05)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="6"/>
@@ -1870,7 +3183,7 @@
       </c>
       <c r="AB5" s="7">
         <f>SUM(P5-Z5)</f>
-        <v>19.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AC5" s="7">
         <f>SUM(T5*AB5)</f>
@@ -1878,7 +3191,7 @@
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="9"/>
-        <v>19.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>18</v>
@@ -1901,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -1913,28 +3226,28 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
         <v>4</v>
@@ -1945,7 +3258,7 @@
       </c>
       <c r="P6" s="6">
         <f t="shared" ref="P6" si="10">(((M6+1)*O6)*I6)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="9">
@@ -1960,19 +3273,19 @@
       </c>
       <c r="U6" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W6" s="6">
         <f t="shared" si="5"/>
-        <v>10.1</v>
+        <v>20.2</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="Z6">
         <f>SUM(I6*0.05)</f>
@@ -1980,19 +3293,19 @@
       </c>
       <c r="AA6">
         <f t="shared" ref="AA6" si="11">SUM(T6*AB6)</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.19899999999999998</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" ref="AB6" si="12">SUM(P6-Z6)</f>
-        <v>9.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" ref="AC6" si="13">SUM(T6*AB6)</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.19899999999999998</v>
       </c>
       <c r="AD6" s="7">
         <f t="shared" ref="AD6" si="14">SUM(AA6+AB6)</f>
-        <v>9.9990000000000006</v>
+        <v>20.099</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>18</v>
@@ -2021,19 +3334,19 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -2042,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -2086,7 +3399,7 @@
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="Z7">
         <f>SUM(I7*0.05)</f>
@@ -2135,19 +3448,19 @@
         <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -2156,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -2248,19 +3561,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -2269,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -2361,19 +3674,19 @@
         <v>17</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -2382,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -2474,19 +3787,19 @@
         <v>17</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -2495,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -2587,19 +3900,19 @@
         <v>17</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -2608,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
         <v>4</v>
@@ -2625,7 +3938,7 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="9">
@@ -2648,7 +3961,7 @@
       </c>
       <c r="W12" s="6">
         <f t="shared" ref="W12:W25" si="28">P12+V12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="3" t="s">
@@ -2663,7 +3976,7 @@
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AC12" s="7">
         <f t="shared" si="22"/>
@@ -2671,7 +3984,7 @@
       </c>
       <c r="AD12" s="7">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE12" s="4" t="s">
         <v>18</v>
@@ -2700,19 +4013,19 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -2721,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3">
         <v>4</v>
@@ -2738,7 +4051,7 @@
       </c>
       <c r="P13" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="9">
@@ -2753,19 +4066,19 @@
       </c>
       <c r="U13" s="3">
         <f t="shared" si="26"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="27"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" si="28"/>
-        <v>10.1</v>
+        <v>20.2</v>
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="Z13">
         <f>SUM(I13*0.05)</f>
@@ -2773,19 +4086,19 @@
       </c>
       <c r="AA13">
         <f t="shared" si="20"/>
-        <v>9.9000000000000005E-2</v>
+        <v>0.19899999999999998</v>
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="21"/>
-        <v>9.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AC13" s="7">
         <f t="shared" si="22"/>
-        <v>9.9000000000000005E-2</v>
+        <v>0.19899999999999998</v>
       </c>
       <c r="AD13" s="7">
         <f t="shared" si="23"/>
-        <v>9.9990000000000006</v>
+        <v>20.099</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>18</v>
@@ -2814,19 +4127,19 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I14" s="5">
         <v>3</v>
@@ -2835,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -2927,19 +4240,19 @@
         <v>17</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I15" s="5">
         <v>3</v>
@@ -2948,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -3040,28 +4353,28 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="I16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -3078,7 +4391,7 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="9">
@@ -3093,15 +4406,15 @@
       </c>
       <c r="U16" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="3" t="s">
@@ -3112,19 +4425,19 @@
       </c>
       <c r="AA16">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD16" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>18</v>
@@ -3147,34 +4460,34 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -3191,7 +4504,7 @@
       </c>
       <c r="P17" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="9">
@@ -3202,19 +4515,19 @@
         <v>0.25</v>
       </c>
       <c r="T17" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X17" s="15"/>
       <c r="Y17" s="3" t="s">
@@ -3225,19 +4538,19 @@
       </c>
       <c r="AA17">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC17" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>18</v>
@@ -3266,28 +4579,28 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -3304,7 +4617,7 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="9">
@@ -3315,19 +4628,19 @@
         <v>0.25</v>
       </c>
       <c r="T18" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="3" t="s">
@@ -3338,19 +4651,19 @@
       </c>
       <c r="AA18">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>18</v>
@@ -3373,34 +4686,34 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="I19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -3417,7 +4730,7 @@
       </c>
       <c r="P19" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="9">
@@ -3428,19 +4741,19 @@
         <v>0.25</v>
       </c>
       <c r="T19" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X19" s="15"/>
       <c r="Y19" s="3" t="s">
@@ -3451,19 +4764,19 @@
       </c>
       <c r="AA19">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>18</v>
@@ -3492,28 +4805,28 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="I20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -3530,7 +4843,7 @@
       </c>
       <c r="P20" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="9">
@@ -3541,19 +4854,19 @@
         <v>0.25</v>
       </c>
       <c r="T20" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="3" t="s">
@@ -3564,19 +4877,19 @@
       </c>
       <c r="AA20">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>18</v>
@@ -3599,34 +4912,34 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="I21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -3643,7 +4956,7 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="9">
@@ -3658,15 +4971,15 @@
       </c>
       <c r="U21" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="3" t="s">
@@ -3677,19 +4990,19 @@
       </c>
       <c r="AA21">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB21" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD21" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>18</v>
@@ -3718,28 +5031,28 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="I22" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
@@ -3756,7 +5069,7 @@
       </c>
       <c r="P22" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="9">
@@ -3771,15 +5084,15 @@
       </c>
       <c r="U22" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W22" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="3" t="s">
@@ -3790,19 +5103,19 @@
       </c>
       <c r="AA22">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB22" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD22" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE22" s="4" t="s">
         <v>18</v>
@@ -3825,34 +5138,34 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I23" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
@@ -3869,7 +5182,7 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="9">
@@ -3884,17 +5197,19 @@
       </c>
       <c r="U23" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
-      </c>
-      <c r="X23" s="15"/>
+        <v>5.05</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="Y23" s="3" t="s">
         <v>60</v>
       </c>
@@ -3903,19 +5218,19 @@
       </c>
       <c r="AA23">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB23" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD23" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>18</v>
@@ -3944,28 +5259,28 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
@@ -3982,7 +5297,7 @@
       </c>
       <c r="P24" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="9">
@@ -3997,15 +5312,15 @@
       </c>
       <c r="U24" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="3" t="s">
@@ -4016,19 +5331,19 @@
       </c>
       <c r="AA24">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD24" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>18</v>
@@ -4051,34 +5366,34 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="I25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L25" s="5">
         <v>0</v>
@@ -4095,7 +5410,7 @@
       </c>
       <c r="P25" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="9">
@@ -4110,15 +5425,15 @@
       </c>
       <c r="U25" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="3" t="s">
@@ -4129,19 +5444,19 @@
       </c>
       <c r="AA25">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD25" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE25" s="4" t="s">
         <v>18</v>
@@ -4170,28 +5485,28 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="I26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L26" s="5">
         <v>0</v>
@@ -4208,7 +5523,7 @@
       </c>
       <c r="P26" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="9">
@@ -4223,15 +5538,15 @@
       </c>
       <c r="U26" s="3">
         <f t="shared" ref="U26:U27" si="31">P26*T26</f>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" ref="V26:V27" si="32">T26*P26</f>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W26" s="6">
         <f t="shared" ref="W26:W27" si="33">P26+V26</f>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="3" t="s">
@@ -4242,19 +5557,19 @@
       </c>
       <c r="AA26">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB26" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD26" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>18</v>
@@ -4277,34 +5592,34 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="I27" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
@@ -4321,7 +5636,7 @@
       </c>
       <c r="P27" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="9">
@@ -4332,19 +5647,19 @@
         <v>0.25</v>
       </c>
       <c r="T27" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" si="31"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="32"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W27" s="6">
         <f t="shared" si="33"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X27" s="15"/>
       <c r="Y27" s="3" t="s">
@@ -4355,19 +5670,19 @@
       </c>
       <c r="AA27">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE27" s="4" t="s">
         <v>18</v>
@@ -4396,28 +5711,28 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="I28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
@@ -4434,7 +5749,7 @@
       </c>
       <c r="P28" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="9">
@@ -4445,19 +5760,19 @@
         <v>0.25</v>
       </c>
       <c r="T28" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ref="U28:U37" si="36">P28*T28</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V28" s="9">
         <f t="shared" ref="V28:V37" si="37">T28*P28</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W28" s="6">
         <f t="shared" ref="W28:W37" si="38">P28+V28</f>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X28" s="15"/>
       <c r="Y28" s="3" t="s">
@@ -4468,19 +5783,19 @@
       </c>
       <c r="AA28">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC28" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE28" s="4" t="s">
         <v>18</v>
@@ -4503,34 +5818,34 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I29" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
@@ -4547,7 +5862,7 @@
       </c>
       <c r="P29" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="9">
@@ -4558,19 +5873,19 @@
         <v>0.25</v>
       </c>
       <c r="T29" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U29" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V29" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W29" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X29" s="15"/>
       <c r="Y29" s="3" t="s">
@@ -4581,19 +5896,19 @@
       </c>
       <c r="AA29">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC29" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="4" t="s">
         <v>18</v>
@@ -4622,28 +5937,28 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I30" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L30" s="5">
         <v>0</v>
@@ -4660,7 +5975,7 @@
       </c>
       <c r="P30" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="9">
@@ -4671,19 +5986,19 @@
         <v>0.25</v>
       </c>
       <c r="T30" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W30" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="3" t="s">
@@ -4694,19 +6009,19 @@
       </c>
       <c r="AA30">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC30" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>18</v>
@@ -4729,34 +6044,34 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="I31" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L31" s="5">
         <v>0</v>
@@ -4773,7 +6088,7 @@
       </c>
       <c r="P31" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="9">
@@ -4788,15 +6103,15 @@
       </c>
       <c r="U31" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V31" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W31" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X31" s="15"/>
       <c r="Y31" s="3" t="s">
@@ -4807,19 +6122,19 @@
       </c>
       <c r="AA31">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB31" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD31" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE31" s="4" t="s">
         <v>18</v>
@@ -4848,28 +6163,28 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="I32" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
@@ -4886,7 +6201,7 @@
       </c>
       <c r="P32" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="9">
@@ -4901,15 +6216,15 @@
       </c>
       <c r="U32" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V32" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W32" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X32" s="15"/>
       <c r="Y32" s="3" t="s">
@@ -4920,19 +6235,19 @@
       </c>
       <c r="AA32">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB32" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC32" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD32" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE32" s="4" t="s">
         <v>18</v>
@@ -4955,34 +6270,34 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I33" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L33" s="5">
         <v>0</v>
@@ -4999,7 +6314,7 @@
       </c>
       <c r="P33" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="9">
@@ -5010,19 +6325,19 @@
         <v>0.25</v>
       </c>
       <c r="T33" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V33" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W33" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="3" t="s">
@@ -5033,19 +6348,19 @@
       </c>
       <c r="AA33">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC33" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE33" s="4" t="s">
         <v>18</v>
@@ -5074,28 +6389,28 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" s="5">
         <v>0</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
@@ -5112,7 +6427,7 @@
       </c>
       <c r="P34" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="9">
@@ -5123,19 +6438,19 @@
         <v>0.25</v>
       </c>
       <c r="T34" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U34" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V34" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W34" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X34" s="15"/>
       <c r="Y34" s="3" t="s">
@@ -5146,19 +6461,19 @@
       </c>
       <c r="AA34">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC34" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>18</v>
@@ -5181,34 +6496,34 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="I35" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" s="5">
         <v>0</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L35" s="5">
         <v>0</v>
@@ -5225,7 +6540,7 @@
       </c>
       <c r="P35" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="9">
@@ -5240,15 +6555,15 @@
       </c>
       <c r="U35" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V35" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W35" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="3" t="s">
@@ -5259,19 +6574,19 @@
       </c>
       <c r="AA35">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC35" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD35" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE35" s="4" t="s">
         <v>18</v>
@@ -5300,28 +6615,28 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="I36" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
@@ -5338,7 +6653,7 @@
       </c>
       <c r="P36" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="9">
@@ -5353,15 +6668,15 @@
       </c>
       <c r="U36" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V36" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W36" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
+        <v>5.05</v>
       </c>
       <c r="X36" s="15"/>
       <c r="Y36" s="3" t="s">
@@ -5372,19 +6687,19 @@
       </c>
       <c r="AA36">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AB36" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC36" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AD36" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3.03</v>
       </c>
       <c r="AE36" s="4" t="s">
         <v>18</v>
@@ -5407,34 +6722,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="I37" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L37" s="5">
         <v>0</v>
@@ -5451,7 +6766,7 @@
       </c>
       <c r="P37" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="9">
@@ -5462,22 +6777,19 @@
         <v>0.25</v>
       </c>
       <c r="T37" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U37" s="3">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V37" s="9">
         <f t="shared" si="37"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W37" s="6">
         <f t="shared" si="38"/>
-        <v>15.15</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="Y37" s="3" t="s">
         <v>60</v>
@@ -5487,19 +6799,19 @@
       </c>
       <c r="AA37">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC37" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE37" s="4" t="s">
         <v>18</v>
@@ -5528,28 +6840,28 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="I38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="5">
         <v>0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L38" s="5">
         <v>0</v>
@@ -5566,7 +6878,7 @@
       </c>
       <c r="P38" s="6">
         <f t="shared" ref="P38:P41" si="40">(((M38+1)*O38)*I38)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="9">
@@ -5577,19 +6889,19 @@
         <v>0.25</v>
       </c>
       <c r="T38" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U38" s="3">
         <f t="shared" ref="U38:U41" si="42">P38*T38</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" ref="V38:V41" si="43">T38*P38</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="W38" s="6">
         <f t="shared" ref="W38:W41" si="44">P38+V38</f>
-        <v>15.15</v>
+        <v>5</v>
       </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="3" t="s">
@@ -5600,19 +6912,19 @@
       </c>
       <c r="AA38">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AC38" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>3</v>
       </c>
       <c r="AE38" s="4" t="s">
         <v>18</v>
@@ -5641,19 +6953,19 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I39" s="5">
         <v>3</v>
@@ -5662,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L39" s="5">
         <v>0</v>
@@ -5754,19 +7066,19 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I40" s="5">
         <v>3</v>
@@ -5775,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -5867,19 +7179,19 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I41" s="5">
         <v>3</v>
@@ -5888,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L41" s="5">
         <v>0</v>
@@ -5980,19 +7292,19 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I42" s="5">
         <v>3</v>
@@ -6001,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
@@ -6093,19 +7405,19 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I43" s="5">
         <v>3</v>
@@ -6114,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
@@ -6158,7 +7470,7 @@
       </c>
       <c r="X43" s="15"/>
       <c r="Y43" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Z43">
         <v>2</v>
@@ -6206,19 +7518,19 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I44" s="5">
         <v>3</v>
@@ -6227,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L44" s="5">
         <v>0</v>
@@ -6319,19 +7631,19 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I45" s="5">
         <v>3</v>
@@ -6340,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L45" s="5">
         <v>0</v>
@@ -6432,19 +7744,19 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I46" s="5">
         <v>3</v>
@@ -6545,19 +7857,19 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I47" s="5">
         <v>3</v>
@@ -6658,19 +7970,19 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I48" s="5">
         <v>3</v>
@@ -6771,19 +8083,19 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I49" s="5">
         <v>3</v>
@@ -6884,19 +8196,19 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I50" s="5">
         <v>3</v>
@@ -6997,19 +8309,19 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I51" s="5">
         <v>3</v>
@@ -7110,19 +8422,19 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I52" s="5">
         <v>3</v>
@@ -7223,19 +8535,19 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I53" s="5">
         <v>3</v>
@@ -7336,19 +8648,19 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I54" s="5">
         <v>3</v>
@@ -7449,19 +8761,19 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
@@ -7562,19 +8874,19 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I56" s="5">
         <v>3</v>
@@ -7675,19 +8987,19 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I57" s="5">
         <v>3</v>
@@ -7788,19 +9100,19 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I58" s="5">
         <v>3</v>
@@ -7901,19 +9213,19 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I59" s="5">
         <v>3</v>
@@ -8014,19 +9326,19 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I60" s="5">
         <v>3</v>
@@ -8127,19 +9439,19 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I61" s="5">
         <v>3</v>
@@ -8240,28 +9552,28 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
       </c>
       <c r="J62" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L62" s="5">
         <v>0</v>
@@ -8353,28 +9665,28 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
       </c>
       <c r="J63" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
@@ -8466,28 +9778,28 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
       </c>
       <c r="J64" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L64" s="5">
         <v>0</v>
@@ -8579,28 +9891,28 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
       </c>
       <c r="J65" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
@@ -8692,19 +10004,19 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G66" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I66" s="5">
         <v>6</v>
@@ -8713,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="L66" s="5">
         <v>0</v>
@@ -8802,19 +10114,19 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -8823,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B7BCB1-97A8-4112-8001-E5D2AEBE1EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D99D4-B615-4123-9E0D-97CDCC211B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="180">
   <si>
     <t>password</t>
   </si>
@@ -1820,15 +1820,6 @@
     <t>student</t>
   </si>
   <si>
-    <t>nicholle_hulme@hulme.com.au</t>
-  </si>
-  <si>
-    <t>tijuana_mesch@gmail.com</t>
-  </si>
-  <si>
-    <t>lorenza.schoenleber@schoenleber.com.au</t>
-  </si>
-  <si>
     <t>FLAT55</t>
   </si>
   <si>
@@ -1838,12 +1829,6 @@
     <t>Wed</t>
   </si>
   <si>
-    <t>edelmira_pedregon@hotmail.com</t>
-  </si>
-  <si>
-    <t>andrew@gmail.com</t>
-  </si>
-  <si>
     <t>bharat</t>
   </si>
   <si>
@@ -1874,12 +1859,6 @@
     <t>hina</t>
   </si>
   <si>
-    <t>mdecelles@decelles.net.au</t>
-  </si>
-  <si>
-    <t>kizzy.stangle@yahoo.com</t>
-  </si>
-  <si>
     <t>lillian@hotmail.com</t>
   </si>
   <si>
@@ -1952,69 +1931,27 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>gms-academy/draw</t>
-  </si>
-  <si>
     <t>Painting</t>
   </si>
   <si>
-    <t>mgs</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>gms-academy/draw-2</t>
-  </si>
-  <si>
     <t>YIGXWD76</t>
   </si>
   <si>
-    <t>thilakdev@gmail.com</t>
-  </si>
-  <si>
-    <t>rajthilakdeva@gmail.com</t>
-  </si>
-  <si>
-    <t>thilakdeva@yahoo.com</t>
-  </si>
-  <si>
-    <t>rajthilak.d@netkathir.com</t>
-  </si>
-  <si>
-    <t>thilak@nurtem.com</t>
-  </si>
-  <si>
     <t>Clarinet</t>
   </si>
   <si>
     <t>ycs</t>
   </si>
   <si>
-    <t>ycs-acadamy/oil-group1</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Admin@123</t>
   </si>
   <si>
-    <t>Cello</t>
-  </si>
-  <si>
-    <t>srini2022</t>
-  </si>
-  <si>
-    <t>srini-vas/cello-group</t>
-  </si>
-  <si>
-    <t>srinivas.e@netkathir.com</t>
-  </si>
-  <si>
-    <t>ycs-acadamy/php-variable</t>
-  </si>
-  <si>
     <t>jsc</t>
   </si>
   <si>
@@ -2030,12 +1967,6 @@
     <t>jaya/paint-sess-15</t>
   </si>
   <si>
-    <t>msimco@gmail.com</t>
-  </si>
-  <si>
-    <t>curtis@ware.net.au</t>
-  </si>
-  <si>
     <t>denae_saeteun@hotmail.com</t>
   </si>
   <si>
@@ -2045,18 +1976,6 @@
     <t>mirene@gmail.com</t>
   </si>
   <si>
-    <t>lawana_yuasa@yuasa.net.au</t>
-  </si>
-  <si>
-    <t>lindsey_rathmann@rathmann.com.au</t>
-  </si>
-  <si>
-    <t>bbogacz@hotmail.com</t>
-  </si>
-  <si>
-    <t>rachael@gmail.com</t>
-  </si>
-  <si>
     <t>thomasena@gmail.com</t>
   </si>
   <si>
@@ -2084,9 +2003,6 @@
     <t>ernestine.paavola@paavola.com.au</t>
   </si>
   <si>
-    <t>jaya/paint-sess-19</t>
-  </si>
-  <si>
     <t>jaya/paint-sess-18</t>
   </si>
   <si>
@@ -2111,9 +2027,6 @@
     <t>jaya/paint-sess-12</t>
   </si>
   <si>
-    <t>jaya/paint-var-5</t>
-  </si>
-  <si>
     <t>ycs-acadamy/session-class-2</t>
   </si>
   <si>
@@ -2124,6 +2037,156 @@
   </si>
   <si>
     <t>deptfirst</t>
+  </si>
+  <si>
+    <t>sabrina_rabena@hotmail.com</t>
+  </si>
+  <si>
+    <t>anastacia@yahoo.com</t>
+  </si>
+  <si>
+    <t>elenor.siefken@yahoo.com</t>
+  </si>
+  <si>
+    <t>crista_padua@gmail.com</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGIN-Grade-1</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-Grade-1-2</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-Grade-2,5</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGD-Grade-k-5</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-Grade-6-8</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGD-Grade-9-12</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-Adult</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGIN--1</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-1-2</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-2,5</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGD-k-5</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-6-8</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGD-9-12</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-Adul</t>
+  </si>
+  <si>
+    <t>Shakthi-coaching-academy/Clarinet-SGO-Grage-2,5</t>
+  </si>
+  <si>
+    <t>ivette_servantes@servantes.com.au</t>
+  </si>
+  <si>
+    <t>merrilee@fajen.net.au</t>
+  </si>
+  <si>
+    <t>gianna@yahoo.com</t>
+  </si>
+  <si>
+    <t>hphinazee@yahoo.com</t>
+  </si>
+  <si>
+    <t>buck@yahoo.com</t>
+  </si>
+  <si>
+    <t>kenny@leicht.com.au</t>
+  </si>
+  <si>
+    <t>tabetha.bai@gmail.com</t>
+  </si>
+  <si>
+    <t>alonso_popper@hotmail.com</t>
+  </si>
+  <si>
+    <t>alonzo_polek@polek.net.au</t>
+  </si>
+  <si>
+    <t>son.magnotta@magnotta.net.au</t>
+  </si>
+  <si>
+    <t>jesusita@druck.net.au</t>
+  </si>
+  <si>
+    <t>annice_kunich@kunich.net.au</t>
+  </si>
+  <si>
+    <t>delila.buchman@hotmail.com</t>
+  </si>
+  <si>
+    <t>iraida.sionesini@yahoo.com</t>
+  </si>
+  <si>
+    <t>alona_driesenga@hotmail.com</t>
+  </si>
+  <si>
+    <t>lajuana.vonderahe@yahoo.com</t>
+  </si>
+  <si>
+    <t>madelyn.maestri@yahoo.com</t>
+  </si>
+  <si>
+    <t>louann_susmilch@yahoo.com</t>
+  </si>
+  <si>
+    <t>wdevol@devol.net.au</t>
+  </si>
+  <si>
+    <t>cgrafenstein@gmail.com</t>
+  </si>
+  <si>
+    <t>fairy_burket@burket.com.au</t>
+  </si>
+  <si>
+    <t>lurion@yahoo.com</t>
+  </si>
+  <si>
+    <t>rgayner@hotmail.com</t>
+  </si>
+  <si>
+    <t>shayduk@gmail.com</t>
+  </si>
+  <si>
+    <t>nfitz@hotmail.com</t>
+  </si>
+  <si>
+    <t>alimberg@limberg.com.au</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>sunday</t>
   </si>
 </sst>
 </file>
@@ -2246,7 +2309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2275,7 +2338,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -2620,8 +2682,8 @@
   <dimension ref="A1:AS129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2632,7 +2694,7 @@
     <col min="4" max="4" width="35.109375" customWidth="1"/>
     <col min="5" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="61.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="13" width="12.88671875" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" customWidth="1"/>
@@ -2646,7 +2708,7 @@
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="23" width="12.109375" style="10" customWidth="1"/>
     <col min="24" max="24" width="9.88671875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="21" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" style="20" customWidth="1"/>
     <col min="26" max="26" width="13.33203125" customWidth="1"/>
     <col min="27" max="27" width="14.109375" customWidth="1"/>
     <col min="28" max="28" width="13.33203125" customWidth="1"/>
@@ -2699,7 +2761,7 @@
         <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>20</v>
@@ -2776,25 +2838,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>57</v>
+      <c r="D2" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -2803,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -2890,25 +2952,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -2916,8 +2978,8 @@
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>104</v>
+      <c r="K3" t="s">
+        <v>103</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -2946,19 +3008,19 @@
         <v>0.25</v>
       </c>
       <c r="U3" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="Y3" s="15"/>
       <c r="Z3" s="3" t="s">
@@ -2969,7 +3031,7 @@
       </c>
       <c r="AB3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AC3" s="7">
         <f t="shared" si="7"/>
@@ -2977,11 +3039,11 @@
       </c>
       <c r="AD3" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AE3" s="7">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>18</v>
@@ -3004,25 +3066,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -3030,8 +3092,8 @@
       <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>100</v>
+      <c r="K4" t="s">
+        <v>175</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -3118,25 +3180,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -3144,8 +3206,8 @@
       <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>115</v>
+      <c r="K5" t="s">
+        <v>176</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -3174,23 +3236,23 @@
         <v>0.25</v>
       </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Y5" s="15"/>
       <c r="Z5" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AA5">
         <f>SUM(I5*0.05)</f>
@@ -3198,7 +3260,7 @@
       </c>
       <c r="AB5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.19899999999999998</v>
       </c>
       <c r="AC5" s="7">
         <f>SUM(Q5-AA5)</f>
@@ -3206,11 +3268,11 @@
       </c>
       <c r="AD5" s="7">
         <f>SUM(U5*AC5)</f>
-        <v>0</v>
+        <v>0.19899999999999998</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="9"/>
-        <v>19.899999999999999</v>
+        <v>20.099</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>18</v>
@@ -3233,34 +3295,34 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>177</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -3305,7 +3367,7 @@
       </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AA6">
         <f>SUM(I6*0.05)</f>
@@ -3348,25 +3410,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -3374,8 +3436,8 @@
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>104</v>
+      <c r="K7" t="s">
+        <v>178</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -3420,7 +3482,7 @@
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AA7">
         <f>SUM(I7*0.05)</f>
@@ -3463,25 +3525,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>107</v>
+      <c r="D8" t="s">
+        <v>133</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -3489,8 +3551,8 @@
       <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>115</v>
+      <c r="K8" t="s">
+        <v>95</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -3519,30 +3581,30 @@
         <v>0.25</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="21"/>
@@ -3550,11 +3612,11 @@
       </c>
       <c r="AD8" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AE8" s="7">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>18</v>
@@ -3577,25 +3639,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>108</v>
+      <c r="D9" t="s">
+        <v>149</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -3603,8 +3665,8 @@
       <c r="J9" s="5">
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>115</v>
+      <c r="K9" t="s">
+        <v>99</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -3614,61 +3676,61 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="9">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T9" s="3">
         <v>0.25</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W9" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>252.5</v>
       </c>
       <c r="Y9" s="15"/>
       <c r="Z9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA9">
         <v>2</v>
       </c>
       <c r="AB9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AC9" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="AD9" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>250.48</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>18</v>
@@ -3691,25 +3753,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>109</v>
+      <c r="D10" t="s">
+        <v>150</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -3717,8 +3779,8 @@
       <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>115</v>
+      <c r="K10" t="s">
+        <v>179</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -3763,7 +3825,7 @@
       </c>
       <c r="Y10" s="15"/>
       <c r="Z10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -3805,25 +3867,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>110</v>
+      <c r="D11" t="s">
+        <v>151</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -3831,8 +3893,8 @@
       <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>115</v>
+      <c r="K11" t="s">
+        <v>175</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -3861,30 +3923,30 @@
         <v>0.25</v>
       </c>
       <c r="U11" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W11" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA11">
         <v>2</v>
       </c>
       <c r="AB11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AC11" s="7">
         <f t="shared" si="21"/>
@@ -3892,11 +3954,11 @@
       </c>
       <c r="AD11" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AE11" s="7">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>18</v>
@@ -3919,25 +3981,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>111</v>
+      <c r="D12" t="s">
+        <v>152</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -3945,8 +4007,8 @@
       <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>115</v>
+      <c r="K12" t="s">
+        <v>176</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -3975,30 +4037,30 @@
         <v>0.25</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ref="V12:V25" si="26">Q12*U12</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W12" s="9">
         <f t="shared" ref="W12:W25" si="27">U12*Q12</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:X25" si="28">Q12+W12</f>
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA12">
         <v>2</v>
       </c>
       <c r="AB12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC12" s="7">
         <f t="shared" si="21"/>
@@ -4006,11 +4068,11 @@
       </c>
       <c r="AD12" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AE12" s="7">
         <f t="shared" si="23"/>
-        <v>18</v>
+        <v>18.18</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>18</v>
@@ -4033,25 +4095,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -4059,8 +4121,8 @@
       <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>104</v>
+      <c r="K13" t="s">
+        <v>177</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -4089,23 +4151,23 @@
         <v>0.25</v>
       </c>
       <c r="U13" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="9">
         <f t="shared" si="27"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" si="28"/>
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="15"/>
       <c r="Z13" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AA13">
         <f>SUM(I13*0.05)</f>
@@ -4113,7 +4175,7 @@
       </c>
       <c r="AB13">
         <f t="shared" si="20"/>
-        <v>0.19899999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="7">
         <f t="shared" si="21"/>
@@ -4121,11 +4183,11 @@
       </c>
       <c r="AD13" s="7">
         <f t="shared" si="22"/>
-        <v>0.19899999999999998</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" si="23"/>
-        <v>20.099</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>18</v>
@@ -4148,34 +4210,34 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="I14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>115</v>
+      <c r="K14" t="s">
+        <v>178</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -4193,7 +4255,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="9">
@@ -4208,38 +4270,38 @@
       </c>
       <c r="V14" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="W14" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>10.1</v>
       </c>
       <c r="Y14" s="15"/>
       <c r="Z14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA14">
         <v>2</v>
       </c>
       <c r="AB14">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD14" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>8.08</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>18</v>
@@ -4262,34 +4324,34 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>64</v>
+      <c r="D15" t="s">
+        <v>155</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="I15" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>124</v>
+      <c r="K15" t="s">
+        <v>95</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -4307,7 +4369,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="9">
@@ -4322,38 +4384,38 @@
       </c>
       <c r="V15" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="W15" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>10.1</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA15">
         <v>2</v>
       </c>
       <c r="AB15">
         <f t="shared" si="20"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AC15" s="7">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD15" s="7">
         <f t="shared" si="22"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AE15" s="7">
         <f t="shared" si="23"/>
-        <v>13.13</v>
+        <v>8.08</v>
       </c>
       <c r="AF15" s="4" t="s">
         <v>18</v>
@@ -4376,34 +4438,34 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>125</v>
+      <c r="K16" t="s">
+        <v>99</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -4421,7 +4483,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="9">
@@ -4436,38 +4498,38 @@
       </c>
       <c r="V16" s="3">
         <f t="shared" si="26"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="27"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="28"/>
-        <v>5.05</v>
+        <v>10.1</v>
       </c>
       <c r="Y16" s="15"/>
       <c r="Z16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA16">
         <v>2</v>
       </c>
       <c r="AB16">
         <f t="shared" si="20"/>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AD16" s="7">
         <f t="shared" si="22"/>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" si="23"/>
-        <v>3.03</v>
+        <v>8.08</v>
       </c>
       <c r="AF16" s="4" t="s">
         <v>18</v>
@@ -4490,34 +4552,34 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>125</v>
+      <c r="K17" t="s">
+        <v>176</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -4535,7 +4597,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="9">
@@ -4546,42 +4608,42 @@
         <v>0.25</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W17" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>10.1</v>
       </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA17">
         <v>2</v>
       </c>
       <c r="AB17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AC17" s="7">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AD17" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AE17" s="7">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>8.08</v>
       </c>
       <c r="AF17" s="4" t="s">
         <v>18</v>
@@ -4604,25 +4666,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -4631,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
       </c>
       <c r="M18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>4</v>
@@ -4651,7 +4713,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="9">
@@ -4662,42 +4724,42 @@
         <v>0.25</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W18" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>5.05</v>
       </c>
       <c r="Y18" s="15"/>
       <c r="Z18" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA18">
         <v>2</v>
       </c>
       <c r="AB18">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AC18" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE18" s="7">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>3.03</v>
       </c>
       <c r="AF18" s="4" t="s">
         <v>18</v>
@@ -4720,25 +4782,25 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -4747,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -4776,30 +4838,30 @@
         <v>0.25</v>
       </c>
       <c r="U19" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W19" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="Y19" s="15"/>
       <c r="Z19" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA19">
         <v>2</v>
       </c>
       <c r="AB19">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AC19" s="7">
         <f t="shared" si="21"/>
@@ -4807,11 +4869,11 @@
       </c>
       <c r="AD19" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>18</v>
@@ -4834,25 +4896,25 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -4861,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -4908,7 +4970,7 @@
       </c>
       <c r="Y20" s="15"/>
       <c r="Z20" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -4950,25 +5012,25 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -4977,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -5022,7 +5084,7 @@
       </c>
       <c r="Y21" s="15"/>
       <c r="Z21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -5064,25 +5126,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -5091,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
@@ -5138,7 +5200,7 @@
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -5180,25 +5242,25 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -5207,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
@@ -5251,10 +5313,10 @@
         <v>5.05</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -5296,25 +5358,25 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -5323,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
@@ -5368,7 +5430,7 @@
       </c>
       <c r="Y24" s="15"/>
       <c r="Z24" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -5410,25 +5472,25 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -5437,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L25" s="5">
         <v>0</v>
@@ -5482,7 +5544,7 @@
       </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -5524,25 +5586,25 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
@@ -5551,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L26" s="5">
         <v>0</v>
@@ -5596,7 +5658,7 @@
       </c>
       <c r="Y26" s="15"/>
       <c r="Z26" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -5638,25 +5700,25 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
@@ -5665,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
@@ -5710,7 +5772,7 @@
       </c>
       <c r="Y27" s="15"/>
       <c r="Z27" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -5752,25 +5814,25 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
@@ -5779,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
@@ -5824,7 +5886,7 @@
       </c>
       <c r="Y28" s="15"/>
       <c r="Z28" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -5866,25 +5928,25 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
@@ -5893,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
@@ -5938,7 +6000,7 @@
       </c>
       <c r="Y29" s="15"/>
       <c r="Z29" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -5980,25 +6042,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -6007,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L30" s="5">
         <v>0</v>
@@ -6052,7 +6114,7 @@
       </c>
       <c r="Y30" s="15"/>
       <c r="Z30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -6094,25 +6156,25 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -6121,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L31" s="5">
         <v>0</v>
@@ -6166,7 +6228,7 @@
       </c>
       <c r="Y31" s="15"/>
       <c r="Z31" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -6208,25 +6270,25 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -6235,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
@@ -6280,7 +6342,7 @@
       </c>
       <c r="Y32" s="15"/>
       <c r="Z32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -6322,25 +6384,25 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="G33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -6349,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L33" s="5">
         <v>0</v>
@@ -6394,7 +6456,7 @@
       </c>
       <c r="Y33" s="15"/>
       <c r="Z33" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -6436,25 +6498,25 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -6463,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
@@ -6508,7 +6570,7 @@
       </c>
       <c r="Y34" s="15"/>
       <c r="Z34" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -6550,25 +6612,25 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -6577,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L35" s="5">
         <v>0</v>
@@ -6622,7 +6684,7 @@
       </c>
       <c r="Y35" s="15"/>
       <c r="Z35" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -6664,25 +6726,25 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -6691,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
@@ -6736,7 +6798,7 @@
       </c>
       <c r="Y36" s="15"/>
       <c r="Z36" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -6778,25 +6840,25 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -6805,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L37" s="5">
         <v>0</v>
@@ -6849,7 +6911,7 @@
         <v>5</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -6891,25 +6953,25 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -6918,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L38" s="5">
         <v>0</v>
@@ -6963,7 +7025,7 @@
       </c>
       <c r="Y38" s="15"/>
       <c r="Z38" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -7005,25 +7067,25 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I39" s="5">
         <v>3</v>
@@ -7032,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L39" s="5">
         <v>0</v>
@@ -7077,7 +7139,7 @@
       </c>
       <c r="Y39" s="15"/>
       <c r="Z39" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -7119,25 +7181,25 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I40" s="5">
         <v>3</v>
@@ -7146,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -7191,7 +7253,7 @@
       </c>
       <c r="Y40" s="15"/>
       <c r="Z40" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -7233,25 +7295,25 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I41" s="5">
         <v>3</v>
@@ -7260,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L41" s="5">
         <v>0</v>
@@ -7305,7 +7367,7 @@
       </c>
       <c r="Y41" s="15"/>
       <c r="Z41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -7347,25 +7409,25 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I42" s="5">
         <v>3</v>
@@ -7374,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
@@ -7419,7 +7481,7 @@
       </c>
       <c r="Y42" s="15"/>
       <c r="Z42" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -7461,25 +7523,25 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I43" s="5">
         <v>3</v>
@@ -7488,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
@@ -7533,7 +7595,7 @@
       </c>
       <c r="Y43" s="15"/>
       <c r="Z43" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -7575,25 +7637,25 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I44" s="5">
         <v>3</v>
@@ -7602,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L44" s="5">
         <v>0</v>
@@ -7647,7 +7709,7 @@
       </c>
       <c r="Y44" s="15"/>
       <c r="Z44" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -7689,25 +7751,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I45" s="5">
         <v>3</v>
@@ -7716,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L45" s="5">
         <v>0</v>
@@ -7761,7 +7823,7 @@
       </c>
       <c r="Y45" s="15"/>
       <c r="Z45" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -7803,25 +7865,25 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I46" s="5">
         <v>3</v>
@@ -7830,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L46" s="5">
         <v>0</v>
@@ -7875,7 +7937,7 @@
       </c>
       <c r="Y46" s="15"/>
       <c r="Z46" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -7917,25 +7979,25 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I47" s="5">
         <v>3</v>
@@ -7944,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L47" s="5">
         <v>0</v>
@@ -7989,7 +8051,7 @@
       </c>
       <c r="Y47" s="15"/>
       <c r="Z47" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -8031,25 +8093,25 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I48" s="5">
         <v>3</v>
@@ -8058,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L48" s="5">
         <v>0</v>
@@ -8103,7 +8165,7 @@
       </c>
       <c r="Y48" s="15"/>
       <c r="Z48" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -8145,25 +8207,25 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I49" s="5">
         <v>3</v>
@@ -8172,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L49" s="5">
         <v>0</v>
@@ -8217,7 +8279,7 @@
       </c>
       <c r="Y49" s="15"/>
       <c r="Z49" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -8259,25 +8321,25 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I50" s="5">
         <v>3</v>
@@ -8286,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L50" s="5">
         <v>0</v>
@@ -8331,7 +8393,7 @@
       </c>
       <c r="Y50" s="15"/>
       <c r="Z50" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -8373,25 +8435,25 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I51" s="5">
         <v>3</v>
@@ -8400,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L51" s="5">
         <v>0</v>
@@ -8445,7 +8507,7 @@
       </c>
       <c r="Y51" s="15"/>
       <c r="Z51" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -8487,25 +8549,25 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I52" s="5">
         <v>3</v>
@@ -8514,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L52" s="5">
         <v>0</v>
@@ -8559,7 +8621,7 @@
       </c>
       <c r="Y52" s="15"/>
       <c r="Z52" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA52">
         <v>2</v>
@@ -8601,25 +8663,25 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I53" s="5">
         <v>3</v>
@@ -8628,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L53" s="5">
         <v>0</v>
@@ -8673,7 +8735,7 @@
       </c>
       <c r="Y53" s="15"/>
       <c r="Z53" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA53">
         <v>2</v>
@@ -8715,25 +8777,25 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I54" s="5">
         <v>3</v>
@@ -8742,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L54" s="5">
         <v>0</v>
@@ -8787,7 +8849,7 @@
       </c>
       <c r="Y54" s="15"/>
       <c r="Z54" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA54">
         <v>2</v>
@@ -8829,25 +8891,25 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
@@ -8856,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L55" s="5">
         <v>0</v>
@@ -8901,7 +8963,7 @@
       </c>
       <c r="Y55" s="15"/>
       <c r="Z55" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA55">
         <v>2</v>
@@ -8943,25 +9005,25 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I56" s="5">
         <v>3</v>
@@ -8970,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L56" s="5">
         <v>0</v>
@@ -9015,7 +9077,7 @@
       </c>
       <c r="Y56" s="15"/>
       <c r="Z56" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA56">
         <v>2</v>
@@ -9057,25 +9119,25 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I57" s="5">
         <v>3</v>
@@ -9084,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L57" s="5">
         <v>0</v>
@@ -9129,7 +9191,7 @@
       </c>
       <c r="Y57" s="15"/>
       <c r="Z57" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA57">
         <v>2</v>
@@ -9171,25 +9233,25 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I58" s="5">
         <v>3</v>
@@ -9198,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L58" s="5">
         <v>0</v>
@@ -9243,7 +9305,7 @@
       </c>
       <c r="Y58" s="15"/>
       <c r="Z58" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA58">
         <v>2</v>
@@ -9285,25 +9347,25 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I59" s="5">
         <v>3</v>
@@ -9312,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L59" s="5">
         <v>0</v>
@@ -9357,7 +9419,7 @@
       </c>
       <c r="Y59" s="15"/>
       <c r="Z59" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA59">
         <v>2</v>
@@ -9399,25 +9461,25 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I60" s="5">
         <v>3</v>
@@ -9426,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L60" s="5">
         <v>0</v>
@@ -9471,7 +9533,7 @@
       </c>
       <c r="Y60" s="15"/>
       <c r="Z60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA60">
         <v>2</v>
@@ -9513,25 +9575,25 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I61" s="5">
         <v>3</v>
@@ -9540,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L61" s="5">
         <v>0</v>
@@ -9585,7 +9647,7 @@
       </c>
       <c r="Y61" s="15"/>
       <c r="Z61" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA61">
         <v>2</v>
@@ -9627,25 +9689,25 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -9654,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L62" s="5">
         <v>0</v>
@@ -9699,7 +9761,7 @@
       </c>
       <c r="Y62" s="15"/>
       <c r="Z62" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA62">
         <v>2</v>
@@ -9741,25 +9803,25 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -9768,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
@@ -9813,7 +9875,7 @@
       </c>
       <c r="Y63" s="15"/>
       <c r="Z63" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA63">
         <v>2</v>
@@ -9855,25 +9917,25 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -9882,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L64" s="5">
         <v>0</v>
@@ -9927,7 +9989,7 @@
       </c>
       <c r="Y64" s="15"/>
       <c r="Z64" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA64">
         <v>2</v>
@@ -9969,25 +10031,25 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -9996,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
@@ -10041,7 +10103,7 @@
       </c>
       <c r="Y65" s="15"/>
       <c r="Z65" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA65">
         <v>2</v>
@@ -10083,25 +10145,25 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I66" s="5">
         <v>6</v>
@@ -10110,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L66" s="5">
         <v>0</v>
@@ -10155,7 +10217,7 @@
       </c>
       <c r="Y66" s="15"/>
       <c r="Z66" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA66">
         <v>2</v>
@@ -10200,19 +10262,19 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -10221,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>
@@ -10266,7 +10328,7 @@
       </c>
       <c r="Y67" s="15"/>
       <c r="Z67" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA67">
         <v>2</v>
@@ -11610,7 +11672,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="9"/>
       <c r="X110" s="6"/>
-      <c r="Y110" s="22"/>
+      <c r="Y110" s="21"/>
       <c r="Z110" s="16"/>
       <c r="AA110" s="18"/>
       <c r="AB110" s="18"/>
@@ -11657,7 +11719,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="9"/>
       <c r="X111" s="6"/>
-      <c r="Y111" s="22"/>
+      <c r="Y111" s="21"/>
       <c r="Z111" s="16"/>
       <c r="AA111" s="18"/>
       <c r="AB111" s="18"/>
@@ -11704,7 +11766,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="9"/>
       <c r="X112" s="6"/>
-      <c r="Y112" s="22"/>
+      <c r="Y112" s="21"/>
       <c r="Z112" s="16"/>
       <c r="AA112" s="18"/>
       <c r="AB112" s="18"/>
@@ -11751,7 +11813,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="9"/>
       <c r="X113" s="6"/>
-      <c r="Y113" s="22"/>
+      <c r="Y113" s="21"/>
       <c r="Z113" s="16"/>
       <c r="AA113" s="18"/>
       <c r="AB113" s="18"/>
@@ -11798,7 +11860,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="9"/>
       <c r="X114" s="6"/>
-      <c r="Y114" s="22"/>
+      <c r="Y114" s="21"/>
       <c r="Z114" s="16"/>
       <c r="AA114" s="18"/>
       <c r="AB114" s="18"/>
@@ -11845,7 +11907,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="9"/>
       <c r="X115" s="6"/>
-      <c r="Y115" s="22"/>
+      <c r="Y115" s="21"/>
       <c r="Z115" s="16"/>
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
@@ -11899,7 +11961,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="9"/>
       <c r="X117" s="6"/>
-      <c r="Y117" s="22"/>
+      <c r="Y117" s="21"/>
       <c r="Z117" s="16"/>
       <c r="AA117" s="18"/>
       <c r="AB117" s="18"/>
@@ -11946,7 +12008,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="9"/>
       <c r="X118" s="6"/>
-      <c r="Y118" s="22"/>
+      <c r="Y118" s="21"/>
       <c r="Z118" s="16"/>
       <c r="AA118" s="18"/>
       <c r="AB118" s="18"/>
@@ -11993,7 +12055,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="9"/>
       <c r="X119" s="6"/>
-      <c r="Y119" s="22"/>
+      <c r="Y119" s="21"/>
       <c r="Z119" s="16"/>
       <c r="AA119" s="18"/>
       <c r="AB119" s="18"/>
@@ -12040,7 +12102,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="9"/>
       <c r="X120" s="6"/>
-      <c r="Y120" s="22"/>
+      <c r="Y120" s="21"/>
       <c r="Z120" s="16"/>
       <c r="AA120" s="18"/>
       <c r="AB120" s="18"/>
@@ -12087,7 +12149,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="9"/>
       <c r="X121" s="6"/>
-      <c r="Y121" s="22"/>
+      <c r="Y121" s="21"/>
       <c r="Z121" s="16"/>
       <c r="AA121" s="18"/>
       <c r="AB121" s="18"/>
@@ -12134,7 +12196,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="9"/>
       <c r="X122" s="6"/>
-      <c r="Y122" s="22"/>
+      <c r="Y122" s="21"/>
       <c r="Z122" s="16"/>
       <c r="AA122" s="18"/>
       <c r="AB122" s="18"/>
@@ -12188,7 +12250,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="9"/>
       <c r="X124" s="6"/>
-      <c r="Y124" s="22"/>
+      <c r="Y124" s="21"/>
       <c r="Z124" s="16"/>
       <c r="AA124" s="18"/>
       <c r="AB124" s="18"/>
@@ -12235,7 +12297,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="9"/>
       <c r="X125" s="6"/>
-      <c r="Y125" s="22"/>
+      <c r="Y125" s="21"/>
       <c r="Z125" s="16"/>
       <c r="AA125" s="18"/>
       <c r="AB125" s="18"/>
@@ -12282,7 +12344,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="9"/>
       <c r="X126" s="6"/>
-      <c r="Y126" s="22"/>
+      <c r="Y126" s="21"/>
       <c r="Z126" s="16"/>
       <c r="AA126" s="18"/>
       <c r="AB126" s="18"/>
@@ -12329,7 +12391,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="9"/>
       <c r="X127" s="6"/>
-      <c r="Y127" s="22"/>
+      <c r="Y127" s="21"/>
       <c r="Z127" s="16"/>
       <c r="AA127" s="18"/>
       <c r="AB127" s="18"/>
@@ -12376,7 +12438,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="9"/>
       <c r="X128" s="6"/>
-      <c r="Y128" s="22"/>
+      <c r="Y128" s="21"/>
       <c r="Z128" s="16"/>
       <c r="AA128" s="18"/>
       <c r="AB128" s="18"/>
@@ -12423,7 +12485,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="9"/>
       <c r="X129" s="6"/>
-      <c r="Y129" s="22"/>
+      <c r="Y129" s="21"/>
       <c r="Z129" s="16"/>
       <c r="AA129" s="18"/>
       <c r="AB129" s="18"/>
@@ -12505,16 +12567,13 @@
     <hyperlink ref="E66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="E67" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="E5" r:id="rId57" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
-    <hyperlink ref="D8" r:id="rId58" xr:uid="{0F2190F1-767F-4ECC-82A3-75E99E41A3DB}"/>
-    <hyperlink ref="D9" r:id="rId59" xr:uid="{49303FA7-DC4C-4BA1-AD08-2083402256AC}"/>
-    <hyperlink ref="E7" r:id="rId60" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
-    <hyperlink ref="E6" r:id="rId61" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
-    <hyperlink ref="E13" r:id="rId62" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
-    <hyperlink ref="D15" r:id="rId63" xr:uid="{B68A5DCE-F1F6-4BFE-A268-8263EF371C64}"/>
+    <hyperlink ref="E7" r:id="rId58" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
+    <hyperlink ref="E6" r:id="rId59" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
+    <hyperlink ref="E13" r:id="rId60" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
-  <legacyDrawing r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
+  <legacyDrawing r:id="rId62"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D99D4-B615-4123-9E0D-97CDCC211B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E9B89-6756-4268-AD36-AD390001B7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{A983F33A-3CE1-4E6A-B642-029CB6D5EB7A}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{6FA74655-91A9-40FD-A876-942121A7309C}">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{961FE27D-1137-4CB0-AB72-349414FDB5F8}">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{18B7F140-84BC-48C6-A256-CE14DA8D71D9}">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{C02CF64E-207C-4D6F-8A5C-DFDDD1BB579B}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{E93961A6-7FAC-4058-A683-24C5F0379999}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{33DB6552-9F09-442A-9560-F7AE492AAF64}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{5F21EAB6-C00F-475A-8DC8-E3900DC563C9}">
       <text>
         <r>
           <rPr>
@@ -576,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{F1FE3ABC-7175-4958-A7E1-7C342C585693}">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{9F6F3F78-FFD7-46FD-A302-C8DCE493770A}">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="121">
   <si>
     <t>password</t>
   </si>
@@ -1826,99 +1826,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>bharat</t>
-  </si>
-  <si>
-    <t>torie_deras@yahoo.com</t>
-  </si>
-  <si>
-    <t>tamie@hollimon.com.au</t>
-  </si>
-  <si>
-    <t>lettie_hessenthaler@hessenthaler.net.au</t>
-  </si>
-  <si>
-    <t>chaya_muhlbauer@muhlbauer.net.au</t>
-  </si>
-  <si>
-    <t>terina_wildeboer@wildeboer.com.au</t>
-  </si>
-  <si>
-    <t>lisbeth.agney@agney.net.au</t>
-  </si>
-  <si>
-    <t>TENPER</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hina</t>
-  </si>
-  <si>
-    <t>lillian@hotmail.com</t>
-  </si>
-  <si>
-    <t>clindblom@gmail.com</t>
-  </si>
-  <si>
-    <t>dylan_chaleun@hotmail.com</t>
-  </si>
-  <si>
-    <t>jerrod_luening@luening.com.au</t>
-  </si>
-  <si>
-    <t>gracie.vicente@hotmail.com</t>
-  </si>
-  <si>
-    <t>barabara@amedro.net.au</t>
-  </si>
-  <si>
-    <t>dducos@hotmail.com</t>
-  </si>
-  <si>
-    <t>cdigregorio@digregorio.net.au</t>
-  </si>
-  <si>
-    <t>tamekia_kajder@yahoo.com</t>
-  </si>
-  <si>
-    <t>johanna@yahoo.com</t>
-  </si>
-  <si>
-    <t>hinata-san/sess-date-wed</t>
-  </si>
-  <si>
-    <t>hina1</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>hinata-san/-mvg-tamil-1</t>
-  </si>
-  <si>
-    <t>hinata-san/-mvg-math-3</t>
-  </si>
-  <si>
-    <t>aretha_bodle@hotmail.com</t>
-  </si>
-  <si>
-    <t>dood</t>
-  </si>
-  <si>
-    <t>test-tutor/multiday-test</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>test-tutor/sample-class</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
@@ -1955,18 +1862,12 @@
     <t>jsc</t>
   </si>
   <si>
-    <t>jaya/paint-sess-1</t>
-  </si>
-  <si>
     <t>Sunday</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>jaya/paint-sess-15</t>
-  </si>
-  <si>
     <t>denae_saeteun@hotmail.com</t>
   </si>
   <si>
@@ -1976,66 +1877,12 @@
     <t>mirene@gmail.com</t>
   </si>
   <si>
-    <t>thomasena@gmail.com</t>
-  </si>
-  <si>
-    <t>halina.dellen@dellen.com.au</t>
-  </si>
-  <si>
-    <t>ryann@hotmail.com</t>
-  </si>
-  <si>
-    <t>svugteveen@vugteveen.net.au</t>
-  </si>
-  <si>
-    <t>leah@milsap.com.au</t>
-  </si>
-  <si>
-    <t>ira.zihal@yahoo.com</t>
-  </si>
-  <si>
-    <t>paris.kinnison@gmail.com</t>
-  </si>
-  <si>
-    <t>shayne.sundahl@gmail.com</t>
-  </si>
-  <si>
-    <t>ernestine.paavola@paavola.com.au</t>
-  </si>
-  <si>
     <t>jaya/paint-sess-18</t>
   </si>
   <si>
-    <t>jaya/paint-sess-16</t>
-  </si>
-  <si>
-    <t>jaya/paint-sess-14</t>
-  </si>
-  <si>
-    <t>jaya/paint-sess-13</t>
-  </si>
-  <si>
-    <t>jaya/paint-sess-3</t>
-  </si>
-  <si>
-    <t>jaya/paint-sess-2</t>
-  </si>
-  <si>
-    <t>jaya/paint-sess-4</t>
-  </si>
-  <si>
-    <t>jaya/paint-sess-12</t>
-  </si>
-  <si>
     <t>ycs-acadamy/session-class-2</t>
   </si>
   <si>
-    <t>ycs-acadamy/mf-class-1</t>
-  </si>
-  <si>
-    <t>ycs-acadamy/mv-class-2</t>
-  </si>
-  <si>
     <t>deptfirst</t>
   </si>
   <si>
@@ -2132,48 +1979,6 @@
     <t>annice_kunich@kunich.net.au</t>
   </si>
   <si>
-    <t>delila.buchman@hotmail.com</t>
-  </si>
-  <si>
-    <t>iraida.sionesini@yahoo.com</t>
-  </si>
-  <si>
-    <t>alona_driesenga@hotmail.com</t>
-  </si>
-  <si>
-    <t>lajuana.vonderahe@yahoo.com</t>
-  </si>
-  <si>
-    <t>madelyn.maestri@yahoo.com</t>
-  </si>
-  <si>
-    <t>louann_susmilch@yahoo.com</t>
-  </si>
-  <si>
-    <t>wdevol@devol.net.au</t>
-  </si>
-  <si>
-    <t>cgrafenstein@gmail.com</t>
-  </si>
-  <si>
-    <t>fairy_burket@burket.com.au</t>
-  </si>
-  <si>
-    <t>lurion@yahoo.com</t>
-  </si>
-  <si>
-    <t>rgayner@hotmail.com</t>
-  </si>
-  <si>
-    <t>shayduk@gmail.com</t>
-  </si>
-  <si>
-    <t>nfitz@hotmail.com</t>
-  </si>
-  <si>
-    <t>alimberg@limberg.com.au</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -2187,6 +1992,24 @@
   </si>
   <si>
     <t>sunday</t>
+  </si>
+  <si>
+    <t>ycs-acadamy/php-session-4</t>
+  </si>
+  <si>
+    <t>pa_badgero@badgero.com.au</t>
+  </si>
+  <si>
+    <t>dorathy.miskelly@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigo_schuh@gmail.com</t>
+  </si>
+  <si>
+    <t>stanford_waganer@waganer.net.au</t>
+  </si>
+  <si>
+    <t>michael_orehek@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2682,8 +2505,8 @@
   <dimension ref="A1:AS129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2761,7 +2584,7 @@
         <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>20</v>
@@ -2844,19 +2667,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -2865,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -2882,7 +2705,7 @@
         <v>12.5</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q37" si="1">(((N2+1)*P2)*I2)</f>
+        <f t="shared" ref="Q2:Q21" si="1">(((N2+1)*P2)*I2)</f>
         <v>50</v>
       </c>
       <c r="R2" s="6"/>
@@ -2952,25 +2775,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -2979,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -3066,25 +2889,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -3093,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -3180,25 +3003,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -3207,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -3252,7 +3075,7 @@
       </c>
       <c r="Y5" s="15"/>
       <c r="Z5" s="3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AA5">
         <f>SUM(I5*0.05)</f>
@@ -3295,25 +3118,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
@@ -3322,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -3367,7 +3190,7 @@
       </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AA6">
         <f>SUM(I6*0.05)</f>
@@ -3410,25 +3233,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -3437,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -3482,26 +3305,26 @@
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AA7">
         <f>SUM(I7*0.05)</f>
         <v>0.1</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7:AB67" si="20">SUM(U7*AC7)</f>
+        <f t="shared" ref="AB7:AB21" si="20">SUM(U7*AC7)</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="AC7" s="7">
-        <f t="shared" ref="AC7:AC67" si="21">SUM(Q7-AA7)</f>
+        <f t="shared" ref="AC7:AC21" si="21">SUM(Q7-AA7)</f>
         <v>9.9</v>
       </c>
       <c r="AD7" s="7">
-        <f t="shared" ref="AD7:AD67" si="22">SUM(U7*AC7)</f>
+        <f t="shared" ref="AD7:AD21" si="22">SUM(U7*AC7)</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" ref="AE7:AE67" si="23">SUM(AB7+AC7)</f>
+        <f t="shared" ref="AE7:AE21" si="23">SUM(AB7+AC7)</f>
         <v>9.9990000000000006</v>
       </c>
       <c r="AF7" s="4" t="s">
@@ -3525,25 +3348,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -3552,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -3639,25 +3462,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -3666,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -3753,25 +3576,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -3780,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -3867,25 +3690,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -3894,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -3981,25 +3804,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -4008,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -4021,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" ref="P12:P25" si="24">O12+S12</f>
+        <f t="shared" ref="P12:P21" si="24">O12+S12</f>
         <v>5</v>
       </c>
       <c r="Q12" s="6">
@@ -4030,7 +3853,7 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="9">
-        <f t="shared" ref="S12:S25" si="25">O12*T12</f>
+        <f t="shared" ref="S12:S21" si="25">O12*T12</f>
         <v>1</v>
       </c>
       <c r="T12" s="3">
@@ -4040,15 +3863,15 @@
         <v>0.01</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" ref="V12:V25" si="26">Q12*U12</f>
+        <f t="shared" ref="V12:V21" si="26">Q12*U12</f>
         <v>0.2</v>
       </c>
       <c r="W12" s="9">
-        <f t="shared" ref="W12:W25" si="27">U12*Q12</f>
+        <f t="shared" ref="W12:W21" si="27">U12*Q12</f>
         <v>0.2</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" ref="X12:X25" si="28">Q12+W12</f>
+        <f t="shared" ref="X12:X21" si="28">Q12+W12</f>
         <v>20.2</v>
       </c>
       <c r="Y12" s="15"/>
@@ -4095,25 +3918,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -4122,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -4167,7 +3990,7 @@
       </c>
       <c r="Y13" s="15"/>
       <c r="Z13" s="3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AA13">
         <f>SUM(I13*0.05)</f>
@@ -4210,25 +4033,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="I14" s="5">
         <v>2</v>
@@ -4237,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -4324,25 +4147,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -4351,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -4438,25 +4261,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -4465,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -4552,25 +4375,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
@@ -4579,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -4672,19 +4495,19 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -4693,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -4788,19 +4611,19 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -4809,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -4902,19 +4725,19 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -4923,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -4954,19 +4777,19 @@
         <v>0.25</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W20" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Y20" s="15"/>
       <c r="Z20" s="3" t="s">
@@ -4977,7 +4800,7 @@
       </c>
       <c r="AB20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC20" s="7">
         <f t="shared" si="21"/>
@@ -4985,11 +4808,11 @@
       </c>
       <c r="AD20" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" si="23"/>
-        <v>18</v>
+        <v>18.18</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>18</v>
@@ -5012,56 +4835,58 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
       <c r="N21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
         <v>4</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="P21:P25" si="29">O21+S21</f>
         <v>5</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="Q21:Q25" si="30">(((N21+1)*P21)*I21)</f>
+        <v>20</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="S21:S25" si="31">O21*T21</f>
         <v>1</v>
       </c>
       <c r="T21" s="3">
@@ -5071,16 +4896,16 @@
         <v>0.01</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="26"/>
-        <v>0.05</v>
+        <f t="shared" ref="V21:V25" si="32">Q21*U21</f>
+        <v>0.2</v>
       </c>
       <c r="W21" s="9">
-        <f t="shared" si="27"/>
-        <v>0.05</v>
+        <f t="shared" ref="W21:W25" si="33">U21*Q21</f>
+        <v>0.2</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" si="28"/>
-        <v>5.05</v>
+        <f t="shared" ref="X21:X25" si="34">Q21+W21</f>
+        <v>20.2</v>
       </c>
       <c r="Y21" s="15"/>
       <c r="Z21" s="3" t="s">
@@ -5090,20 +4915,20 @@
         <v>2</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
+        <f t="shared" ref="AB21:AB25" si="35">SUM(U21*AC21)</f>
+        <v>0.18</v>
       </c>
       <c r="AC21" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" ref="AC21:AC25" si="36">SUM(Q21-AA21)</f>
+        <v>18</v>
       </c>
       <c r="AD21" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
+        <f t="shared" ref="AD21:AD25" si="37">SUM(U21*AC21)</f>
+        <v>0.18</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
+        <f t="shared" ref="AE21:AE25" si="38">SUM(AB21+AC21)</f>
+        <v>18.18</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>18</v>
@@ -5126,25 +4951,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -5153,31 +4978,31 @@
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
       </c>
       <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
         <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>4</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T22" s="3">
@@ -5187,16 +5012,16 @@
         <v>0.01</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="26"/>
-        <v>0.1</v>
+        <f t="shared" si="32"/>
+        <v>0.2</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="27"/>
-        <v>0.1</v>
+        <f t="shared" si="33"/>
+        <v>0.2</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="28"/>
-        <v>10.1</v>
+        <f t="shared" si="34"/>
+        <v>20.2</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="3" t="s">
@@ -5206,20 +5031,20 @@
         <v>2</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="20"/>
-        <v>0.08</v>
+        <f t="shared" si="35"/>
+        <v>0.18</v>
       </c>
       <c r="AC22" s="7">
-        <f t="shared" si="21"/>
-        <v>8</v>
+        <f t="shared" si="36"/>
+        <v>18</v>
       </c>
       <c r="AD22" s="7">
-        <f t="shared" si="22"/>
-        <v>0.08</v>
+        <f t="shared" si="37"/>
+        <v>0.18</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="23"/>
-        <v>8.08</v>
+        <f t="shared" si="38"/>
+        <v>18.18</v>
       </c>
       <c r="AF22" s="4" t="s">
         <v>18</v>
@@ -5242,56 +5067,58 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
       <c r="N23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
         <v>4</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T23" s="3">
@@ -5301,20 +5128,18 @@
         <v>0.01</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="26"/>
-        <v>0.05</v>
+        <f t="shared" si="32"/>
+        <v>0.2</v>
       </c>
       <c r="W23" s="9">
-        <f t="shared" si="27"/>
-        <v>0.05</v>
+        <f t="shared" si="33"/>
+        <v>0.2</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="28"/>
-        <v>5.05</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="34"/>
+        <v>20.2</v>
+      </c>
+      <c r="Y23" s="15"/>
       <c r="Z23" s="3" t="s">
         <v>57</v>
       </c>
@@ -5322,20 +5147,20 @@
         <v>2</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
+        <f t="shared" si="35"/>
+        <v>0.18</v>
       </c>
       <c r="AC23" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" si="36"/>
+        <v>18</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
+        <f t="shared" si="37"/>
+        <v>0.18</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
+        <f t="shared" si="38"/>
+        <v>18.18</v>
       </c>
       <c r="AF23" s="4" t="s">
         <v>18</v>
@@ -5358,56 +5183,58 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
       <c r="N24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
         <v>4</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T24" s="3">
@@ -5417,16 +5244,16 @@
         <v>0.01</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="26"/>
-        <v>0.05</v>
+        <f t="shared" si="32"/>
+        <v>0.2</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" si="27"/>
-        <v>0.05</v>
+        <f t="shared" si="33"/>
+        <v>0.2</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" si="28"/>
-        <v>5.05</v>
+        <f t="shared" si="34"/>
+        <v>20.2</v>
       </c>
       <c r="Y24" s="15"/>
       <c r="Z24" s="3" t="s">
@@ -5436,20 +5263,20 @@
         <v>2</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
+        <f t="shared" si="35"/>
+        <v>0.18</v>
       </c>
       <c r="AC24" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" si="36"/>
+        <v>18</v>
       </c>
       <c r="AD24" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
+        <f t="shared" si="37"/>
+        <v>0.18</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
+        <f t="shared" si="38"/>
+        <v>18.18</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>18</v>
@@ -5472,56 +5299,58 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L25" s="5">
         <v>0</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
       <c r="N25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
         <v>4</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="30"/>
+        <v>20</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T25" s="3">
@@ -5531,16 +5360,16 @@
         <v>0.01</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="26"/>
-        <v>0.05</v>
+        <f t="shared" si="32"/>
+        <v>0.2</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="27"/>
-        <v>0.05</v>
+        <f t="shared" si="33"/>
+        <v>0.2</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="28"/>
-        <v>5.05</v>
+        <f t="shared" si="34"/>
+        <v>20.2</v>
       </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="3" t="s">
@@ -5550,20 +5379,20 @@
         <v>2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
+        <f t="shared" si="35"/>
+        <v>0.18</v>
       </c>
       <c r="AC25" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
+        <f t="shared" si="36"/>
+        <v>18</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
+        <f t="shared" si="37"/>
+        <v>0.18</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
+        <f t="shared" si="38"/>
+        <v>18.18</v>
       </c>
       <c r="AF25" s="4" t="s">
         <v>18</v>
@@ -5581,4789 +5410,1348 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>4</v>
-      </c>
-      <c r="P26" s="9">
-        <f t="shared" ref="P26:P27" si="29">O26+S26</f>
-        <v>5</v>
-      </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="9">
-        <f t="shared" ref="S26:S27" si="30">O26*T26</f>
-        <v>1</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V26" s="3">
-        <f t="shared" ref="V26:V27" si="31">Q26*U26</f>
-        <v>0.05</v>
-      </c>
-      <c r="W26" s="9">
-        <f t="shared" ref="W26:W27" si="32">U26*Q26</f>
-        <v>0.05</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" ref="X26:X27" si="33">Q26+W26</f>
-        <v>5.05</v>
-      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="6"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA26">
-        <v>2</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC26" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD26" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE26" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ26" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z26" s="3"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="C27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>4</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="9">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="9">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="6">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="6"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA27">
-        <v>2</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD27" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ27" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z27" s="3"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>4</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" ref="P28:P37" si="34">O28+S28</f>
-        <v>5</v>
-      </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="9">
-        <f t="shared" ref="S28:S37" si="35">O28*T28</f>
-        <v>1</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" ref="V28:V37" si="36">Q28*U28</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="9">
-        <f t="shared" ref="W28:W37" si="37">U28*Q28</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <f t="shared" ref="X28:X37" si="38">Q28+W28</f>
-        <v>5</v>
-      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="6"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z28" s="3"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>4</v>
-      </c>
-      <c r="P29" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="6">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="6"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA29">
-        <v>2</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD29" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ29" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z29" s="3"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>4</v>
-      </c>
-      <c r="P30" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="6">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="6"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA30">
-        <v>2</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD30" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ30" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z30" s="3"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>4</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V31" s="3">
-        <f t="shared" si="36"/>
-        <v>0.05</v>
-      </c>
-      <c r="W31" s="9">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
-      </c>
-      <c r="X31" s="6">
-        <f t="shared" si="38"/>
-        <v>5.05</v>
-      </c>
+      <c r="S31" s="9"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="6"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA31">
-        <v>2</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC31" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD31" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE31" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI31" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ31" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="5">
-        <v>1</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z31" s="3"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4</v>
-      </c>
-      <c r="P32" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q32" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V32" s="3">
-        <f t="shared" si="36"/>
-        <v>0.05</v>
-      </c>
-      <c r="W32" s="9">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
-      </c>
-      <c r="X32" s="6">
-        <f t="shared" si="38"/>
-        <v>5.05</v>
-      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="6"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA32">
-        <v>2</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC32" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD32" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE32" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI32" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ32" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z32" s="3"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="11"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>4</v>
-      </c>
-      <c r="P33" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="6">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
+      <c r="S33" s="9"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="6"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA33">
-        <v>2</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD33" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI33" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z33" s="3"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>4</v>
-      </c>
-      <c r="P34" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
-      <c r="V34" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="6">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="6"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA34">
-        <v>2</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD34" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI34" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ34" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z34" s="3"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="11"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>4</v>
-      </c>
-      <c r="P35" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V35" s="3">
-        <f t="shared" si="36"/>
-        <v>0.05</v>
-      </c>
-      <c r="W35" s="9">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
-      </c>
-      <c r="X35" s="6">
-        <f t="shared" si="38"/>
-        <v>5.05</v>
-      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="6"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC35" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD35" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE35" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ35" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z35" s="3"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="11"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>4</v>
-      </c>
-      <c r="P36" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T36" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U36" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V36" s="3">
-        <f t="shared" si="36"/>
-        <v>0.05</v>
-      </c>
-      <c r="W36" s="9">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
-      </c>
-      <c r="X36" s="6">
-        <f t="shared" si="38"/>
-        <v>5.05</v>
-      </c>
+      <c r="S36" s="9"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="6"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC36" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD36" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE36" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ36" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z36" s="3"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="11"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>4</v>
-      </c>
-      <c r="P37" s="9">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="Q37" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="9">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="T37" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U37" s="3">
-        <v>0</v>
-      </c>
-      <c r="V37" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="6">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD37" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI37" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ37" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="6"/>
+      <c r="Z37" s="3"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="11"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>4</v>
-      </c>
-      <c r="P38" s="9">
-        <f t="shared" ref="P38:P41" si="39">O38+S38</f>
-        <v>5</v>
-      </c>
-      <c r="Q38" s="6">
-        <f t="shared" ref="Q38:Q41" si="40">(((N38+1)*P38)*I38)</f>
-        <v>5</v>
-      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="9">
-        <f t="shared" ref="S38:S41" si="41">O38*T38</f>
-        <v>1</v>
-      </c>
-      <c r="T38" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <f t="shared" ref="V38:V41" si="42">Q38*U38</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="9">
-        <f t="shared" ref="W38:W41" si="43">U38*Q38</f>
-        <v>0</v>
-      </c>
-      <c r="X38" s="6">
-        <f t="shared" ref="X38:X41" si="44">Q38+W38</f>
-        <v>5</v>
-      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="6"/>
       <c r="Y38" s="15"/>
-      <c r="Z38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD38" s="7">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="7">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AF38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI38" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ38" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="5">
-        <v>3</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z38" s="3"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="11"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>4</v>
-      </c>
-      <c r="P39" s="9">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="Q39" s="6">
-        <f t="shared" si="40"/>
-        <v>15</v>
-      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="9">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U39" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V39" s="3">
-        <f t="shared" si="42"/>
-        <v>0.15</v>
-      </c>
-      <c r="W39" s="9">
-        <f t="shared" si="43"/>
-        <v>0.15</v>
-      </c>
-      <c r="X39" s="6">
-        <f t="shared" si="44"/>
-        <v>15.15</v>
-      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="6"/>
       <c r="Y39" s="15"/>
-      <c r="Z39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA39">
-        <v>2</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC39" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD39" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE39" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI39" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ39" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="5">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z39" s="3"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="11"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>4</v>
-      </c>
-      <c r="P40" s="9">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="Q40" s="6">
-        <f t="shared" si="40"/>
-        <v>15</v>
-      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="9">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U40" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V40" s="3">
-        <f t="shared" si="42"/>
-        <v>0.15</v>
-      </c>
-      <c r="W40" s="9">
-        <f t="shared" si="43"/>
-        <v>0.15</v>
-      </c>
-      <c r="X40" s="6">
-        <f t="shared" si="44"/>
-        <v>15.15</v>
-      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="6"/>
       <c r="Y40" s="15"/>
-      <c r="Z40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA40">
-        <v>2</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC40" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD40" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE40" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI40" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ40" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="5">
-        <v>3</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z40" s="3"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="11"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>4</v>
-      </c>
-      <c r="P41" s="9">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="40"/>
-        <v>15</v>
-      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="9">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V41" s="3">
-        <f t="shared" si="42"/>
-        <v>0.15</v>
-      </c>
-      <c r="W41" s="9">
-        <f t="shared" si="43"/>
-        <v>0.15</v>
-      </c>
-      <c r="X41" s="6">
-        <f t="shared" si="44"/>
-        <v>15.15</v>
-      </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="6"/>
       <c r="Y41" s="15"/>
-      <c r="Z41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC41" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD41" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE41" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI41" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ41" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" s="5">
-        <v>3</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z41" s="3"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>4</v>
-      </c>
-      <c r="P42" s="9">
-        <f t="shared" ref="P42" si="45">O42+S42</f>
-        <v>5</v>
-      </c>
-      <c r="Q42" s="6">
-        <f t="shared" ref="Q42" si="46">(((N42+1)*P42)*I42)</f>
-        <v>15</v>
-      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="9">
-        <f t="shared" ref="S42" si="47">O42*T42</f>
-        <v>1</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V42" s="3">
-        <f t="shared" ref="V42" si="48">Q42*U42</f>
-        <v>0.15</v>
-      </c>
-      <c r="W42" s="9">
-        <f t="shared" ref="W42" si="49">U42*Q42</f>
-        <v>0.15</v>
-      </c>
-      <c r="X42" s="6">
-        <f t="shared" ref="X42" si="50">Q42+W42</f>
-        <v>15.15</v>
-      </c>
+      <c r="S42" s="9"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="6"/>
       <c r="Y42" s="15"/>
-      <c r="Z42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA42">
-        <v>2</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC42" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD42" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE42" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI42" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ42" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I43" s="5">
-        <v>3</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z42" s="3"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4</v>
-      </c>
-      <c r="P43" s="9">
-        <f t="shared" ref="P43:P47" si="51">O43+S43</f>
-        <v>5</v>
-      </c>
-      <c r="Q43" s="6">
-        <f t="shared" ref="Q43:Q47" si="52">(((N43+1)*P43)*I43)</f>
-        <v>15</v>
-      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="9">
-        <f t="shared" ref="S43:S47" si="53">O43*T43</f>
-        <v>1</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V43" s="3">
-        <f t="shared" ref="V43:V47" si="54">Q43*U43</f>
-        <v>0.15</v>
-      </c>
-      <c r="W43" s="9">
-        <f t="shared" ref="W43:W47" si="55">U43*Q43</f>
-        <v>0.15</v>
-      </c>
-      <c r="X43" s="6">
-        <f t="shared" ref="X43:X47" si="56">Q43+W43</f>
-        <v>15.15</v>
-      </c>
+      <c r="S43" s="9"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="6"/>
       <c r="Y43" s="15"/>
-      <c r="Z43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA43">
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC43" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD43" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE43" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI43" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ43" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="5">
-        <v>3</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z43" s="3"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="11"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>4</v>
-      </c>
-      <c r="P44" s="9">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="Q44" s="6">
-        <f t="shared" si="52"/>
-        <v>15</v>
-      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="9">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V44" s="3">
-        <f t="shared" si="54"/>
-        <v>0.15</v>
-      </c>
-      <c r="W44" s="9">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="X44" s="6">
-        <f t="shared" si="56"/>
-        <v>15.15</v>
-      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="6"/>
       <c r="Y44" s="15"/>
-      <c r="Z44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA44">
-        <v>2</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC44" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD44" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE44" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI44" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ44" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="5">
-        <v>3</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z44" s="3"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="E45" s="11"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>4</v>
-      </c>
-      <c r="P45" s="9">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="Q45" s="6">
-        <f t="shared" si="52"/>
-        <v>15</v>
-      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="9">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V45" s="3">
-        <f t="shared" si="54"/>
-        <v>0.15</v>
-      </c>
-      <c r="W45" s="9">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="X45" s="6">
-        <f t="shared" si="56"/>
-        <v>15.15</v>
-      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="6"/>
       <c r="Y45" s="15"/>
-      <c r="Z45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC45" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD45" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE45" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI45" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ45" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="5">
-        <v>3</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z45" s="3"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>4</v>
-      </c>
-      <c r="P46" s="9">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="Q46" s="6">
-        <f t="shared" si="52"/>
-        <v>15</v>
-      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="9">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V46" s="3">
-        <f t="shared" si="54"/>
-        <v>0.15</v>
-      </c>
-      <c r="W46" s="9">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="X46" s="6">
-        <f t="shared" si="56"/>
-        <v>15.15</v>
-      </c>
+      <c r="S46" s="9"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="6"/>
       <c r="Y46" s="15"/>
-      <c r="Z46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA46">
-        <v>2</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC46" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD46" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE46" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI46" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ46" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="5">
-        <v>3</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z46" s="3"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="11"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>4</v>
-      </c>
-      <c r="P47" s="9">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="Q47" s="6">
-        <f t="shared" si="52"/>
-        <v>15</v>
-      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="9">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V47" s="3">
-        <f t="shared" si="54"/>
-        <v>0.15</v>
-      </c>
-      <c r="W47" s="9">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="X47" s="6">
-        <f t="shared" si="56"/>
-        <v>15.15</v>
-      </c>
+      <c r="S47" s="9"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="6"/>
       <c r="Y47" s="15"/>
-      <c r="Z47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA47">
-        <v>2</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC47" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD47" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE47" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI47" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ47" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="5">
-        <v>3</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z47" s="3"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="11"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4</v>
-      </c>
-      <c r="P48" s="9">
-        <f t="shared" ref="P48:P53" si="57">O48+S48</f>
-        <v>5</v>
-      </c>
-      <c r="Q48" s="6">
-        <f t="shared" ref="Q48:Q53" si="58">(((N48+1)*P48)*I48)</f>
-        <v>15</v>
-      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="9">
-        <f t="shared" ref="S48:S53" si="59">O48*T48</f>
-        <v>1</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V48" s="3">
-        <f t="shared" ref="V48:V53" si="60">Q48*U48</f>
-        <v>0.15</v>
-      </c>
-      <c r="W48" s="9">
-        <f t="shared" ref="W48:W53" si="61">U48*Q48</f>
-        <v>0.15</v>
-      </c>
-      <c r="X48" s="6">
-        <f t="shared" ref="X48:X53" si="62">Q48+W48</f>
-        <v>15.15</v>
-      </c>
+      <c r="S48" s="9"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="6"/>
       <c r="Y48" s="15"/>
-      <c r="Z48" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA48">
-        <v>2</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC48" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD48" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE48" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI48" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ48" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="5">
-        <v>3</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z48" s="3"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="11"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4</v>
-      </c>
-      <c r="P49" s="9">
-        <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="Q49" s="6">
-        <f t="shared" si="58"/>
-        <v>15</v>
-      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="9">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V49" s="3">
-        <f t="shared" si="60"/>
-        <v>0.15</v>
-      </c>
-      <c r="W49" s="9">
-        <f t="shared" si="61"/>
-        <v>0.15</v>
-      </c>
-      <c r="X49" s="6">
-        <f t="shared" si="62"/>
-        <v>15.15</v>
-      </c>
+      <c r="S49" s="9"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="6"/>
       <c r="Y49" s="15"/>
-      <c r="Z49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA49">
-        <v>2</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC49" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD49" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE49" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI49" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ49" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="5">
-        <v>3</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L50" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z49" s="3"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="C50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3">
-        <v>4</v>
-      </c>
-      <c r="P50" s="9">
-        <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="Q50" s="6">
-        <f t="shared" si="58"/>
-        <v>15</v>
-      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="9">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="T50" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U50" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V50" s="3">
-        <f t="shared" si="60"/>
-        <v>0.15</v>
-      </c>
-      <c r="W50" s="9">
-        <f t="shared" si="61"/>
-        <v>0.15</v>
-      </c>
-      <c r="X50" s="6">
-        <f t="shared" si="62"/>
-        <v>15.15</v>
-      </c>
+      <c r="S50" s="9"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="6"/>
       <c r="Y50" s="15"/>
-      <c r="Z50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA50">
-        <v>2</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC50" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD50" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE50" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI50" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ50" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="5">
-        <v>3</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z50" s="3"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="C51" s="8"/>
+      <c r="E51" s="11"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3">
-        <v>4</v>
-      </c>
-      <c r="P51" s="9">
-        <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="Q51" s="6">
-        <f t="shared" si="58"/>
-        <v>15</v>
-      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="9">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="T51" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U51" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V51" s="3">
-        <f t="shared" si="60"/>
-        <v>0.15</v>
-      </c>
-      <c r="W51" s="9">
-        <f t="shared" si="61"/>
-        <v>0.15</v>
-      </c>
-      <c r="X51" s="6">
-        <f t="shared" si="62"/>
-        <v>15.15</v>
-      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="6"/>
       <c r="Y51" s="15"/>
-      <c r="Z51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA51">
-        <v>2</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC51" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD51" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE51" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI51" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ51" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" s="5">
-        <v>3</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z51" s="3"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="C52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>4</v>
-      </c>
-      <c r="P52" s="9">
-        <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="Q52" s="6">
-        <f t="shared" si="58"/>
-        <v>15</v>
-      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="9">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V52" s="3">
-        <f t="shared" si="60"/>
-        <v>0.15</v>
-      </c>
-      <c r="W52" s="9">
-        <f t="shared" si="61"/>
-        <v>0.15</v>
-      </c>
-      <c r="X52" s="6">
-        <f t="shared" si="62"/>
-        <v>15.15</v>
-      </c>
+      <c r="S52" s="9"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="6"/>
       <c r="Y52" s="15"/>
-      <c r="Z52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA52">
-        <v>2</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC52" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD52" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE52" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI52" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ52" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I53" s="5">
-        <v>3</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z52" s="3"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="C53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="5">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
-        <v>4</v>
-      </c>
-      <c r="P53" s="9">
-        <f t="shared" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="Q53" s="6">
-        <f t="shared" si="58"/>
-        <v>15</v>
-      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="9">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U53" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V53" s="3">
-        <f t="shared" si="60"/>
-        <v>0.15</v>
-      </c>
-      <c r="W53" s="9">
-        <f t="shared" si="61"/>
-        <v>0.15</v>
-      </c>
-      <c r="X53" s="6">
-        <f t="shared" si="62"/>
-        <v>15.15</v>
-      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="6"/>
       <c r="Y53" s="15"/>
-      <c r="Z53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA53">
-        <v>2</v>
-      </c>
-      <c r="AB53">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC53" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD53" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE53" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG53" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI53" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ53" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I54" s="5">
-        <v>3</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z53" s="3"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="C54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4</v>
-      </c>
-      <c r="P54" s="9">
-        <f t="shared" ref="P54:P61" si="63">O54+S54</f>
-        <v>5</v>
-      </c>
-      <c r="Q54" s="6">
-        <f t="shared" ref="Q54:Q61" si="64">(((N54+1)*P54)*I54)</f>
-        <v>15</v>
-      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="9">
-        <f t="shared" ref="S54:S61" si="65">O54*T54</f>
-        <v>1</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V54" s="3">
-        <f t="shared" ref="V54:V61" si="66">Q54*U54</f>
-        <v>0.15</v>
-      </c>
-      <c r="W54" s="9">
-        <f t="shared" ref="W54:W61" si="67">U54*Q54</f>
-        <v>0.15</v>
-      </c>
-      <c r="X54" s="6">
-        <f t="shared" ref="X54:X61" si="68">Q54+W54</f>
-        <v>15.15</v>
-      </c>
+      <c r="S54" s="9"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="6"/>
       <c r="Y54" s="15"/>
-      <c r="Z54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA54">
-        <v>2</v>
-      </c>
-      <c r="AB54">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC54" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD54" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE54" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI54" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ54" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I55" s="5">
-        <v>3</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z54" s="3"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="C55" s="8"/>
+      <c r="E55" s="11"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3">
-        <v>4</v>
-      </c>
-      <c r="P55" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q55" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T55" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U55" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V55" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W55" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X55" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S55" s="9"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="6"/>
       <c r="Y55" s="15"/>
-      <c r="Z55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA55">
-        <v>2</v>
-      </c>
-      <c r="AB55">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC55" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD55" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE55" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI55" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ55" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I56" s="5">
-        <v>3</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z55" s="3"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="C56" s="8"/>
+      <c r="E56" s="11"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3">
-        <v>4</v>
-      </c>
-      <c r="P56" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q56" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N56" s="5"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T56" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U56" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V56" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W56" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X56" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S56" s="9"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="6"/>
       <c r="Y56" s="15"/>
-      <c r="Z56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA56">
-        <v>2</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC56" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD56" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE56" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH56" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI56" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ56" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I57" s="5">
-        <v>3</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z56" s="3"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="5">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>4</v>
-      </c>
-      <c r="P57" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q57" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N57" s="5"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V57" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W57" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X57" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S57" s="9"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="6"/>
       <c r="Y57" s="15"/>
-      <c r="Z57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA57">
-        <v>2</v>
-      </c>
-      <c r="AB57">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC57" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD57" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE57" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI57" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ57" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I58" s="5">
-        <v>3</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z57" s="3"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4</v>
-      </c>
-      <c r="P58" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q58" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V58" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W58" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X58" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S58" s="9"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="6"/>
       <c r="Y58" s="15"/>
-      <c r="Z58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA58">
-        <v>2</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC58" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD58" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE58" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI58" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ58" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
-        <v>69</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" s="5">
-        <v>3</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z58" s="3"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="11"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4</v>
-      </c>
-      <c r="P59" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q59" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V59" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W59" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X59" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S59" s="9"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="6"/>
       <c r="Y59" s="15"/>
-      <c r="Z59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA59">
-        <v>2</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC59" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD59" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE59" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI59" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ59" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I60" s="5">
-        <v>3</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z59" s="3"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="C60" s="8"/>
+      <c r="E60" s="11"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4</v>
-      </c>
-      <c r="P60" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q60" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T60" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V60" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W60" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X60" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S60" s="9"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="6"/>
       <c r="Y60" s="15"/>
-      <c r="Z60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA60">
-        <v>2</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC60" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD60" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE60" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI60" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ60" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I61" s="5">
-        <v>3</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z60" s="3"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="C61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>4</v>
-      </c>
-      <c r="P61" s="9">
-        <f t="shared" si="63"/>
-        <v>5</v>
-      </c>
-      <c r="Q61" s="6">
-        <f t="shared" si="64"/>
-        <v>15</v>
-      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V61" s="3">
-        <f t="shared" si="66"/>
-        <v>0.15</v>
-      </c>
-      <c r="W61" s="9">
-        <f t="shared" si="67"/>
-        <v>0.15</v>
-      </c>
-      <c r="X61" s="6">
-        <f t="shared" si="68"/>
-        <v>15.15</v>
-      </c>
+      <c r="S61" s="9"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="6"/>
       <c r="Y61" s="15"/>
-      <c r="Z61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA61">
-        <v>2</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" si="20"/>
-        <v>0.13</v>
-      </c>
-      <c r="AC61" s="7">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AD61" s="7">
-        <f t="shared" si="22"/>
-        <v>0.13</v>
-      </c>
-      <c r="AE61" s="7">
-        <f t="shared" si="23"/>
-        <v>13.13</v>
-      </c>
-      <c r="AF61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG61" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI61" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ61" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z61" s="3"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="C62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>4</v>
-      </c>
-      <c r="P62" s="9">
-        <f t="shared" ref="P62:P66" si="69">O62+S62</f>
-        <v>5</v>
-      </c>
-      <c r="Q62" s="6">
-        <f t="shared" ref="Q62:Q66" si="70">(((N62+1)*P62)*I62)</f>
-        <v>5</v>
-      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="9">
-        <f t="shared" ref="S62:S66" si="71">O62*T62</f>
-        <v>1</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V62" s="3">
-        <f t="shared" ref="V62:V66" si="72">Q62*U62</f>
-        <v>0.05</v>
-      </c>
-      <c r="W62" s="9">
-        <f t="shared" ref="W62:W66" si="73">U62*Q62</f>
-        <v>0.05</v>
-      </c>
-      <c r="X62" s="6">
-        <f t="shared" ref="X62:X66" si="74">Q62+W62</f>
-        <v>5.05</v>
-      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="6"/>
       <c r="Y62" s="15"/>
-      <c r="Z62" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA62">
-        <v>2</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC62" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD62" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE62" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI62" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ62" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z62" s="3"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="C63" s="8"/>
+      <c r="E63" s="11"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3">
-        <v>4</v>
-      </c>
-      <c r="P63" s="9">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="Q63" s="6">
-        <f t="shared" si="70"/>
-        <v>5</v>
-      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="9">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="T63" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U63" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V63" s="3">
-        <f t="shared" si="72"/>
-        <v>0.05</v>
-      </c>
-      <c r="W63" s="9">
-        <f t="shared" si="73"/>
-        <v>0.05</v>
-      </c>
-      <c r="X63" s="6">
-        <f t="shared" si="74"/>
-        <v>5.05</v>
-      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="6"/>
       <c r="Y63" s="15"/>
-      <c r="Z63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA63">
-        <v>2</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC63" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD63" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE63" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI63" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ63" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z63" s="3"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="C64" s="8"/>
+      <c r="E64" s="11"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3">
-        <v>4</v>
-      </c>
-      <c r="P64" s="9">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="Q64" s="6">
-        <f t="shared" si="70"/>
-        <v>5</v>
-      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
-      <c r="S64" s="9">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="T64" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U64" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V64" s="3">
-        <f t="shared" si="72"/>
-        <v>0.05</v>
-      </c>
-      <c r="W64" s="9">
-        <f t="shared" si="73"/>
-        <v>0.05</v>
-      </c>
-      <c r="X64" s="6">
-        <f t="shared" si="74"/>
-        <v>5.05</v>
-      </c>
+      <c r="S64" s="9"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="6"/>
       <c r="Y64" s="15"/>
-      <c r="Z64" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA64">
-        <v>2</v>
-      </c>
-      <c r="AB64">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC64" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD64" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE64" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI64" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ64" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="5">
-        <v>0</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z64" s="3"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="C65" s="8"/>
+      <c r="E65" s="11"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="5">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3">
-        <v>4</v>
-      </c>
-      <c r="P65" s="9">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="Q65" s="6">
-        <f t="shared" si="70"/>
-        <v>5</v>
-      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
-      <c r="S65" s="9">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="T65" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U65" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="V65" s="3">
-        <f t="shared" si="72"/>
-        <v>0.05</v>
-      </c>
-      <c r="W65" s="9">
-        <f t="shared" si="73"/>
-        <v>0.05</v>
-      </c>
-      <c r="X65" s="6">
-        <f t="shared" si="74"/>
-        <v>5.05</v>
-      </c>
+      <c r="S65" s="9"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="6"/>
       <c r="Y65" s="15"/>
-      <c r="Z65" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA65">
-        <v>2</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="20"/>
-        <v>0.03</v>
-      </c>
-      <c r="AC65" s="7">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AD65" s="7">
-        <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="AE65" s="7">
-        <f t="shared" si="23"/>
-        <v>3.03</v>
-      </c>
-      <c r="AF65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI65" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ65" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I66" s="5">
-        <v>6</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z65" s="3"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="C66" s="8"/>
+      <c r="E66" s="11"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="5">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>8</v>
-      </c>
-      <c r="P66" s="9">
-        <f t="shared" si="69"/>
-        <v>10</v>
-      </c>
-      <c r="Q66" s="6">
-        <f t="shared" si="70"/>
-        <v>60</v>
-      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
-      <c r="S66" s="9">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="T66" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="V66" s="3">
-        <f t="shared" si="72"/>
-        <v>6</v>
-      </c>
-      <c r="W66" s="9">
-        <f t="shared" si="73"/>
-        <v>6</v>
-      </c>
-      <c r="X66" s="6">
-        <f t="shared" si="74"/>
-        <v>66</v>
-      </c>
+      <c r="S66" s="9"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="6"/>
       <c r="Y66" s="15"/>
-      <c r="Z66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA66">
-        <v>2</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="20"/>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="AC66" s="7">
-        <f t="shared" si="21"/>
-        <v>58</v>
-      </c>
-      <c r="AD66" s="7">
-        <f t="shared" si="22"/>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="AE66" s="7">
-        <f t="shared" si="23"/>
-        <v>63.8</v>
-      </c>
-      <c r="AF66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG66" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI66" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ66" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" t="s">
-        <v>86</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I67" s="5">
-        <v>1</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
+      <c r="Z66" s="3"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="C67" s="8"/>
+      <c r="E67" s="11"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5">
-        <v>0</v>
-      </c>
-      <c r="O67" s="3">
-        <v>8</v>
-      </c>
-      <c r="P67" s="9">
-        <f t="shared" ref="P67" si="75">O67+S67</f>
-        <v>10</v>
-      </c>
-      <c r="Q67" s="6">
-        <f t="shared" ref="Q67" si="76">(((N67+1)*P67)*I67)</f>
-        <v>10</v>
-      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
-      <c r="S67" s="9">
-        <f t="shared" ref="S67" si="77">O67*T67</f>
-        <v>2</v>
-      </c>
-      <c r="T67" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="U67" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="V67" s="3">
-        <f t="shared" ref="V67" si="78">Q67*U67</f>
-        <v>1</v>
-      </c>
-      <c r="W67" s="9">
-        <f t="shared" ref="W67" si="79">U67*Q67</f>
-        <v>1</v>
-      </c>
-      <c r="X67" s="6">
-        <f t="shared" ref="X67" si="80">Q67+W67</f>
-        <v>11</v>
-      </c>
+      <c r="S67" s="9"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="6"/>
       <c r="Y67" s="15"/>
-      <c r="Z67" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA67">
-        <v>2</v>
-      </c>
-      <c r="AB67">
-        <f t="shared" si="20"/>
-        <v>0.8</v>
-      </c>
-      <c r="AC67" s="7">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="AD67" s="7">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="AE67" s="7">
-        <f t="shared" si="23"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG67" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI67" s="3">
-        <v>14</v>
-      </c>
-      <c r="AJ67" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z67" s="3"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
@@ -12519,61 +8907,19 @@
     <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E67" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E5" r:id="rId57" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
-    <hyperlink ref="E7" r:id="rId58" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
-    <hyperlink ref="E6" r:id="rId59" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
-    <hyperlink ref="E13" r:id="rId60" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{8089BE4C-FA52-4A51-95D6-A1D169EB5A47}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{1D0F9F84-A9B0-40C1-B527-C53040165396}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{09EFFE25-BA30-48DE-9EBB-4C6A8EE8CA10}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{EA346531-FB8E-45D0-A22D-D78216ED22FE}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{1FA41424-FD89-4BD1-9182-195F4D615623}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
-  <legacyDrawing r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E9B89-6756-4268-AD36-AD390001B7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109BA5D-8965-47EB-8DD1-4D3E3F41F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{A3039FD0-8D5E-4E5E-8A96-DD9899133452}">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{DFB392D1-62B4-4E5A-BC40-C8CB1688DAC3}">
       <text>
         <r>
           <rPr>
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{6FA74655-91A9-40FD-A876-942121A7309C}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{F667391D-8EE7-449D-9EE0-AA6587D13110}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{5F21EAB6-C00F-475A-8DC8-E3900DC563C9}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{41CF2A56-2D21-4C5B-B9FA-D9F109CE4B56}">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="125">
   <si>
     <t>password</t>
   </si>
@@ -1976,9 +1976,6 @@
     <t>jesusita@druck.net.au</t>
   </si>
   <si>
-    <t>annice_kunich@kunich.net.au</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -1994,22 +1991,37 @@
     <t>sunday</t>
   </si>
   <si>
-    <t>ycs-acadamy/php-session-4</t>
-  </si>
-  <si>
-    <t>pa_badgero@badgero.com.au</t>
-  </si>
-  <si>
-    <t>dorathy.miskelly@gmail.com</t>
-  </si>
-  <si>
-    <t>rodrigo_schuh@gmail.com</t>
-  </si>
-  <si>
-    <t>stanford_waganer@waganer.net.au</t>
-  </si>
-  <si>
-    <t>michael_orehek@gmail.com</t>
+    <t>srinivas.e@netkathir.com</t>
+  </si>
+  <si>
+    <t>mgs</t>
+  </si>
+  <si>
+    <t>gms-academy/paint-var-1</t>
+  </si>
+  <si>
+    <t>gms-academy/paint-fix-1</t>
+  </si>
+  <si>
+    <t>gms-academy/paint-var-1-ind</t>
+  </si>
+  <si>
+    <t>gms-academy/paint-sess-4</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>gmz</t>
+  </si>
+  <si>
+    <t>mnc/clarinet-session-4-multi</t>
+  </si>
+  <si>
+    <t>JFY4553DFF</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -2502,11 +2514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS129"/>
+  <dimension ref="A1:AT129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,34 +2531,34 @@
     <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="61.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="10" customWidth="1"/>
-    <col min="20" max="20" width="24.44140625" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="10" customWidth="1"/>
-    <col min="24" max="24" width="9.88671875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" customWidth="1"/>
-    <col min="29" max="29" width="21.88671875" customWidth="1"/>
-    <col min="30" max="30" width="22.88671875" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" customWidth="1"/>
-    <col min="32" max="32" width="25.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" customWidth="1"/>
-    <col min="36" max="36" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="23.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" style="10" customWidth="1"/>
+    <col min="21" max="21" width="24.44140625" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" style="10" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" customWidth="1"/>
+    <col min="30" max="30" width="21.88671875" customWidth="1"/>
+    <col min="31" max="31" width="22.88671875" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" customWidth="1"/>
+    <col min="33" max="33" width="25.44140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.109375" customWidth="1"/>
+    <col min="37" max="37" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2584,79 +2596,82 @@
         <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2694,83 +2709,84 @@
         <v>0</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="5">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>10</v>
       </c>
-      <c r="P2" s="9">
-        <f t="shared" ref="P2:P6" si="0">O2+S2</f>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2:Q6" si="0">P2+T2</f>
         <v>12.5</v>
       </c>
-      <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q21" si="1">(((N2+1)*P2)*I2)</f>
+      <c r="R2" s="6">
+        <f t="shared" ref="R2:R19" si="1">(((O2+1)*Q2)*I2)</f>
         <v>50</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="9">
-        <f t="shared" ref="S2:S6" si="2">O2*T2</f>
+      <c r="S2" s="6"/>
+      <c r="T2" s="9">
+        <f t="shared" ref="T2:T6" si="2">P2*U2</f>
         <v>2.5</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>0.25</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>0.01</v>
       </c>
-      <c r="V2" s="3">
-        <f t="shared" ref="V2:V6" si="3">Q2*U2</f>
+      <c r="W2" s="3">
+        <f t="shared" ref="W2:W6" si="3">R2*V2</f>
         <v>0.5</v>
       </c>
-      <c r="W2" s="9">
-        <f t="shared" ref="W2:W6" si="4">U2*Q2</f>
+      <c r="X2" s="9">
+        <f t="shared" ref="X2:X6" si="4">V2*R2</f>
         <v>0.5</v>
       </c>
-      <c r="X2" s="6">
-        <f t="shared" ref="X2:X6" si="5">Q2+W2</f>
+      <c r="Y2" s="6">
+        <f t="shared" ref="Y2:Y6" si="5">R2+X2</f>
         <v>50.5</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AB5" si="6">SUM(U2*AC2)</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AC5" si="6">SUM(V2*AD2)</f>
         <v>0.48</v>
       </c>
-      <c r="AC2" s="7">
-        <f t="shared" ref="AC2:AC4" si="7">SUM(Q2-AA2)</f>
+      <c r="AD2" s="7">
+        <f t="shared" ref="AD2:AD4" si="7">SUM(R2-AB2)</f>
         <v>48</v>
       </c>
-      <c r="AD2" s="7">
-        <f t="shared" ref="AD2:AD4" si="8">SUM(U2*AC2)</f>
+      <c r="AE2" s="7">
+        <f t="shared" ref="AE2:AE4" si="8">SUM(V2*AD2)</f>
         <v>0.48</v>
       </c>
-      <c r="AE2" s="7">
-        <f t="shared" ref="AE2:AE5" si="9">SUM(AB2+AC2)</f>
+      <c r="AF2" s="7">
+        <f t="shared" ref="AF2:AF5" si="9">SUM(AC2+AD2)</f>
         <v>48.48</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2" s="3">
         <v>14</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2808,83 +2824,84 @@
         <v>0</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>4</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="9">
+      <c r="S3" s="6"/>
+      <c r="T3" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>0.25</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>0.01</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AD3" s="7">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AE3" s="7">
         <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AF3" s="7">
         <f t="shared" si="9"/>
         <v>8.08</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AJ3" s="3">
         <v>14</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2916,89 +2933,90 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>4</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="9">
+      <c r="S4" s="6"/>
+      <c r="T4" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>0.25</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>0.01</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="6">
         <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="6"/>
         <v>0.09</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AD4" s="7">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AE4" s="7">
         <f t="shared" si="8"/>
         <v>0.09</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AF4" s="7">
         <f t="shared" si="9"/>
         <v>9.09</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AJ4" s="3">
         <v>14</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,90 +3048,91 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>4</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="9">
+      <c r="S5" s="6"/>
+      <c r="T5" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>0.25</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>0.01</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <f t="shared" si="5"/>
         <v>20.2</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f>SUM(I5*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="6"/>
         <v>0.19899999999999998</v>
       </c>
-      <c r="AC5" s="7">
-        <f>SUM(Q5-AA5)</f>
+      <c r="AD5" s="7">
+        <f>SUM(R5-AB5)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="AD5" s="7">
-        <f>SUM(U5*AC5)</f>
+      <c r="AE5" s="7">
+        <f>SUM(V5*AD5)</f>
         <v>0.19899999999999998</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AF5" s="7">
         <f t="shared" si="9"/>
         <v>20.099</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AJ5" s="3">
         <v>14</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3145,90 +3164,91 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <v>1</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>4</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q6" s="6">
-        <f t="shared" ref="Q6" si="10">(((N6+1)*P6)*I6)</f>
+      <c r="R6" s="6">
+        <f t="shared" ref="R6" si="10">(((O6+1)*Q6)*I6)</f>
         <v>20</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="9">
+      <c r="S6" s="6"/>
+      <c r="T6" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>0.25</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>0.01</v>
       </c>
-      <c r="V6" s="3">
+      <c r="W6" s="3">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6">
         <f t="shared" si="5"/>
         <v>20.2</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f>SUM(I6*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6" si="11">SUM(U6*AC6)</f>
+      <c r="AC6">
+        <f t="shared" ref="AC6" si="11">SUM(V6*AD6)</f>
         <v>0.19899999999999998</v>
       </c>
-      <c r="AC6" s="7">
-        <f t="shared" ref="AC6" si="12">SUM(Q6-AA6)</f>
+      <c r="AD6" s="7">
+        <f t="shared" ref="AD6" si="12">SUM(R6-AB6)</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="AD6" s="7">
-        <f t="shared" ref="AD6" si="13">SUM(U6*AC6)</f>
+      <c r="AE6" s="7">
+        <f t="shared" ref="AE6" si="13">SUM(V6*AD6)</f>
         <v>0.19899999999999998</v>
       </c>
-      <c r="AE6" s="7">
-        <f t="shared" ref="AE6" si="14">SUM(AB6+AC6)</f>
+      <c r="AF6" s="7">
+        <f t="shared" ref="AF6" si="14">SUM(AC6+AD6)</f>
         <v>20.099</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AJ6" s="3">
         <v>14</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3260,90 +3280,91 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
         <v>0</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>4</v>
       </c>
-      <c r="P7" s="9">
-        <f t="shared" ref="P7:P11" si="15">O7+S7</f>
+      <c r="Q7" s="9">
+        <f t="shared" ref="Q7:Q11" si="15">P7+T7</f>
         <v>5</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="9">
-        <f t="shared" ref="S7:S11" si="16">O7*T7</f>
+      <c r="S7" s="6"/>
+      <c r="T7" s="9">
+        <f t="shared" ref="T7:T11" si="16">P7*U7</f>
         <v>1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>0.25</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>0.01</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" ref="V7:V11" si="17">Q7*U7</f>
+      <c r="W7" s="3">
+        <f t="shared" ref="W7:W11" si="17">R7*V7</f>
         <v>0.1</v>
       </c>
-      <c r="W7" s="9">
-        <f t="shared" ref="W7:W11" si="18">U7*Q7</f>
+      <c r="X7" s="9">
+        <f t="shared" ref="X7:X11" si="18">V7*R7</f>
         <v>0.1</v>
       </c>
-      <c r="X7" s="6">
-        <f t="shared" ref="X7:X11" si="19">Q7+W7</f>
+      <c r="Y7" s="6">
+        <f t="shared" ref="Y7:Y11" si="19">R7+X7</f>
         <v>10.1</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f>SUM(I7*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="AB7">
-        <f t="shared" ref="AB7:AB21" si="20">SUM(U7*AC7)</f>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AC19" si="20">SUM(V7*AD7)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AC7" s="7">
-        <f t="shared" ref="AC7:AC21" si="21">SUM(Q7-AA7)</f>
+      <c r="AD7" s="7">
+        <f t="shared" ref="AD7:AD19" si="21">SUM(R7-AB7)</f>
         <v>9.9</v>
       </c>
-      <c r="AD7" s="7">
-        <f t="shared" ref="AD7:AD21" si="22">SUM(U7*AC7)</f>
+      <c r="AE7" s="7">
+        <f t="shared" ref="AE7:AE19" si="22">SUM(V7*AD7)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AE7" s="7">
-        <f t="shared" ref="AE7:AE21" si="23">SUM(AB7+AC7)</f>
+      <c r="AF7" s="7">
+        <f t="shared" ref="AF7:AF19" si="23">SUM(AC7+AD7)</f>
         <v>9.9990000000000006</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AG7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AH7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AJ7" s="3">
         <v>14</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,83 +3402,84 @@
         <v>0</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="9">
+      <c r="S8" s="6"/>
+      <c r="T8" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>0.25</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>0.01</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
-      <c r="W8" s="9">
+      <c r="X8" s="9">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="6">
         <f t="shared" si="19"/>
         <v>10.1</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AD8" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AE8" s="7">
         <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AF8" s="7">
         <f t="shared" si="23"/>
         <v>8.08</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>14</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3495,83 +3517,84 @@
         <v>0</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <f t="shared" si="15"/>
         <v>125</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="9">
+      <c r="S9" s="6"/>
+      <c r="T9" s="9">
         <f t="shared" si="16"/>
         <v>25</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>0.25</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>0.01</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
-      <c r="W9" s="9">
+      <c r="X9" s="9">
         <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
-      <c r="X9" s="6">
+      <c r="Y9" s="6">
         <f t="shared" si="19"/>
         <v>252.5</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="20"/>
         <v>2.48</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AD9" s="7">
         <f t="shared" si="21"/>
         <v>248</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AE9" s="7">
         <f t="shared" si="22"/>
         <v>2.48</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AF9" s="7">
         <f t="shared" si="23"/>
         <v>250.48</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AG9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AH9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AJ9" s="3">
         <v>14</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3603,89 +3626,90 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
         <v>0</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="9">
+      <c r="S10" s="6"/>
+      <c r="T10" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>0.25</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X10" s="6">
+      <c r="Y10" s="6">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AD10" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AE10" s="7">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AF10" s="7">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AJ10" s="3">
         <v>14</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3717,89 +3741,90 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>4</v>
       </c>
-      <c r="P11" s="9">
+      <c r="Q11" s="9">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="9">
+      <c r="S11" s="6"/>
+      <c r="T11" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>0.25</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>0.01</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
-      <c r="W11" s="9">
+      <c r="X11" s="9">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="X11" s="6">
+      <c r="Y11" s="6">
         <f t="shared" si="19"/>
         <v>10.1</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AD11" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AE11" s="7">
         <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AF11" s="7">
         <f t="shared" si="23"/>
         <v>8.08</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AG11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>14</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3831,89 +3856,90 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4</v>
       </c>
-      <c r="P12" s="9">
-        <f t="shared" ref="P12:P21" si="24">O12+S12</f>
+      <c r="Q12" s="9">
+        <f t="shared" ref="Q12:Q20" si="24">P12+T12</f>
         <v>5</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="9">
-        <f t="shared" ref="S12:S21" si="25">O12*T12</f>
+      <c r="S12" s="6"/>
+      <c r="T12" s="9">
+        <f t="shared" ref="T12:T20" si="25">P12*U12</f>
         <v>1</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>0.25</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>0.01</v>
       </c>
-      <c r="V12" s="3">
-        <f t="shared" ref="V12:V21" si="26">Q12*U12</f>
+      <c r="W12" s="3">
+        <f t="shared" ref="W12:W20" si="26">R12*V12</f>
         <v>0.2</v>
       </c>
-      <c r="W12" s="9">
-        <f t="shared" ref="W12:W21" si="27">U12*Q12</f>
+      <c r="X12" s="9">
+        <f t="shared" ref="X12:X20" si="27">V12*R12</f>
         <v>0.2</v>
       </c>
-      <c r="X12" s="6">
-        <f t="shared" ref="X12:X21" si="28">Q12+W12</f>
+      <c r="Y12" s="6">
+        <f t="shared" ref="Y12:Y20" si="28">R12+X12</f>
         <v>20.2</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f t="shared" si="20"/>
         <v>0.18</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AD12" s="7">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AE12" s="7">
         <f t="shared" si="22"/>
         <v>0.18</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AF12" s="7">
         <f t="shared" si="23"/>
         <v>18.18</v>
       </c>
-      <c r="AF12" s="4" t="s">
+      <c r="AG12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AH12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AJ12" s="3">
         <v>14</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3945,90 +3971,91 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
         <v>1</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>4</v>
       </c>
-      <c r="P13" s="9">
+      <c r="Q13" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="9">
+      <c r="S13" s="6"/>
+      <c r="T13" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>0.25</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="3">
+      <c r="W13" s="3">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W13" s="9">
+      <c r="X13" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="X13" s="6">
+      <c r="Y13" s="6">
         <f t="shared" si="28"/>
         <v>20</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f>SUM(I13*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AD13" s="7">
         <f t="shared" si="21"/>
         <v>19.899999999999999</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AE13" s="7">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AF13" s="7">
         <f t="shared" si="23"/>
         <v>19.899999999999999</v>
       </c>
-      <c r="AF13" s="4" t="s">
+      <c r="AG13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG13" s="4" t="s">
+      <c r="AH13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AJ13" s="3">
         <v>14</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -4060,89 +4087,90 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="9">
+      <c r="S14" s="6"/>
+      <c r="T14" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>0.25</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>0.01</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
-      <c r="X14" s="6">
+      <c r="Y14" s="6">
         <f t="shared" si="28"/>
         <v>10.1</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AD14" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AE14" s="7">
         <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AF14" s="7">
         <f t="shared" si="23"/>
         <v>8.08</v>
       </c>
-      <c r="AF14" s="4" t="s">
+      <c r="AG14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AH14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AI14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AJ14" s="3">
         <v>14</v>
       </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,83 +4208,84 @@
         <v>0</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4</v>
       </c>
-      <c r="P15" s="9">
+      <c r="Q15" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="9">
+      <c r="S15" s="6"/>
+      <c r="T15" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>0.25</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>0.01</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="W15" s="9">
+      <c r="X15" s="9">
         <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
-      <c r="X15" s="6">
+      <c r="Y15" s="6">
         <f t="shared" si="28"/>
         <v>10.1</v>
       </c>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AD15" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AE15" s="7">
         <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AF15" s="7">
         <f t="shared" si="23"/>
         <v>8.08</v>
       </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AG15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AH15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AJ15" s="3">
         <v>14</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -4294,83 +4323,84 @@
         <v>0</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>4</v>
       </c>
-      <c r="P16" s="9">
+      <c r="Q16" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="9">
+      <c r="S16" s="6"/>
+      <c r="T16" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>0.25</v>
       </c>
-      <c r="U16" s="3">
+      <c r="V16" s="3">
         <v>0.01</v>
       </c>
-      <c r="V16" s="3">
+      <c r="W16" s="3">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="W16" s="9">
+      <c r="X16" s="9">
         <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
-      <c r="X16" s="6">
+      <c r="Y16" s="6">
         <f t="shared" si="28"/>
         <v>10.1</v>
       </c>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AD16" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AE16" s="7">
         <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AF16" s="7">
         <f t="shared" si="23"/>
         <v>8.08</v>
       </c>
-      <c r="AF16" s="4" t="s">
+      <c r="AG16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AH16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AJ16" s="3">
         <v>14</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -4402,89 +4432,90 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="5">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5">
         <v>0</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4</v>
       </c>
-      <c r="P17" s="9">
+      <c r="Q17" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="9">
+      <c r="S17" s="6"/>
+      <c r="T17" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>0.25</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>0.01</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="W17" s="9">
+      <c r="X17" s="9">
         <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
-      <c r="X17" s="6">
+      <c r="Y17" s="6">
         <f t="shared" si="28"/>
         <v>10.1</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="3" t="s">
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f t="shared" si="20"/>
         <v>0.08</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AD17" s="7">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AE17" s="7">
         <f t="shared" si="22"/>
         <v>0.08</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AF17" s="7">
         <f t="shared" si="23"/>
         <v>8.08</v>
       </c>
-      <c r="AF17" s="4" t="s">
+      <c r="AG17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AH17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AI17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AJ17" s="3">
         <v>14</v>
       </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -4521,86 +4552,87 @@
       <c r="L18" s="5">
         <v>0</v>
       </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5">
         <v>0</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>4</v>
       </c>
-      <c r="P18" s="9">
+      <c r="Q18" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="9">
+      <c r="S18" s="6"/>
+      <c r="T18" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>0.25</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>0.01</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <f t="shared" si="26"/>
         <v>0.05</v>
       </c>
-      <c r="W18" s="9">
+      <c r="X18" s="9">
         <f t="shared" si="27"/>
         <v>0.05</v>
       </c>
-      <c r="X18" s="6">
+      <c r="Y18" s="6">
         <f t="shared" si="28"/>
         <v>5.05</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <f t="shared" si="20"/>
         <v>0.03</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AD18" s="7">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AE18" s="7">
         <f t="shared" si="22"/>
         <v>0.03</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AF18" s="7">
         <f t="shared" si="23"/>
         <v>3.03</v>
       </c>
-      <c r="AF18" s="4" t="s">
+      <c r="AG18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG18" s="4" t="s">
+      <c r="AH18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AI18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AJ18" s="3">
         <v>14</v>
       </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -4638,83 +4670,84 @@
         <v>0</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="5">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5">
         <v>0</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>4</v>
       </c>
-      <c r="P19" s="9">
+      <c r="Q19" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="R19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="9">
+      <c r="S19" s="6"/>
+      <c r="T19" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T19" s="3">
+      <c r="U19" s="3">
         <v>0.25</v>
       </c>
-      <c r="U19" s="3">
+      <c r="V19" s="3">
         <v>0.01</v>
       </c>
-      <c r="V19" s="3">
+      <c r="W19" s="3">
         <f t="shared" si="26"/>
         <v>0.05</v>
       </c>
-      <c r="W19" s="9">
+      <c r="X19" s="9">
         <f t="shared" si="27"/>
         <v>0.05</v>
       </c>
-      <c r="X19" s="6">
+      <c r="Y19" s="6">
         <f t="shared" si="28"/>
         <v>5.05</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f t="shared" si="20"/>
         <v>0.03</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AD19" s="7">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AE19" s="7">
         <f t="shared" si="22"/>
         <v>0.03</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AF19" s="7">
         <f t="shared" si="23"/>
         <v>3.03</v>
       </c>
-      <c r="AF19" s="4" t="s">
+      <c r="AG19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG19" s="4" t="s">
+      <c r="AH19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AJ19" s="3">
         <v>14</v>
       </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -4725,344 +4758,347 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
       </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5">
         <v>1</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="5">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="9">
+      <c r="Q20" s="9">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="9">
+      <c r="R20" s="6">
+        <f t="shared" ref="R20" si="29">(((O20+1)*Q20)*I20)</f>
+        <v>15</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="9">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>0.25</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>0.01</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <f t="shared" si="26"/>
-        <v>0.2</v>
-      </c>
-      <c r="W20" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="X20" s="9">
         <f t="shared" si="27"/>
-        <v>0.2</v>
-      </c>
-      <c r="X20" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="Y20" s="6">
         <f t="shared" si="28"/>
-        <v>20.2</v>
-      </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="3" t="s">
+        <v>15.15</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="20"/>
-        <v>0.18</v>
-      </c>
-      <c r="AC20" s="7">
-        <f t="shared" si="21"/>
+      <c r="AC20">
+        <f t="shared" ref="AC20" si="30">SUM(V20*AD20)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" ref="AD20" si="31">SUM(R20-AB20)</f>
+        <v>13</v>
+      </c>
+      <c r="AE20" s="7">
+        <f t="shared" ref="AE20" si="32">SUM(V20*AD20)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" ref="AF20" si="33">SUM(AC20+AD20)</f>
+        <v>13.13</v>
+      </c>
+      <c r="AG20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="22"/>
-        <v>0.18</v>
-      </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="23"/>
-        <v>18.18</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG20" s="4" t="s">
+      <c r="AH20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="AI20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AJ20" s="3">
         <v>14</v>
       </c>
-      <c r="AJ20" s="3" t="s">
+      <c r="AK20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I21" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5">
         <v>2</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
       </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5">
         <v>1</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>4</v>
       </c>
-      <c r="P21" s="9">
-        <f t="shared" ref="P21:P25" si="29">O21+S21</f>
+      <c r="Q21" s="9">
+        <f t="shared" ref="Q21" si="34">P21+T21</f>
         <v>5</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" ref="Q21:Q25" si="30">(((N21+1)*P21)*I21)</f>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21" si="35">(((O21+1)*Q21)*I21)</f>
         <v>20</v>
       </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="9">
-        <f t="shared" ref="S21:S25" si="31">O21*T21</f>
+      <c r="S21" s="6"/>
+      <c r="T21" s="9">
+        <f t="shared" ref="T21" si="36">P21*U21</f>
         <v>1</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>0.25</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>0.01</v>
       </c>
-      <c r="V21" s="3">
-        <f t="shared" ref="V21:V25" si="32">Q21*U21</f>
+      <c r="W21" s="3">
+        <f t="shared" ref="W21" si="37">R21*V21</f>
         <v>0.2</v>
       </c>
-      <c r="W21" s="9">
-        <f t="shared" ref="W21:W25" si="33">U21*Q21</f>
+      <c r="X21" s="9">
+        <f t="shared" ref="X21" si="38">V21*R21</f>
         <v>0.2</v>
       </c>
-      <c r="X21" s="6">
-        <f t="shared" ref="X21:X25" si="34">Q21+W21</f>
+      <c r="Y21" s="6">
+        <f t="shared" ref="Y21" si="39">R21+X21</f>
         <v>20.2</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AB21">
-        <f t="shared" ref="AB21:AB25" si="35">SUM(U21*AC21)</f>
+      <c r="AC21">
+        <f t="shared" ref="AC21" si="40">SUM(V21*AD21)</f>
         <v>0.18</v>
       </c>
-      <c r="AC21" s="7">
-        <f t="shared" ref="AC21:AC25" si="36">SUM(Q21-AA21)</f>
+      <c r="AD21" s="7">
+        <f t="shared" ref="AD21" si="41">SUM(R21-AB21)</f>
         <v>18</v>
       </c>
-      <c r="AD21" s="7">
-        <f t="shared" ref="AD21:AD25" si="37">SUM(U21*AC21)</f>
+      <c r="AE21" s="7">
+        <f t="shared" ref="AE21" si="42">SUM(V21*AD21)</f>
         <v>0.18</v>
       </c>
-      <c r="AE21" s="7">
-        <f t="shared" ref="AE21:AE25" si="38">SUM(AB21+AC21)</f>
+      <c r="AF21" s="7">
+        <f t="shared" ref="AF21" si="43">SUM(AC21+AD21)</f>
         <v>18.18</v>
       </c>
-      <c r="AF21" s="4" t="s">
+      <c r="AG21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG21" s="4" t="s">
+      <c r="AH21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH21" s="4" t="s">
+      <c r="AI21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AJ21" s="3">
         <v>14</v>
       </c>
-      <c r="AJ21" s="3" t="s">
+      <c r="AK21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
       </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5">
         <v>1</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>4</v>
       </c>
-      <c r="P22" s="9">
-        <f t="shared" si="29"/>
+      <c r="Q22" s="9">
+        <f t="shared" ref="Q22:Q25" si="44">P22+T22</f>
         <v>5</v>
       </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="30"/>
-        <v>20</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="9">
-        <f t="shared" si="31"/>
+      <c r="R22" s="6">
+        <f t="shared" ref="R22:R25" si="45">(((O22+1)*Q22)*I22)</f>
+        <v>5</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="9">
+        <f t="shared" ref="T22:T25" si="46">P22*U22</f>
         <v>1</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>0.25</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>0.01</v>
       </c>
-      <c r="V22" s="3">
-        <f t="shared" si="32"/>
-        <v>0.2</v>
-      </c>
-      <c r="W22" s="9">
-        <f t="shared" si="33"/>
-        <v>0.2</v>
-      </c>
-      <c r="X22" s="6">
-        <f t="shared" si="34"/>
-        <v>20.2</v>
-      </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="3" t="s">
+      <c r="W22" s="3">
+        <f t="shared" ref="W22:W25" si="47">R22*V22</f>
+        <v>0.05</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" ref="X22:X25" si="48">V22*R22</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" ref="Y22:Y25" si="49">R22+X22</f>
+        <v>5.05</v>
+      </c>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2</v>
       </c>
-      <c r="AB22">
-        <f t="shared" si="35"/>
-        <v>0.18</v>
-      </c>
-      <c r="AC22" s="7">
-        <f t="shared" si="36"/>
+      <c r="AC22">
+        <f t="shared" ref="AC22:AC25" si="50">SUM(V22*AD22)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" ref="AD22:AD25" si="51">SUM(R22-AB22)</f>
+        <v>3</v>
+      </c>
+      <c r="AE22" s="7">
+        <f t="shared" ref="AE22:AE25" si="52">SUM(V22*AD22)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" ref="AF22:AF25" si="53">SUM(AC22+AD22)</f>
+        <v>3.03</v>
+      </c>
+      <c r="AG22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD22" s="7">
-        <f t="shared" si="37"/>
-        <v>0.18</v>
-      </c>
-      <c r="AE22" s="7">
-        <f t="shared" si="38"/>
-        <v>18.18</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG22" s="4" t="s">
+      <c r="AH22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AI22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AJ22" s="3">
         <v>14</v>
       </c>
-      <c r="AJ22" s="3" t="s">
+      <c r="AK22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -5073,7 +5109,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
@@ -5082,114 +5118,119 @@
         <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>2</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
       </c>
       <c r="M23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
         <v>4</v>
       </c>
-      <c r="P23" s="9">
-        <f t="shared" si="29"/>
+      <c r="Q23" s="9">
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="30"/>
-        <v>20</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="9">
-        <f t="shared" si="31"/>
+      <c r="R23" s="6">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="9">
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>0.25</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>0.01</v>
       </c>
-      <c r="V23" s="3">
-        <f t="shared" si="32"/>
-        <v>0.2</v>
-      </c>
-      <c r="W23" s="9">
-        <f t="shared" si="33"/>
-        <v>0.2</v>
-      </c>
-      <c r="X23" s="6">
-        <f t="shared" si="34"/>
-        <v>20.2</v>
-      </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="3" t="s">
+      <c r="W23" s="3">
+        <f t="shared" si="47"/>
+        <v>0.1</v>
+      </c>
+      <c r="X23" s="9">
+        <f t="shared" si="48"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y23" s="6">
+        <f t="shared" si="49"/>
+        <v>10.1</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
       <c r="AB23">
-        <f t="shared" si="35"/>
-        <v>0.18</v>
-      </c>
-      <c r="AC23" s="7">
-        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="50"/>
+        <v>0.09</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="51"/>
+        <v>9</v>
+      </c>
+      <c r="AE23" s="7">
+        <f t="shared" si="52"/>
+        <v>0.09</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="53"/>
+        <v>9.09</v>
+      </c>
+      <c r="AG23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD23" s="7">
-        <f t="shared" si="37"/>
-        <v>0.18</v>
-      </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="38"/>
-        <v>18.18</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG23" s="4" t="s">
+      <c r="AH23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH23" s="4" t="s">
+      <c r="AI23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AJ23" s="3">
         <v>14</v>
       </c>
-      <c r="AJ23" s="3" t="s">
+      <c r="AK23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
@@ -5198,219 +5239,225 @@
         <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
-        <v>2</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
       </c>
       <c r="M24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="5">
         <v>1</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
         <v>4</v>
       </c>
-      <c r="P24" s="9">
-        <f t="shared" si="29"/>
+      <c r="Q24" s="9">
+        <f t="shared" ref="Q24" si="54">P24+T24</f>
         <v>5</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="30"/>
-        <v>20</v>
-      </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="9">
-        <f t="shared" si="31"/>
+      <c r="R24" s="6">
+        <f t="shared" ref="R24" si="55">(((O24+1)*Q24)*I24)</f>
+        <v>10</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="9">
+        <f t="shared" ref="T24" si="56">P24*U24</f>
         <v>1</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>0.25</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>0.01</v>
       </c>
-      <c r="V24" s="3">
-        <f t="shared" si="32"/>
-        <v>0.2</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="33"/>
-        <v>0.2</v>
-      </c>
-      <c r="X24" s="6">
-        <f t="shared" si="34"/>
-        <v>20.2</v>
-      </c>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA24">
-        <v>2</v>
+      <c r="W24" s="3">
+        <f t="shared" ref="W24" si="57">R24*V24</f>
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" ref="X24" si="58">V24*R24</f>
+        <v>0.1</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" ref="Y24" si="59">R24+X24</f>
+        <v>10.1</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="35"/>
-        <v>0.18</v>
-      </c>
-      <c r="AC24" s="7">
-        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" ref="AC24" si="60">SUM(V24*AD24)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" ref="AD24" si="61">SUM(R24-AB24)</f>
+        <v>9</v>
+      </c>
+      <c r="AE24" s="7">
+        <f t="shared" ref="AE24" si="62">SUM(V24*AD24)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" ref="AF24" si="63">SUM(AC24+AD24)</f>
+        <v>9.09</v>
+      </c>
+      <c r="AG24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD24" s="7">
-        <f t="shared" si="37"/>
-        <v>0.18</v>
-      </c>
-      <c r="AE24" s="7">
-        <f t="shared" si="38"/>
-        <v>18.18</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG24" s="4" t="s">
+      <c r="AH24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH24" s="4" t="s">
+      <c r="AI24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AJ24" s="3">
         <v>14</v>
       </c>
-      <c r="AJ24" s="3" t="s">
+      <c r="AK24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I25" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" s="5">
         <v>2</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L25" s="5">
         <v>0</v>
       </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5">
         <v>1</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
         <v>4</v>
       </c>
-      <c r="P25" s="9">
-        <f t="shared" si="29"/>
+      <c r="Q25" s="9">
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="30"/>
+      <c r="R25" s="6">
+        <f t="shared" si="45"/>
         <v>20</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="9">
-        <f t="shared" si="31"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="9">
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="T25" s="3">
+      <c r="U25" s="3">
         <v>0.25</v>
       </c>
-      <c r="U25" s="3">
+      <c r="V25" s="3">
         <v>0.01</v>
       </c>
-      <c r="V25" s="3">
-        <f t="shared" si="32"/>
+      <c r="W25" s="3">
+        <f t="shared" si="47"/>
         <v>0.2</v>
       </c>
-      <c r="W25" s="9">
-        <f t="shared" si="33"/>
+      <c r="X25" s="9">
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
-      <c r="X25" s="6">
-        <f t="shared" si="34"/>
+      <c r="Y25" s="6">
+        <f t="shared" si="49"/>
         <v>20.2</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="3" t="s">
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>2</v>
       </c>
-      <c r="AB25">
-        <f t="shared" si="35"/>
+      <c r="AC25">
+        <f t="shared" si="50"/>
         <v>0.18</v>
       </c>
-      <c r="AC25" s="7">
-        <f t="shared" si="36"/>
+      <c r="AD25" s="7">
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
-      <c r="AD25" s="7">
-        <f t="shared" si="37"/>
+      <c r="AE25" s="7">
+        <f t="shared" si="52"/>
         <v>0.18</v>
       </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="38"/>
+      <c r="AF25" s="7">
+        <f t="shared" si="53"/>
         <v>18.18</v>
       </c>
-      <c r="AF25" s="4" t="s">
+      <c r="AG25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG25" s="4" t="s">
+      <c r="AH25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH25" s="4" t="s">
+      <c r="AI25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AJ25" s="3">
         <v>14</v>
       </c>
-      <c r="AJ25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="C26" s="8"/>
       <c r="E26" s="11"/>
@@ -5421,28 +5468,29 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="3"/>
-      <c r="AC26" s="7"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="3"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="4"/>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="3"/>
+      <c r="AI26" s="4"/>
       <c r="AJ26" s="3"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="C27" s="8"/>
       <c r="E27" s="11"/>
@@ -5453,28 +5501,29 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="3"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="3"/>
-      <c r="AC27" s="7"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="3"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
-      <c r="AF27" s="4"/>
+      <c r="AF27" s="7"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="3"/>
+      <c r="AI27" s="4"/>
       <c r="AJ27" s="3"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="C28" s="8"/>
       <c r="E28" s="11"/>
@@ -5485,28 +5534,29 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="9"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="3"/>
-      <c r="AC28" s="7"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="3"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-      <c r="AF28" s="4"/>
+      <c r="AF28" s="7"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="3"/>
+      <c r="AI28" s="4"/>
       <c r="AJ28" s="3"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK28" s="3"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="C29" s="8"/>
       <c r="E29" s="11"/>
@@ -5517,28 +5567,29 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="3"/>
-      <c r="AC29" s="7"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="3"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="4"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-      <c r="AI29" s="3"/>
+      <c r="AI29" s="4"/>
       <c r="AJ29" s="3"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK29" s="3"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="C30" s="8"/>
       <c r="E30" s="11"/>
@@ -5549,28 +5600,29 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="9"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="3"/>
-      <c r="AC30" s="7"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="3"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="4"/>
+      <c r="AF30" s="7"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="3"/>
+      <c r="AI30" s="4"/>
       <c r="AJ30" s="3"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK30" s="3"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="C31" s="8"/>
       <c r="E31" s="11"/>
@@ -5581,28 +5633,29 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="6"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="3"/>
-      <c r="AC31" s="7"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="3"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
-      <c r="AF31" s="4"/>
+      <c r="AF31" s="7"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-      <c r="AI31" s="3"/>
+      <c r="AI31" s="4"/>
       <c r="AJ31" s="3"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="C32" s="8"/>
       <c r="E32" s="11"/>
@@ -5613,28 +5666,29 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="9"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="3"/>
-      <c r="AC32" s="7"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="3"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
-      <c r="AF32" s="4"/>
+      <c r="AF32" s="7"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="3"/>
+      <c r="AI32" s="4"/>
       <c r="AJ32" s="3"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK32" s="3"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="C33" s="8"/>
       <c r="E33" s="11"/>
@@ -5645,28 +5699,29 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="6"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="3"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="3"/>
-      <c r="AC33" s="7"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="3"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
-      <c r="AF33" s="4"/>
+      <c r="AF33" s="7"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
-      <c r="AI33" s="3"/>
+      <c r="AI33" s="4"/>
       <c r="AJ33" s="3"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK33" s="3"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="C34" s="8"/>
       <c r="E34" s="11"/>
@@ -5677,28 +5732,29 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="3"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="9"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="3"/>
-      <c r="AC34" s="7"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="3"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
-      <c r="AF34" s="4"/>
+      <c r="AF34" s="7"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="3"/>
+      <c r="AI34" s="4"/>
       <c r="AJ34" s="3"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="C35" s="8"/>
       <c r="E35" s="11"/>
@@ -5709,28 +5765,29 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="6"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="3"/>
-      <c r="AC35" s="7"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="3"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
-      <c r="AF35" s="4"/>
+      <c r="AF35" s="7"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="3"/>
+      <c r="AI35" s="4"/>
       <c r="AJ35" s="3"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK35" s="3"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="C36" s="8"/>
       <c r="E36" s="11"/>
@@ -5741,28 +5798,29 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="6"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="3"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="3"/>
-      <c r="AC36" s="7"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="3"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
-      <c r="AF36" s="4"/>
+      <c r="AF36" s="7"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
-      <c r="AI36" s="3"/>
+      <c r="AI36" s="4"/>
       <c r="AJ36" s="3"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK36" s="3"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="C37" s="8"/>
       <c r="E37" s="11"/>
@@ -5773,27 +5831,28 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="6"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="3"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="9"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="6"/>
-      <c r="Z37" s="3"/>
-      <c r="AC37" s="7"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="6"/>
+      <c r="AA37" s="3"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-      <c r="AF37" s="4"/>
+      <c r="AF37" s="7"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
-      <c r="AI37" s="3"/>
+      <c r="AI37" s="4"/>
       <c r="AJ37" s="3"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK37" s="3"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="C38" s="8"/>
       <c r="E38" s="11"/>
@@ -5804,28 +5863,29 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="6"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="3"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="9"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="3"/>
-      <c r="AC38" s="7"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="3"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
-      <c r="AF38" s="4"/>
+      <c r="AF38" s="7"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
-      <c r="AI38" s="3"/>
+      <c r="AI38" s="4"/>
       <c r="AJ38" s="3"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK38" s="3"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="C39" s="8"/>
       <c r="E39" s="11"/>
@@ -5836,28 +5896,29 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="6"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="3"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="9"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="3"/>
-      <c r="AC39" s="7"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="3"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="4"/>
+      <c r="AF39" s="7"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="3"/>
+      <c r="AI39" s="4"/>
       <c r="AJ39" s="3"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK39" s="3"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="C40" s="8"/>
       <c r="E40" s="11"/>
@@ -5868,28 +5929,29 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="3"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="9"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="3"/>
-      <c r="AC40" s="7"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="3"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
-      <c r="AF40" s="4"/>
+      <c r="AF40" s="7"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="3"/>
+      <c r="AI40" s="4"/>
       <c r="AJ40" s="3"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK40" s="3"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="C41" s="8"/>
       <c r="E41" s="11"/>
@@ -5900,28 +5962,29 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="6"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="3"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="3"/>
-      <c r="AC41" s="7"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="3"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
-      <c r="AF41" s="4"/>
+      <c r="AF41" s="7"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
-      <c r="AI41" s="3"/>
+      <c r="AI41" s="4"/>
       <c r="AJ41" s="3"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK41" s="3"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="C42" s="8"/>
       <c r="E42" s="11"/>
@@ -5932,28 +5995,29 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="6"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="3"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="9"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="3"/>
-      <c r="AC42" s="7"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="3"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
-      <c r="AF42" s="4"/>
+      <c r="AF42" s="7"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="3"/>
+      <c r="AI42" s="4"/>
       <c r="AJ42" s="3"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK42" s="3"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="C43" s="8"/>
       <c r="E43" s="11"/>
@@ -5964,28 +6028,29 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="3"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="3"/>
-      <c r="AC43" s="7"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="3"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
-      <c r="AF43" s="4"/>
+      <c r="AF43" s="7"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
-      <c r="AI43" s="3"/>
+      <c r="AI43" s="4"/>
       <c r="AJ43" s="3"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK43" s="3"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="C44" s="8"/>
       <c r="E44" s="11"/>
@@ -5996,28 +6061,29 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="6"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="3"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="3"/>
-      <c r="AC44" s="7"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="3"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
-      <c r="AF44" s="4"/>
+      <c r="AF44" s="7"/>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
-      <c r="AI44" s="3"/>
+      <c r="AI44" s="4"/>
       <c r="AJ44" s="3"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK44" s="3"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="C45" s="8"/>
       <c r="E45" s="11"/>
@@ -6028,28 +6094,29 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="6"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="3"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="3"/>
-      <c r="AC45" s="7"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="3"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="4"/>
+      <c r="AF45" s="7"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="3"/>
+      <c r="AI45" s="4"/>
       <c r="AJ45" s="3"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK45" s="3"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="C46" s="8"/>
       <c r="E46" s="11"/>
@@ -6060,28 +6127,29 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="6"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="3"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="9"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="3"/>
-      <c r="AC46" s="7"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="3"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
-      <c r="AF46" s="4"/>
+      <c r="AF46" s="7"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
-      <c r="AI46" s="3"/>
+      <c r="AI46" s="4"/>
       <c r="AJ46" s="3"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK46" s="3"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="C47" s="8"/>
       <c r="E47" s="11"/>
@@ -6092,28 +6160,29 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="6"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="3"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="9"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="3"/>
-      <c r="AC47" s="7"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="3"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
-      <c r="AF47" s="4"/>
+      <c r="AF47" s="7"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
-      <c r="AI47" s="3"/>
+      <c r="AI47" s="4"/>
       <c r="AJ47" s="3"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK47" s="3"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="C48" s="8"/>
       <c r="E48" s="11"/>
@@ -6124,28 +6193,29 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="6"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="3"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="9"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="3"/>
-      <c r="AC48" s="7"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="3"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
-      <c r="AF48" s="4"/>
+      <c r="AF48" s="7"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
-      <c r="AI48" s="3"/>
+      <c r="AI48" s="4"/>
       <c r="AJ48" s="3"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK48" s="3"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="C49" s="8"/>
       <c r="E49" s="11"/>
@@ -6156,28 +6226,29 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="6"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="3"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="3"/>
-      <c r="AC49" s="7"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="3"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
-      <c r="AF49" s="4"/>
+      <c r="AF49" s="7"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="3"/>
+      <c r="AI49" s="4"/>
       <c r="AJ49" s="3"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK49" s="3"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="C50" s="8"/>
       <c r="E50" s="11"/>
@@ -6188,28 +6259,29 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="6"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="3"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="3"/>
-      <c r="AC50" s="7"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="3"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
-      <c r="AF50" s="4"/>
+      <c r="AF50" s="7"/>
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
-      <c r="AI50" s="3"/>
+      <c r="AI50" s="4"/>
       <c r="AJ50" s="3"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK50" s="3"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="C51" s="8"/>
       <c r="E51" s="11"/>
@@ -6220,28 +6292,29 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="6"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="3"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="3"/>
-      <c r="AC51" s="7"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="3"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
-      <c r="AF51" s="4"/>
+      <c r="AF51" s="7"/>
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
-      <c r="AI51" s="3"/>
+      <c r="AI51" s="4"/>
       <c r="AJ51" s="3"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK51" s="3"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="C52" s="8"/>
       <c r="E52" s="11"/>
@@ -6252,28 +6325,29 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="6"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="3"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="9"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="3"/>
-      <c r="AC52" s="7"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="3"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
-      <c r="AF52" s="4"/>
+      <c r="AF52" s="7"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
-      <c r="AI52" s="3"/>
+      <c r="AI52" s="4"/>
       <c r="AJ52" s="3"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK52" s="3"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="C53" s="8"/>
       <c r="E53" s="11"/>
@@ -6284,28 +6358,29 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="6"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="3"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="9"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="3"/>
-      <c r="AC53" s="7"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="3"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-      <c r="AF53" s="4"/>
+      <c r="AF53" s="7"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
-      <c r="AI53" s="3"/>
+      <c r="AI53" s="4"/>
       <c r="AJ53" s="3"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK53" s="3"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="C54" s="8"/>
       <c r="E54" s="11"/>
@@ -6316,28 +6391,29 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="6"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="3"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="9"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="3"/>
-      <c r="AC54" s="7"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="3"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="4"/>
+      <c r="AF54" s="7"/>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="3"/>
+      <c r="AI54" s="4"/>
       <c r="AJ54" s="3"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK54" s="3"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="C55" s="8"/>
       <c r="E55" s="11"/>
@@ -6348,28 +6424,29 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="6"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="3"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="9"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="3"/>
-      <c r="AC55" s="7"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="3"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
-      <c r="AF55" s="4"/>
+      <c r="AF55" s="7"/>
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="3"/>
+      <c r="AI55" s="4"/>
       <c r="AJ55" s="3"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK55" s="3"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="C56" s="8"/>
       <c r="E56" s="11"/>
@@ -6380,28 +6457,29 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="6"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="3"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="9"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="3"/>
-      <c r="AC56" s="7"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="3"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
-      <c r="AF56" s="4"/>
+      <c r="AF56" s="7"/>
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
-      <c r="AI56" s="3"/>
+      <c r="AI56" s="4"/>
       <c r="AJ56" s="3"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK56" s="3"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="C57" s="8"/>
       <c r="E57" s="11"/>
@@ -6412,28 +6490,29 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="6"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="3"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="9"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="3"/>
-      <c r="AC57" s="7"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="3"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-      <c r="AF57" s="4"/>
+      <c r="AF57" s="7"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
-      <c r="AI57" s="3"/>
+      <c r="AI57" s="4"/>
       <c r="AJ57" s="3"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK57" s="3"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="C58" s="8"/>
       <c r="E58" s="11"/>
@@ -6444,28 +6523,29 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="6"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="3"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="9"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="3"/>
-      <c r="AC58" s="7"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="3"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
-      <c r="AF58" s="4"/>
+      <c r="AF58" s="7"/>
       <c r="AG58" s="4"/>
       <c r="AH58" s="4"/>
-      <c r="AI58" s="3"/>
+      <c r="AI58" s="4"/>
       <c r="AJ58" s="3"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK58" s="3"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="C59" s="8"/>
       <c r="E59" s="11"/>
@@ -6476,28 +6556,29 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="6"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="3"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="9"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="3"/>
-      <c r="AC59" s="7"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="3"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
-      <c r="AF59" s="4"/>
+      <c r="AF59" s="7"/>
       <c r="AG59" s="4"/>
       <c r="AH59" s="4"/>
-      <c r="AI59" s="3"/>
+      <c r="AI59" s="4"/>
       <c r="AJ59" s="3"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK59" s="3"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="C60" s="8"/>
       <c r="E60" s="11"/>
@@ -6508,28 +6589,29 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="6"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="3"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="9"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="3"/>
-      <c r="AC60" s="7"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="3"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
-      <c r="AF60" s="4"/>
+      <c r="AF60" s="7"/>
       <c r="AG60" s="4"/>
       <c r="AH60" s="4"/>
-      <c r="AI60" s="3"/>
+      <c r="AI60" s="4"/>
       <c r="AJ60" s="3"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK60" s="3"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="C61" s="8"/>
       <c r="E61" s="11"/>
@@ -6540,28 +6622,29 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="6"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="3"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="9"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="3"/>
-      <c r="AC61" s="7"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="3"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
-      <c r="AF61" s="4"/>
+      <c r="AF61" s="7"/>
       <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
-      <c r="AI61" s="3"/>
+      <c r="AI61" s="4"/>
       <c r="AJ61" s="3"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK61" s="3"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="C62" s="8"/>
       <c r="E62" s="11"/>
@@ -6572,28 +6655,29 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="6"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="3"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="9"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="3"/>
-      <c r="AC62" s="7"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="3"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
-      <c r="AF62" s="4"/>
+      <c r="AF62" s="7"/>
       <c r="AG62" s="4"/>
       <c r="AH62" s="4"/>
-      <c r="AI62" s="3"/>
+      <c r="AI62" s="4"/>
       <c r="AJ62" s="3"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK62" s="3"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="C63" s="8"/>
       <c r="E63" s="11"/>
@@ -6604,28 +6688,29 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="6"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="3"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="9"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="3"/>
-      <c r="AC63" s="7"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="3"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
-      <c r="AF63" s="4"/>
+      <c r="AF63" s="7"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="4"/>
-      <c r="AI63" s="3"/>
+      <c r="AI63" s="4"/>
       <c r="AJ63" s="3"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK63" s="3"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="C64" s="8"/>
       <c r="E64" s="11"/>
@@ -6636,28 +6721,29 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="6"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="6"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="3"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="9"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="3"/>
-      <c r="AC64" s="7"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="3"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
-      <c r="AF64" s="4"/>
+      <c r="AF64" s="7"/>
       <c r="AG64" s="4"/>
       <c r="AH64" s="4"/>
-      <c r="AI64" s="3"/>
+      <c r="AI64" s="4"/>
       <c r="AJ64" s="3"/>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK64" s="3"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="C65" s="8"/>
       <c r="E65" s="11"/>
@@ -6668,28 +6754,29 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="6"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="6"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="3"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="9"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="3"/>
-      <c r="AC65" s="7"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="3"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
-      <c r="AF65" s="4"/>
+      <c r="AF65" s="7"/>
       <c r="AG65" s="4"/>
       <c r="AH65" s="4"/>
-      <c r="AI65" s="3"/>
+      <c r="AI65" s="4"/>
       <c r="AJ65" s="3"/>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK65" s="3"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="C66" s="8"/>
       <c r="E66" s="11"/>
@@ -6700,28 +6787,29 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="6"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="6"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="3"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="9"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="3"/>
-      <c r="AC66" s="7"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="3"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
-      <c r="AF66" s="4"/>
+      <c r="AF66" s="7"/>
       <c r="AG66" s="4"/>
       <c r="AH66" s="4"/>
-      <c r="AI66" s="3"/>
+      <c r="AI66" s="4"/>
       <c r="AJ66" s="3"/>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK66" s="3"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="C67" s="8"/>
       <c r="E67" s="11"/>
@@ -6732,28 +6820,29 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="6"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="6"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="3"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="9"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="3"/>
-      <c r="AC67" s="7"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="3"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
-      <c r="AF67" s="4"/>
+      <c r="AF67" s="7"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
-      <c r="AI67" s="3"/>
+      <c r="AI67" s="4"/>
       <c r="AJ67" s="3"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK67" s="3"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="C68" s="8"/>
       <c r="E68" s="11"/>
@@ -6764,28 +6853,29 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="3"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="9"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="3"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="14"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="4"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="3"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="14"/>
+      <c r="AF68" s="7"/>
       <c r="AG68" s="4"/>
       <c r="AH68" s="4"/>
-      <c r="AI68" s="3"/>
+      <c r="AI68" s="4"/>
       <c r="AJ68" s="3"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK68" s="3"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="C69" s="8"/>
       <c r="E69" s="11"/>
@@ -6796,28 +6886,29 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="3"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="9"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="3"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="14"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="4"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="3"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="14"/>
+      <c r="AF69" s="7"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
-      <c r="AI69" s="3"/>
+      <c r="AI69" s="4"/>
       <c r="AJ69" s="3"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK69" s="3"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="C70" s="8"/>
       <c r="E70" s="11"/>
@@ -6828,28 +6919,29 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="3"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="9"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="3"/>
-      <c r="AB70" s="7"/>
-      <c r="AC70" s="14"/>
-      <c r="AE70" s="7"/>
-      <c r="AF70" s="4"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="3"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="14"/>
+      <c r="AF70" s="7"/>
       <c r="AG70" s="4"/>
       <c r="AH70" s="4"/>
-      <c r="AI70" s="3"/>
+      <c r="AI70" s="4"/>
       <c r="AJ70" s="3"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK70" s="3"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="8"/>
@@ -6861,28 +6953,29 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="3"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="9"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="3"/>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="14"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="4"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="3"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="14"/>
+      <c r="AF71" s="7"/>
       <c r="AG71" s="4"/>
       <c r="AH71" s="4"/>
-      <c r="AI71" s="3"/>
+      <c r="AI71" s="4"/>
       <c r="AJ71" s="3"/>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK71" s="3"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="C72" s="8"/>
       <c r="E72" s="11"/>
@@ -6893,28 +6986,29 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="3"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="9"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="3"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="14"/>
-      <c r="AE72" s="7"/>
-      <c r="AF72" s="4"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="3"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="14"/>
+      <c r="AF72" s="7"/>
       <c r="AG72" s="4"/>
       <c r="AH72" s="4"/>
-      <c r="AI72" s="3"/>
+      <c r="AI72" s="4"/>
       <c r="AJ72" s="3"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK72" s="3"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="8"/>
@@ -6926,28 +7020,29 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="3"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="9"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="3"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="14"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="4"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="3"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="14"/>
+      <c r="AF73" s="7"/>
       <c r="AG73" s="4"/>
       <c r="AH73" s="4"/>
-      <c r="AI73" s="3"/>
+      <c r="AI73" s="4"/>
       <c r="AJ73" s="3"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK73" s="3"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="8"/>
@@ -6959,28 +7054,29 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="3"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="9"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="3"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="14"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="4"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="3"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="14"/>
+      <c r="AF74" s="7"/>
       <c r="AG74" s="4"/>
       <c r="AH74" s="4"/>
-      <c r="AI74" s="3"/>
+      <c r="AI74" s="4"/>
       <c r="AJ74" s="3"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK74" s="3"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="C75" s="8"/>
       <c r="E75" s="11"/>
@@ -6993,28 +7089,29 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="3"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="9"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="3"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="14"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="4"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="3"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="14"/>
+      <c r="AF75" s="7"/>
       <c r="AG75" s="4"/>
       <c r="AH75" s="4"/>
-      <c r="AI75" s="3"/>
+      <c r="AI75" s="4"/>
       <c r="AJ75" s="3"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK75" s="3"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="8"/>
@@ -7026,28 +7123,29 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="3"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="9"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="3"/>
-      <c r="AB76" s="7"/>
-      <c r="AC76" s="14"/>
-      <c r="AE76" s="7"/>
-      <c r="AF76" s="4"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="3"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="14"/>
+      <c r="AF76" s="7"/>
       <c r="AG76" s="4"/>
       <c r="AH76" s="4"/>
-      <c r="AI76" s="3"/>
+      <c r="AI76" s="4"/>
       <c r="AJ76" s="3"/>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK76" s="3"/>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="8"/>
@@ -7059,28 +7157,29 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="3"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="9"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="3"/>
-      <c r="AB77" s="7"/>
-      <c r="AC77" s="14"/>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="4"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="3"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="14"/>
+      <c r="AF77" s="7"/>
       <c r="AG77" s="4"/>
       <c r="AH77" s="4"/>
-      <c r="AI77" s="3"/>
+      <c r="AI77" s="4"/>
       <c r="AJ77" s="3"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK77" s="3"/>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="8"/>
@@ -7092,28 +7191,29 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="3"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="9"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="3"/>
-      <c r="AB78" s="7"/>
-      <c r="AC78" s="14"/>
-      <c r="AE78" s="7"/>
-      <c r="AF78" s="4"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="3"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="14"/>
+      <c r="AF78" s="7"/>
       <c r="AG78" s="4"/>
       <c r="AH78" s="4"/>
-      <c r="AI78" s="3"/>
+      <c r="AI78" s="4"/>
       <c r="AJ78" s="3"/>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK78" s="3"/>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="8"/>
@@ -7125,28 +7225,29 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="3"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="9"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="3"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="14"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="4"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="3"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="14"/>
+      <c r="AF79" s="7"/>
       <c r="AG79" s="4"/>
       <c r="AH79" s="4"/>
-      <c r="AI79" s="3"/>
+      <c r="AI79" s="4"/>
       <c r="AJ79" s="3"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK79" s="3"/>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="8"/>
@@ -7158,29 +7259,30 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="3"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="9"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="3"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="14"/>
-      <c r="AD80" s="7"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="3"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="14"/>
       <c r="AE80" s="7"/>
-      <c r="AF80" s="4"/>
+      <c r="AF80" s="7"/>
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
-      <c r="AI80" s="3"/>
+      <c r="AI80" s="4"/>
       <c r="AJ80" s="3"/>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK80" s="3"/>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="8"/>
@@ -7192,29 +7294,30 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="3"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="9"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="3"/>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="7"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="3"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="14"/>
       <c r="AE81" s="7"/>
-      <c r="AF81" s="4"/>
+      <c r="AF81" s="7"/>
       <c r="AG81" s="4"/>
       <c r="AH81" s="4"/>
-      <c r="AI81" s="3"/>
+      <c r="AI81" s="4"/>
       <c r="AJ81" s="3"/>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK81" s="3"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="8"/>
@@ -7226,29 +7329,30 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="3"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="9"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="3"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="14"/>
-      <c r="AD82" s="7"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="3"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="14"/>
       <c r="AE82" s="7"/>
-      <c r="AF82" s="4"/>
+      <c r="AF82" s="7"/>
       <c r="AG82" s="4"/>
       <c r="AH82" s="4"/>
-      <c r="AI82" s="3"/>
+      <c r="AI82" s="4"/>
       <c r="AJ82" s="3"/>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK82" s="3"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="8"/>
@@ -7260,29 +7364,30 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="3"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="9"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="3"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="7"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="15"/>
+      <c r="AA83" s="3"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="14"/>
       <c r="AE83" s="7"/>
-      <c r="AF83" s="4"/>
+      <c r="AF83" s="7"/>
       <c r="AG83" s="4"/>
       <c r="AH83" s="4"/>
-      <c r="AI83" s="3"/>
+      <c r="AI83" s="4"/>
       <c r="AJ83" s="3"/>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK83" s="3"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="8"/>
@@ -7294,29 +7399,30 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="3"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="9"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="3"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="7"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="3"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="14"/>
       <c r="AE84" s="7"/>
-      <c r="AF84" s="4"/>
+      <c r="AF84" s="7"/>
       <c r="AG84" s="4"/>
       <c r="AH84" s="4"/>
-      <c r="AI84" s="3"/>
+      <c r="AI84" s="4"/>
       <c r="AJ84" s="3"/>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK84" s="3"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="8"/>
@@ -7328,28 +7434,29 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="3"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="9"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="3"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="14"/>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="4"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="3"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="14"/>
+      <c r="AF85" s="7"/>
       <c r="AG85" s="4"/>
       <c r="AH85" s="4"/>
-      <c r="AI85" s="3"/>
+      <c r="AI85" s="4"/>
       <c r="AJ85" s="3"/>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK85" s="3"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="8"/>
@@ -7361,28 +7468,29 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="3"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="9"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="3"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="14"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="4"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="3"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="14"/>
+      <c r="AF86" s="7"/>
       <c r="AG86" s="4"/>
       <c r="AH86" s="4"/>
-      <c r="AI86" s="3"/>
+      <c r="AI86" s="4"/>
       <c r="AJ86" s="3"/>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK86" s="3"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="8"/>
@@ -7394,28 +7502,29 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="3"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="9"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="3"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="14"/>
-      <c r="AE87" s="7"/>
-      <c r="AF87" s="4"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="3"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="14"/>
+      <c r="AF87" s="7"/>
       <c r="AG87" s="4"/>
       <c r="AH87" s="4"/>
-      <c r="AI87" s="3"/>
+      <c r="AI87" s="4"/>
       <c r="AJ87" s="3"/>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK87" s="3"/>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="8"/>
@@ -7427,28 +7536,29 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="9"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="13"/>
       <c r="S88" s="9"/>
-      <c r="T88" s="3"/>
+      <c r="T88" s="9"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="9"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="3"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="14"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="4"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="3"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="14"/>
+      <c r="AF88" s="7"/>
       <c r="AG88" s="4"/>
       <c r="AH88" s="4"/>
-      <c r="AI88" s="3"/>
+      <c r="AI88" s="4"/>
       <c r="AJ88" s="3"/>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK88" s="3"/>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="8"/>
@@ -7460,28 +7570,29 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="3"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="9"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-      <c r="W89" s="9"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="3"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="14"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="4"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="3"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="14"/>
+      <c r="AF89" s="7"/>
       <c r="AG89" s="4"/>
       <c r="AH89" s="4"/>
-      <c r="AI89" s="3"/>
+      <c r="AI89" s="4"/>
       <c r="AJ89" s="3"/>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK89" s="3"/>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="8"/>
@@ -7493,28 +7604,29 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="3"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="9"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="3"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="14"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="4"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="3"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="14"/>
+      <c r="AF90" s="7"/>
       <c r="AG90" s="4"/>
       <c r="AH90" s="4"/>
-      <c r="AI90" s="3"/>
+      <c r="AI90" s="4"/>
       <c r="AJ90" s="3"/>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK90" s="3"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="8"/>
@@ -7526,28 +7638,29 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="3"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="9"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="3"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="14"/>
-      <c r="AE91" s="7"/>
-      <c r="AF91" s="4"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="3"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="14"/>
+      <c r="AF91" s="7"/>
       <c r="AG91" s="4"/>
       <c r="AH91" s="4"/>
-      <c r="AI91" s="3"/>
+      <c r="AI91" s="4"/>
       <c r="AJ91" s="3"/>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK91" s="3"/>
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="8"/>
@@ -7559,28 +7672,29 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="9"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="13"/>
       <c r="S92" s="9"/>
-      <c r="T92" s="3"/>
+      <c r="T92" s="9"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="3"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="14"/>
-      <c r="AE92" s="7"/>
-      <c r="AF92" s="4"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="3"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="14"/>
+      <c r="AF92" s="7"/>
       <c r="AG92" s="4"/>
       <c r="AH92" s="4"/>
-      <c r="AI92" s="3"/>
+      <c r="AI92" s="4"/>
       <c r="AJ92" s="3"/>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK92" s="3"/>
+    </row>
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="8"/>
@@ -7592,28 +7706,29 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="3"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="9"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="3"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="14"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="4"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="3"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="14"/>
+      <c r="AF93" s="7"/>
       <c r="AG93" s="4"/>
       <c r="AH93" s="4"/>
-      <c r="AI93" s="3"/>
+      <c r="AI93" s="4"/>
       <c r="AJ93" s="3"/>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK93" s="3"/>
+    </row>
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="8"/>
@@ -7625,28 +7740,29 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="3"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="9"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="3"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="14"/>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="4"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="3"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="14"/>
+      <c r="AF94" s="7"/>
       <c r="AG94" s="4"/>
       <c r="AH94" s="4"/>
-      <c r="AI94" s="3"/>
+      <c r="AI94" s="4"/>
       <c r="AJ94" s="3"/>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK94" s="3"/>
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="8"/>
@@ -7658,28 +7774,29 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="3"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="9"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="3"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="14"/>
-      <c r="AE95" s="7"/>
-      <c r="AF95" s="4"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="15"/>
+      <c r="AA95" s="3"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="14"/>
+      <c r="AF95" s="7"/>
       <c r="AG95" s="4"/>
       <c r="AH95" s="4"/>
-      <c r="AI95" s="3"/>
+      <c r="AI95" s="4"/>
       <c r="AJ95" s="3"/>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK95" s="3"/>
+    </row>
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="8"/>
@@ -7691,28 +7808,29 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="9"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="13"/>
       <c r="S96" s="9"/>
-      <c r="T96" s="3"/>
+      <c r="T96" s="9"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="3"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="14"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="4"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="15"/>
+      <c r="AA96" s="3"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="14"/>
+      <c r="AF96" s="7"/>
       <c r="AG96" s="4"/>
       <c r="AH96" s="4"/>
-      <c r="AI96" s="3"/>
+      <c r="AI96" s="4"/>
       <c r="AJ96" s="3"/>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK96" s="3"/>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="8"/>
@@ -7724,28 +7842,29 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="3"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="9"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-      <c r="W97" s="9"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="3"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="14"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="4"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="15"/>
+      <c r="AA97" s="3"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="14"/>
+      <c r="AF97" s="7"/>
       <c r="AG97" s="4"/>
       <c r="AH97" s="4"/>
-      <c r="AI97" s="3"/>
+      <c r="AI97" s="4"/>
       <c r="AJ97" s="3"/>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK97" s="3"/>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="8"/>
@@ -7757,28 +7876,29 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="3"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="9"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="3"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="14"/>
-      <c r="AE98" s="7"/>
-      <c r="AF98" s="4"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="3"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="14"/>
+      <c r="AF98" s="7"/>
       <c r="AG98" s="4"/>
       <c r="AH98" s="4"/>
-      <c r="AI98" s="3"/>
+      <c r="AI98" s="4"/>
       <c r="AJ98" s="3"/>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK98" s="3"/>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="8"/>
@@ -7790,26 +7910,27 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="3"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="9"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-      <c r="W99" s="9"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="3"/>
-      <c r="AE99" s="7"/>
-      <c r="AF99" s="4"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="15"/>
+      <c r="AA99" s="3"/>
+      <c r="AF99" s="7"/>
       <c r="AG99" s="4"/>
       <c r="AH99" s="4"/>
-      <c r="AI99" s="3"/>
+      <c r="AI99" s="4"/>
       <c r="AJ99" s="3"/>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK99" s="3"/>
+    </row>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="8"/>
@@ -7821,26 +7942,27 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="9"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="13"/>
       <c r="S100" s="9"/>
-      <c r="T100" s="3"/>
+      <c r="T100" s="9"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="3"/>
-      <c r="AE100" s="7"/>
-      <c r="AF100" s="4"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="3"/>
+      <c r="AF100" s="7"/>
       <c r="AG100" s="4"/>
       <c r="AH100" s="4"/>
-      <c r="AI100" s="3"/>
+      <c r="AI100" s="4"/>
       <c r="AJ100" s="3"/>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK100" s="3"/>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
       <c r="H101" s="3"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -7848,26 +7970,27 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="3"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="9"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="3"/>
-      <c r="AE101" s="7"/>
-      <c r="AF101" s="4"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="15"/>
+      <c r="AA101" s="3"/>
+      <c r="AF101" s="7"/>
       <c r="AG101" s="4"/>
       <c r="AH101" s="4"/>
-      <c r="AI101" s="3"/>
+      <c r="AI101" s="4"/>
       <c r="AJ101" s="3"/>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK101" s="3"/>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
       <c r="H102" s="3"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -7875,26 +7998,27 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="3"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="9"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="3"/>
-      <c r="AE102" s="7"/>
-      <c r="AF102" s="4"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="15"/>
+      <c r="AA102" s="3"/>
+      <c r="AF102" s="7"/>
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
-      <c r="AI102" s="3"/>
+      <c r="AI102" s="4"/>
       <c r="AJ102" s="3"/>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK102" s="3"/>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.3">
       <c r="H103" s="3"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -7902,34 +8026,35 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="3"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="9"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
-      <c r="W103" s="9"/>
-      <c r="X103" s="6"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="3"/>
-      <c r="AE103" s="7"/>
-      <c r="AF103" s="4"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="15"/>
+      <c r="AA103" s="3"/>
+      <c r="AF103" s="7"/>
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
-      <c r="AI103" s="3"/>
+      <c r="AI103" s="4"/>
       <c r="AJ103" s="3"/>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="Q104" s="13"/>
-      <c r="S104" s="9"/>
-      <c r="V104" s="3"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="6"/>
-      <c r="AE104" s="7"/>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK103" s="3"/>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="R104" s="13"/>
+      <c r="T104" s="9"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="6"/>
+      <c r="AF104" s="7"/>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="C105" s="8"/>
       <c r="E105" s="11"/>
@@ -7940,26 +8065,27 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="3"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="9"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="6"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="3"/>
-      <c r="AE105" s="7"/>
-      <c r="AF105" s="4"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="15"/>
+      <c r="AA105" s="3"/>
+      <c r="AF105" s="7"/>
       <c r="AG105" s="4"/>
       <c r="AH105" s="4"/>
-      <c r="AI105" s="3"/>
+      <c r="AI105" s="4"/>
       <c r="AJ105" s="3"/>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK105" s="3"/>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="8"/>
@@ -7971,26 +8097,27 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="3"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="9"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="6"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="3"/>
-      <c r="AE106" s="7"/>
-      <c r="AF106" s="4"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="15"/>
+      <c r="AA106" s="3"/>
+      <c r="AF106" s="7"/>
       <c r="AG106" s="4"/>
       <c r="AH106" s="4"/>
-      <c r="AI106" s="3"/>
+      <c r="AI106" s="4"/>
       <c r="AJ106" s="3"/>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK106" s="3"/>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="8"/>
@@ -8002,40 +8129,41 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="3"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="9"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="6"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="3"/>
-      <c r="AE107" s="7"/>
-      <c r="AF107" s="4"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="15"/>
+      <c r="AA107" s="3"/>
+      <c r="AF107" s="7"/>
       <c r="AG107" s="4"/>
       <c r="AH107" s="4"/>
-      <c r="AI107" s="3"/>
+      <c r="AI107" s="4"/>
       <c r="AJ107" s="3"/>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="Q108" s="13"/>
-      <c r="S108" s="9"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="6"/>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="Q109" s="13"/>
-      <c r="S109" s="9"/>
-      <c r="V109" s="3"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="6"/>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AK107" s="3"/>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="R108" s="13"/>
+      <c r="T108" s="9"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="6"/>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="R109" s="13"/>
+      <c r="T109" s="9"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="6"/>
+    </row>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
@@ -8050,29 +8178,29 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="16"/>
+      <c r="O110" s="5"/>
       <c r="P110" s="16"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="16"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="9"/>
       <c r="U110" s="16"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="9"/>
-      <c r="X110" s="6"/>
-      <c r="Y110" s="21"/>
-      <c r="Z110" s="16"/>
-      <c r="AA110" s="18"/>
+      <c r="V110" s="16"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="16"/>
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
       <c r="AD110" s="18"/>
       <c r="AE110" s="18"/>
-      <c r="AF110" s="19"/>
-      <c r="AG110" s="4"/>
+      <c r="AF110" s="18"/>
+      <c r="AG110" s="19"/>
       <c r="AH110" s="4"/>
-      <c r="AI110" s="16"/>
+      <c r="AI110" s="4"/>
       <c r="AJ110" s="16"/>
-      <c r="AK110" s="18"/>
+      <c r="AK110" s="16"/>
       <c r="AL110" s="18"/>
       <c r="AM110" s="18"/>
       <c r="AN110" s="18"/>
@@ -8081,8 +8209,9 @@
       <c r="AQ110" s="18"/>
       <c r="AR110" s="18"/>
       <c r="AS110" s="18"/>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT110" s="18"/>
+    </row>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -8097,29 +8226,29 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="16"/>
+      <c r="O111" s="5"/>
       <c r="P111" s="16"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="9"/>
       <c r="U111" s="16"/>
-      <c r="V111" s="3"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="6"/>
-      <c r="Y111" s="21"/>
-      <c r="Z111" s="16"/>
-      <c r="AA111" s="18"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="16"/>
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
       <c r="AD111" s="18"/>
       <c r="AE111" s="18"/>
-      <c r="AF111" s="19"/>
-      <c r="AG111" s="4"/>
+      <c r="AF111" s="18"/>
+      <c r="AG111" s="19"/>
       <c r="AH111" s="4"/>
-      <c r="AI111" s="16"/>
+      <c r="AI111" s="4"/>
       <c r="AJ111" s="16"/>
-      <c r="AK111" s="18"/>
+      <c r="AK111" s="16"/>
       <c r="AL111" s="18"/>
       <c r="AM111" s="18"/>
       <c r="AN111" s="18"/>
@@ -8128,8 +8257,9 @@
       <c r="AQ111" s="18"/>
       <c r="AR111" s="18"/>
       <c r="AS111" s="18"/>
-    </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT111" s="18"/>
+    </row>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
@@ -8144,29 +8274,29 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="16"/>
+      <c r="O112" s="5"/>
       <c r="P112" s="16"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="16"/>
+      <c r="Q112" s="16"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="9"/>
       <c r="U112" s="16"/>
-      <c r="V112" s="3"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="6"/>
-      <c r="Y112" s="21"/>
-      <c r="Z112" s="16"/>
-      <c r="AA112" s="18"/>
+      <c r="V112" s="16"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="21"/>
+      <c r="AA112" s="16"/>
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
       <c r="AD112" s="18"/>
       <c r="AE112" s="18"/>
-      <c r="AF112" s="19"/>
-      <c r="AG112" s="4"/>
+      <c r="AF112" s="18"/>
+      <c r="AG112" s="19"/>
       <c r="AH112" s="4"/>
-      <c r="AI112" s="16"/>
+      <c r="AI112" s="4"/>
       <c r="AJ112" s="16"/>
-      <c r="AK112" s="18"/>
+      <c r="AK112" s="16"/>
       <c r="AL112" s="18"/>
       <c r="AM112" s="18"/>
       <c r="AN112" s="18"/>
@@ -8175,8 +8305,9 @@
       <c r="AQ112" s="18"/>
       <c r="AR112" s="18"/>
       <c r="AS112" s="18"/>
-    </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT112" s="18"/>
+    </row>
+    <row r="113" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
@@ -8191,29 +8322,29 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="16"/>
+      <c r="O113" s="5"/>
       <c r="P113" s="16"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="9"/>
       <c r="U113" s="16"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="9"/>
-      <c r="X113" s="6"/>
-      <c r="Y113" s="21"/>
-      <c r="Z113" s="16"/>
-      <c r="AA113" s="18"/>
+      <c r="V113" s="16"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="21"/>
+      <c r="AA113" s="16"/>
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
       <c r="AD113" s="18"/>
       <c r="AE113" s="18"/>
-      <c r="AF113" s="19"/>
-      <c r="AG113" s="4"/>
+      <c r="AF113" s="18"/>
+      <c r="AG113" s="19"/>
       <c r="AH113" s="4"/>
-      <c r="AI113" s="16"/>
+      <c r="AI113" s="4"/>
       <c r="AJ113" s="16"/>
-      <c r="AK113" s="18"/>
+      <c r="AK113" s="16"/>
       <c r="AL113" s="18"/>
       <c r="AM113" s="18"/>
       <c r="AN113" s="18"/>
@@ -8222,8 +8353,9 @@
       <c r="AQ113" s="18"/>
       <c r="AR113" s="18"/>
       <c r="AS113" s="18"/>
-    </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT113" s="18"/>
+    </row>
+    <row r="114" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -8238,29 +8370,29 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="16"/>
+      <c r="O114" s="5"/>
       <c r="P114" s="16"/>
-      <c r="Q114" s="13"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="9"/>
       <c r="U114" s="16"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="6"/>
-      <c r="Y114" s="21"/>
-      <c r="Z114" s="16"/>
-      <c r="AA114" s="18"/>
+      <c r="V114" s="16"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="21"/>
+      <c r="AA114" s="16"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
       <c r="AD114" s="18"/>
       <c r="AE114" s="18"/>
-      <c r="AF114" s="19"/>
-      <c r="AG114" s="4"/>
+      <c r="AF114" s="18"/>
+      <c r="AG114" s="19"/>
       <c r="AH114" s="4"/>
-      <c r="AI114" s="16"/>
+      <c r="AI114" s="4"/>
       <c r="AJ114" s="16"/>
-      <c r="AK114" s="18"/>
+      <c r="AK114" s="16"/>
       <c r="AL114" s="18"/>
       <c r="AM114" s="18"/>
       <c r="AN114" s="18"/>
@@ -8269,8 +8401,9 @@
       <c r="AQ114" s="18"/>
       <c r="AR114" s="18"/>
       <c r="AS114" s="18"/>
-    </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT114" s="18"/>
+    </row>
+    <row r="115" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
@@ -8285,29 +8418,29 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="16"/>
+      <c r="O115" s="5"/>
       <c r="P115" s="16"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="9"/>
       <c r="U115" s="16"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="6"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="16"/>
-      <c r="AA115" s="18"/>
+      <c r="V115" s="16"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="21"/>
+      <c r="AA115" s="16"/>
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
       <c r="AD115" s="18"/>
       <c r="AE115" s="18"/>
-      <c r="AF115" s="19"/>
-      <c r="AG115" s="4"/>
+      <c r="AF115" s="18"/>
+      <c r="AG115" s="19"/>
       <c r="AH115" s="4"/>
-      <c r="AI115" s="16"/>
+      <c r="AI115" s="4"/>
       <c r="AJ115" s="16"/>
-      <c r="AK115" s="18"/>
+      <c r="AK115" s="16"/>
       <c r="AL115" s="18"/>
       <c r="AM115" s="18"/>
       <c r="AN115" s="18"/>
@@ -8316,15 +8449,16 @@
       <c r="AQ115" s="18"/>
       <c r="AR115" s="18"/>
       <c r="AS115" s="18"/>
-    </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="Q116" s="13"/>
-      <c r="S116" s="9"/>
-      <c r="V116" s="3"/>
-      <c r="W116" s="9"/>
-      <c r="X116" s="6"/>
-    </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT115" s="18"/>
+    </row>
+    <row r="116" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="R116" s="13"/>
+      <c r="T116" s="9"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="6"/>
+    </row>
+    <row r="117" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
@@ -8339,29 +8473,29 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="16"/>
+      <c r="O117" s="5"/>
       <c r="P117" s="16"/>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="9"/>
       <c r="U117" s="16"/>
-      <c r="V117" s="3"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="6"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="16"/>
-      <c r="AA117" s="18"/>
+      <c r="V117" s="16"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="6"/>
+      <c r="Z117" s="21"/>
+      <c r="AA117" s="16"/>
       <c r="AB117" s="18"/>
       <c r="AC117" s="18"/>
       <c r="AD117" s="18"/>
       <c r="AE117" s="18"/>
-      <c r="AF117" s="19"/>
-      <c r="AG117" s="4"/>
+      <c r="AF117" s="18"/>
+      <c r="AG117" s="19"/>
       <c r="AH117" s="4"/>
-      <c r="AI117" s="16"/>
+      <c r="AI117" s="4"/>
       <c r="AJ117" s="16"/>
-      <c r="AK117" s="18"/>
+      <c r="AK117" s="16"/>
       <c r="AL117" s="18"/>
       <c r="AM117" s="18"/>
       <c r="AN117" s="18"/>
@@ -8370,8 +8504,9 @@
       <c r="AQ117" s="18"/>
       <c r="AR117" s="18"/>
       <c r="AS117" s="18"/>
-    </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT117" s="18"/>
+    </row>
+    <row r="118" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
@@ -8386,29 +8521,29 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="16"/>
+      <c r="O118" s="5"/>
       <c r="P118" s="16"/>
-      <c r="Q118" s="13"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="9"/>
       <c r="U118" s="16"/>
-      <c r="V118" s="3"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="6"/>
-      <c r="Y118" s="21"/>
-      <c r="Z118" s="16"/>
-      <c r="AA118" s="18"/>
+      <c r="V118" s="16"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="6"/>
+      <c r="Z118" s="21"/>
+      <c r="AA118" s="16"/>
       <c r="AB118" s="18"/>
       <c r="AC118" s="18"/>
       <c r="AD118" s="18"/>
       <c r="AE118" s="18"/>
-      <c r="AF118" s="19"/>
-      <c r="AG118" s="4"/>
+      <c r="AF118" s="18"/>
+      <c r="AG118" s="19"/>
       <c r="AH118" s="4"/>
-      <c r="AI118" s="16"/>
+      <c r="AI118" s="4"/>
       <c r="AJ118" s="16"/>
-      <c r="AK118" s="18"/>
+      <c r="AK118" s="16"/>
       <c r="AL118" s="18"/>
       <c r="AM118" s="18"/>
       <c r="AN118" s="18"/>
@@ -8417,8 +8552,9 @@
       <c r="AQ118" s="18"/>
       <c r="AR118" s="18"/>
       <c r="AS118" s="18"/>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT118" s="18"/>
+    </row>
+    <row r="119" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
@@ -8433,29 +8569,29 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="16"/>
+      <c r="O119" s="5"/>
       <c r="P119" s="16"/>
-      <c r="Q119" s="13"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="9"/>
       <c r="U119" s="16"/>
-      <c r="V119" s="3"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="6"/>
-      <c r="Y119" s="21"/>
-      <c r="Z119" s="16"/>
-      <c r="AA119" s="18"/>
+      <c r="V119" s="16"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="21"/>
+      <c r="AA119" s="16"/>
       <c r="AB119" s="18"/>
       <c r="AC119" s="18"/>
       <c r="AD119" s="18"/>
       <c r="AE119" s="18"/>
-      <c r="AF119" s="19"/>
-      <c r="AG119" s="4"/>
+      <c r="AF119" s="18"/>
+      <c r="AG119" s="19"/>
       <c r="AH119" s="4"/>
-      <c r="AI119" s="16"/>
+      <c r="AI119" s="4"/>
       <c r="AJ119" s="16"/>
-      <c r="AK119" s="18"/>
+      <c r="AK119" s="16"/>
       <c r="AL119" s="18"/>
       <c r="AM119" s="18"/>
       <c r="AN119" s="18"/>
@@ -8464,8 +8600,9 @@
       <c r="AQ119" s="18"/>
       <c r="AR119" s="18"/>
       <c r="AS119" s="18"/>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT119" s="18"/>
+    </row>
+    <row r="120" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17"/>
@@ -8480,29 +8617,29 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="16"/>
+      <c r="O120" s="5"/>
       <c r="P120" s="16"/>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="9"/>
       <c r="U120" s="16"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="6"/>
-      <c r="Y120" s="21"/>
-      <c r="Z120" s="16"/>
-      <c r="AA120" s="18"/>
+      <c r="V120" s="16"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="21"/>
+      <c r="AA120" s="16"/>
       <c r="AB120" s="18"/>
       <c r="AC120" s="18"/>
       <c r="AD120" s="18"/>
       <c r="AE120" s="18"/>
-      <c r="AF120" s="19"/>
-      <c r="AG120" s="4"/>
+      <c r="AF120" s="18"/>
+      <c r="AG120" s="19"/>
       <c r="AH120" s="4"/>
-      <c r="AI120" s="16"/>
+      <c r="AI120" s="4"/>
       <c r="AJ120" s="16"/>
-      <c r="AK120" s="18"/>
+      <c r="AK120" s="16"/>
       <c r="AL120" s="18"/>
       <c r="AM120" s="18"/>
       <c r="AN120" s="18"/>
@@ -8511,8 +8648,9 @@
       <c r="AQ120" s="18"/>
       <c r="AR120" s="18"/>
       <c r="AS120" s="18"/>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT120" s="18"/>
+    </row>
+    <row r="121" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
@@ -8527,29 +8665,29 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="16"/>
+      <c r="O121" s="5"/>
       <c r="P121" s="16"/>
-      <c r="Q121" s="13"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="9"/>
       <c r="U121" s="16"/>
-      <c r="V121" s="3"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="6"/>
-      <c r="Y121" s="21"/>
-      <c r="Z121" s="16"/>
-      <c r="AA121" s="18"/>
+      <c r="V121" s="16"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="9"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="16"/>
       <c r="AB121" s="18"/>
       <c r="AC121" s="18"/>
       <c r="AD121" s="18"/>
       <c r="AE121" s="18"/>
-      <c r="AF121" s="19"/>
-      <c r="AG121" s="4"/>
+      <c r="AF121" s="18"/>
+      <c r="AG121" s="19"/>
       <c r="AH121" s="4"/>
-      <c r="AI121" s="16"/>
+      <c r="AI121" s="4"/>
       <c r="AJ121" s="16"/>
-      <c r="AK121" s="18"/>
+      <c r="AK121" s="16"/>
       <c r="AL121" s="18"/>
       <c r="AM121" s="18"/>
       <c r="AN121" s="18"/>
@@ -8558,8 +8696,9 @@
       <c r="AQ121" s="18"/>
       <c r="AR121" s="18"/>
       <c r="AS121" s="18"/>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT121" s="18"/>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
@@ -8574,29 +8713,29 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
-      <c r="O122" s="16"/>
+      <c r="O122" s="5"/>
       <c r="P122" s="16"/>
-      <c r="Q122" s="13"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="9"/>
       <c r="U122" s="16"/>
-      <c r="V122" s="3"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="6"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="16"/>
-      <c r="AA122" s="18"/>
+      <c r="V122" s="16"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="21"/>
+      <c r="AA122" s="16"/>
       <c r="AB122" s="18"/>
       <c r="AC122" s="18"/>
       <c r="AD122" s="18"/>
       <c r="AE122" s="18"/>
-      <c r="AF122" s="19"/>
-      <c r="AG122" s="4"/>
+      <c r="AF122" s="18"/>
+      <c r="AG122" s="19"/>
       <c r="AH122" s="4"/>
-      <c r="AI122" s="16"/>
+      <c r="AI122" s="4"/>
       <c r="AJ122" s="16"/>
-      <c r="AK122" s="18"/>
+      <c r="AK122" s="16"/>
       <c r="AL122" s="18"/>
       <c r="AM122" s="18"/>
       <c r="AN122" s="18"/>
@@ -8605,15 +8744,16 @@
       <c r="AQ122" s="18"/>
       <c r="AR122" s="18"/>
       <c r="AS122" s="18"/>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="Q123" s="13"/>
-      <c r="S123" s="9"/>
-      <c r="V123" s="3"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="6"/>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT122" s="18"/>
+    </row>
+    <row r="123" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="R123" s="13"/>
+      <c r="T123" s="9"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="9"/>
+      <c r="Y123" s="6"/>
+    </row>
+    <row r="124" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="17"/>
@@ -8628,29 +8768,29 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
-      <c r="O124" s="16"/>
+      <c r="O124" s="5"/>
       <c r="P124" s="16"/>
-      <c r="Q124" s="13"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="9"/>
       <c r="U124" s="16"/>
-      <c r="V124" s="3"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="6"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="16"/>
-      <c r="AA124" s="18"/>
+      <c r="V124" s="16"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="16"/>
       <c r="AB124" s="18"/>
       <c r="AC124" s="18"/>
       <c r="AD124" s="18"/>
       <c r="AE124" s="18"/>
-      <c r="AF124" s="19"/>
-      <c r="AG124" s="4"/>
+      <c r="AF124" s="18"/>
+      <c r="AG124" s="19"/>
       <c r="AH124" s="4"/>
-      <c r="AI124" s="16"/>
+      <c r="AI124" s="4"/>
       <c r="AJ124" s="16"/>
-      <c r="AK124" s="18"/>
+      <c r="AK124" s="16"/>
       <c r="AL124" s="18"/>
       <c r="AM124" s="18"/>
       <c r="AN124" s="18"/>
@@ -8659,8 +8799,9 @@
       <c r="AQ124" s="18"/>
       <c r="AR124" s="18"/>
       <c r="AS124" s="18"/>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT124" s="18"/>
+    </row>
+    <row r="125" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
@@ -8675,29 +8816,29 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
-      <c r="O125" s="16"/>
+      <c r="O125" s="5"/>
       <c r="P125" s="16"/>
-      <c r="Q125" s="13"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="13"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="9"/>
       <c r="U125" s="16"/>
-      <c r="V125" s="3"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="6"/>
-      <c r="Y125" s="21"/>
-      <c r="Z125" s="16"/>
-      <c r="AA125" s="18"/>
+      <c r="V125" s="16"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="16"/>
       <c r="AB125" s="18"/>
       <c r="AC125" s="18"/>
       <c r="AD125" s="18"/>
       <c r="AE125" s="18"/>
-      <c r="AF125" s="19"/>
-      <c r="AG125" s="4"/>
+      <c r="AF125" s="18"/>
+      <c r="AG125" s="19"/>
       <c r="AH125" s="4"/>
-      <c r="AI125" s="16"/>
+      <c r="AI125" s="4"/>
       <c r="AJ125" s="16"/>
-      <c r="AK125" s="18"/>
+      <c r="AK125" s="16"/>
       <c r="AL125" s="18"/>
       <c r="AM125" s="18"/>
       <c r="AN125" s="18"/>
@@ -8706,8 +8847,9 @@
       <c r="AQ125" s="18"/>
       <c r="AR125" s="18"/>
       <c r="AS125" s="18"/>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT125" s="18"/>
+    </row>
+    <row r="126" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="17"/>
@@ -8722,29 +8864,29 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="16"/>
+      <c r="O126" s="5"/>
       <c r="P126" s="16"/>
-      <c r="Q126" s="13"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="9"/>
       <c r="U126" s="16"/>
-      <c r="V126" s="3"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="6"/>
-      <c r="Y126" s="21"/>
-      <c r="Z126" s="16"/>
-      <c r="AA126" s="18"/>
+      <c r="V126" s="16"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="6"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="16"/>
       <c r="AB126" s="18"/>
       <c r="AC126" s="18"/>
       <c r="AD126" s="18"/>
       <c r="AE126" s="18"/>
-      <c r="AF126" s="19"/>
-      <c r="AG126" s="4"/>
+      <c r="AF126" s="18"/>
+      <c r="AG126" s="19"/>
       <c r="AH126" s="4"/>
-      <c r="AI126" s="16"/>
+      <c r="AI126" s="4"/>
       <c r="AJ126" s="16"/>
-      <c r="AK126" s="18"/>
+      <c r="AK126" s="16"/>
       <c r="AL126" s="18"/>
       <c r="AM126" s="18"/>
       <c r="AN126" s="18"/>
@@ -8753,8 +8895,9 @@
       <c r="AQ126" s="18"/>
       <c r="AR126" s="18"/>
       <c r="AS126" s="18"/>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT126" s="18"/>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="17"/>
@@ -8769,29 +8912,29 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
-      <c r="O127" s="16"/>
+      <c r="O127" s="5"/>
       <c r="P127" s="16"/>
-      <c r="Q127" s="13"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="9"/>
       <c r="U127" s="16"/>
-      <c r="V127" s="3"/>
-      <c r="W127" s="9"/>
-      <c r="X127" s="6"/>
-      <c r="Y127" s="21"/>
-      <c r="Z127" s="16"/>
-      <c r="AA127" s="18"/>
+      <c r="V127" s="16"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="6"/>
+      <c r="Z127" s="21"/>
+      <c r="AA127" s="16"/>
       <c r="AB127" s="18"/>
       <c r="AC127" s="18"/>
       <c r="AD127" s="18"/>
       <c r="AE127" s="18"/>
-      <c r="AF127" s="19"/>
-      <c r="AG127" s="4"/>
+      <c r="AF127" s="18"/>
+      <c r="AG127" s="19"/>
       <c r="AH127" s="4"/>
-      <c r="AI127" s="16"/>
+      <c r="AI127" s="4"/>
       <c r="AJ127" s="16"/>
-      <c r="AK127" s="18"/>
+      <c r="AK127" s="16"/>
       <c r="AL127" s="18"/>
       <c r="AM127" s="18"/>
       <c r="AN127" s="18"/>
@@ -8800,8 +8943,9 @@
       <c r="AQ127" s="18"/>
       <c r="AR127" s="18"/>
       <c r="AS127" s="18"/>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT127" s="18"/>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
@@ -8816,29 +8960,29 @@
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
-      <c r="O128" s="16"/>
+      <c r="O128" s="5"/>
       <c r="P128" s="16"/>
-      <c r="Q128" s="13"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="9"/>
-      <c r="T128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="13"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="9"/>
       <c r="U128" s="16"/>
-      <c r="V128" s="3"/>
-      <c r="W128" s="9"/>
-      <c r="X128" s="6"/>
-      <c r="Y128" s="21"/>
-      <c r="Z128" s="16"/>
-      <c r="AA128" s="18"/>
+      <c r="V128" s="16"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="21"/>
+      <c r="AA128" s="16"/>
       <c r="AB128" s="18"/>
       <c r="AC128" s="18"/>
       <c r="AD128" s="18"/>
       <c r="AE128" s="18"/>
-      <c r="AF128" s="19"/>
-      <c r="AG128" s="4"/>
+      <c r="AF128" s="18"/>
+      <c r="AG128" s="19"/>
       <c r="AH128" s="4"/>
-      <c r="AI128" s="16"/>
+      <c r="AI128" s="4"/>
       <c r="AJ128" s="16"/>
-      <c r="AK128" s="18"/>
+      <c r="AK128" s="16"/>
       <c r="AL128" s="18"/>
       <c r="AM128" s="18"/>
       <c r="AN128" s="18"/>
@@ -8847,8 +8991,9 @@
       <c r="AQ128" s="18"/>
       <c r="AR128" s="18"/>
       <c r="AS128" s="18"/>
-    </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT128" s="18"/>
+    </row>
+    <row r="129" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="17"/>
@@ -8863,29 +9008,29 @@
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
-      <c r="O129" s="16"/>
+      <c r="O129" s="5"/>
       <c r="P129" s="16"/>
-      <c r="Q129" s="13"/>
-      <c r="R129" s="16"/>
-      <c r="S129" s="9"/>
-      <c r="T129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="13"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="9"/>
       <c r="U129" s="16"/>
-      <c r="V129" s="3"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="6"/>
-      <c r="Y129" s="21"/>
-      <c r="Z129" s="16"/>
-      <c r="AA129" s="18"/>
+      <c r="V129" s="16"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="21"/>
+      <c r="AA129" s="16"/>
       <c r="AB129" s="18"/>
       <c r="AC129" s="18"/>
       <c r="AD129" s="18"/>
       <c r="AE129" s="18"/>
-      <c r="AF129" s="19"/>
-      <c r="AG129" s="4"/>
+      <c r="AF129" s="18"/>
+      <c r="AG129" s="19"/>
       <c r="AH129" s="4"/>
-      <c r="AI129" s="16"/>
+      <c r="AI129" s="4"/>
       <c r="AJ129" s="16"/>
-      <c r="AK129" s="18"/>
+      <c r="AK129" s="16"/>
       <c r="AL129" s="18"/>
       <c r="AM129" s="18"/>
       <c r="AN129" s="18"/>
@@ -8894,6 +9039,7 @@
       <c r="AQ129" s="18"/>
       <c r="AR129" s="18"/>
       <c r="AS129" s="18"/>
+      <c r="AT129" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8906,20 +9052,18 @@
     <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
-    <hyperlink ref="E6" r:id="rId12" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
-    <hyperlink ref="E13" r:id="rId13" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{8089BE4C-FA52-4A51-95D6-A1D169EB5A47}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{1D0F9F84-A9B0-40C1-B527-C53040165396}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{09EFFE25-BA30-48DE-9EBB-4C6A8EE8CA10}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{EA346531-FB8E-45D0-A22D-D78216ED22FE}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{1FA41424-FD89-4BD1-9182-195F4D615623}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
+    <hyperlink ref="E22" r:id="rId13" xr:uid="{1D0F9F84-A9B0-40C1-B527-C53040165396}"/>
+    <hyperlink ref="E23" r:id="rId14" xr:uid="{09EFFE25-BA30-48DE-9EBB-4C6A8EE8CA10}"/>
+    <hyperlink ref="E25" r:id="rId15" xr:uid="{1FA41424-FD89-4BD1-9182-195F4D615623}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{3583DEB2-C475-4FF3-9F86-A892C25C0BA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109BA5D-8965-47EB-8DD1-4D3E3F41F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6838AD4-6562-45B6-9A93-741AC96289A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_booking" sheetId="1" r:id="rId1"/>
     <sheet name="stu" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -472,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{F667391D-8EE7-449D-9EE0-AA6587D13110}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{5BA52D29-5C68-40C5-BAF5-885F8E640E8C}">
       <text>
         <r>
           <rPr>
@@ -498,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{18B7F140-84BC-48C6-A256-CE14DA8D71D9}">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{E93961A6-7FAC-4058-A683-24C5F0379999}">
       <text>
         <r>
           <rPr>
@@ -524,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{E93961A6-7FAC-4058-A683-24C5F0379999}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{4C31B62D-BBF2-4747-A5DC-D4BE9BD5A406}">
       <text>
         <r>
           <rPr>
@@ -550,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{41CF2A56-2D21-4C5B-B9FA-D9F109CE4B56}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{D00C69AE-D334-41BC-8EA2-3C968D7428F5}">
       <text>
         <r>
           <rPr>
@@ -576,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{9F6F3F78-FFD7-46FD-A302-C8DCE493770A}">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{1E0092EC-093B-445F-9F99-3FFB26190922}">
       <text>
         <r>
           <rPr>
@@ -602,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{FA5B55D7-7A94-47C4-8C74-0D27EB4E7F52}">
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{EFC411D0-52DF-4E4A-A913-4F09337F86B3}">
       <text>
         <r>
           <rPr>
@@ -628,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{47F26D5E-1F16-476F-BBC5-5C9FC9D72129}">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{5ADF4AB7-AE2C-40C9-9361-57473C15D1D8}">
       <text>
         <r>
           <rPr>
@@ -654,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{060D982C-C8CD-4E16-B6AB-3E9098BDEAA0}">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{ABAF2D3D-3E2B-4AA5-927F-1B9D1627E838}">
       <text>
         <r>
           <rPr>
@@ -680,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{590D58E2-5D2C-4C2E-87DA-BE8A515A3499}">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{EE6968F7-0B21-4422-BD9E-0371E9BF4ACC}">
       <text>
         <r>
           <rPr>
@@ -706,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{275CE646-3637-4684-82DB-27851BEDF5FF}">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{6881B2EC-FBBD-4D12-803E-C12894286824}">
       <text>
         <r>
           <rPr>
@@ -732,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{6881B2EC-FBBD-4D12-803E-C12894286824}">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{CED24C5F-1D5F-4E3F-9C2C-C885FBE3D7B6}">
       <text>
         <r>
           <rPr>
@@ -758,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{CED24C5F-1D5F-4E3F-9C2C-C885FBE3D7B6}">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{9E848D41-B6D0-4582-9E8D-E76C04D3A94A}">
       <text>
         <r>
           <rPr>
@@ -784,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{9E848D41-B6D0-4582-9E8D-E76C04D3A94A}">
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{2C005905-5C4E-422E-9C1A-79EAB5D1F24F}">
       <text>
         <r>
           <rPr>
@@ -810,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{2C005905-5C4E-422E-9C1A-79EAB5D1F24F}">
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{B27D97AA-E72F-44D6-B241-BB6D0A678172}">
       <text>
         <r>
           <rPr>
@@ -836,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{B27D97AA-E72F-44D6-B241-BB6D0A678172}">
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{B0342C6F-2C7A-4A60-824C-75EEE424C84F}">
       <text>
         <r>
           <rPr>
@@ -862,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{B0342C6F-2C7A-4A60-824C-75EEE424C84F}">
+    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{905EB510-43DA-41F5-81B3-0F4250C0F004}">
       <text>
         <r>
           <rPr>
@@ -888,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{905EB510-43DA-41F5-81B3-0F4250C0F004}">
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{B366351E-041F-4FB4-A3E1-ACB2E060B2F0}">
       <text>
         <r>
           <rPr>
@@ -914,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{B366351E-041F-4FB4-A3E1-ACB2E060B2F0}">
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{9E96B554-C880-4279-8B2C-23FA682F5739}">
       <text>
         <r>
           <rPr>
@@ -940,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{9E96B554-C880-4279-8B2C-23FA682F5739}">
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{1C3E2FA7-BB19-479C-B8E7-F6F1B42DEE17}">
       <text>
         <r>
           <rPr>
@@ -966,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{1C3E2FA7-BB19-479C-B8E7-F6F1B42DEE17}">
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{32594EBF-9EEE-4081-80C3-C8BE8233ACE8}">
       <text>
         <r>
           <rPr>
@@ -992,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J41" authorId="0" shapeId="0" xr:uid="{32594EBF-9EEE-4081-80C3-C8BE8233ACE8}">
+    <comment ref="J41" authorId="0" shapeId="0" xr:uid="{31201D85-5357-4220-B0A5-90BB5598F18F}">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{31201D85-5357-4220-B0A5-90BB5598F18F}">
+    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{745F30EC-AF71-4C46-B628-1522C2ED4D0B}">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{745F30EC-AF71-4C46-B628-1522C2ED4D0B}">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{F4D52E81-D215-4C2F-9A03-702BE23AA71D}">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{F4D52E81-D215-4C2F-9A03-702BE23AA71D}">
+    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{B9D3D3C7-DB56-4177-B6E6-0C6569B36840}">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J45" authorId="0" shapeId="0" xr:uid="{B9D3D3C7-DB56-4177-B6E6-0C6569B36840}">
+    <comment ref="J45" authorId="0" shapeId="0" xr:uid="{0A9FA41A-D056-4825-827A-9777058C0401}">
       <text>
         <r>
           <rPr>
@@ -1122,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{0A9FA41A-D056-4825-827A-9777058C0401}">
+    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{4A422988-7DB3-42EA-AD4F-49833B605BB7}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{4A422988-7DB3-42EA-AD4F-49833B605BB7}">
+    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{9CA2CFD2-5AB3-4533-A140-DED47E16EBEF}">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{9CA2CFD2-5AB3-4533-A140-DED47E16EBEF}">
+    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{32CF9599-75D4-41B2-B71D-6D72192B9E25}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{32CF9599-75D4-41B2-B71D-6D72192B9E25}">
+    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{950543CB-80F3-4BF7-99C2-15DBF7A2C0A4}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{950543CB-80F3-4BF7-99C2-15DBF7A2C0A4}">
+    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{59513D08-D7EC-49DE-B675-98CDCF033316}">
       <text>
         <r>
           <rPr>
@@ -1252,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="0" shapeId="0" xr:uid="{59513D08-D7EC-49DE-B675-98CDCF033316}">
+    <comment ref="J51" authorId="0" shapeId="0" xr:uid="{C154CED4-FADB-4753-A341-8B1E36C01EF6}">
       <text>
         <r>
           <rPr>
@@ -1278,7 +1269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{C154CED4-FADB-4753-A341-8B1E36C01EF6}">
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{5CCE012D-9DBF-4BB7-B9E8-EA9C20BB9B32}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{5CCE012D-9DBF-4BB7-B9E8-EA9C20BB9B32}">
+    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{537DC13E-0EFD-44AD-B350-20E8ECA8126F}">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{537DC13E-0EFD-44AD-B350-20E8ECA8126F}">
+    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{AD393F18-1D93-4B93-B18E-6F495E8CAD3B}">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J55" authorId="0" shapeId="0" xr:uid="{AD393F18-1D93-4B93-B18E-6F495E8CAD3B}">
+    <comment ref="J55" authorId="0" shapeId="0" xr:uid="{B6E987FB-C5E9-42E9-98AB-D31C7E9D8D7E}">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J56" authorId="0" shapeId="0" xr:uid="{B6E987FB-C5E9-42E9-98AB-D31C7E9D8D7E}">
+    <comment ref="J56" authorId="0" shapeId="0" xr:uid="{74D6E9EA-F697-48CA-AF67-836605BD1680}">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J57" authorId="0" shapeId="0" xr:uid="{74D6E9EA-F697-48CA-AF67-836605BD1680}">
+    <comment ref="J57" authorId="0" shapeId="0" xr:uid="{3E1EBFD1-00EE-45F5-8009-FB6CD912F00C}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J58" authorId="0" shapeId="0" xr:uid="{3E1EBFD1-00EE-45F5-8009-FB6CD912F00C}">
+    <comment ref="J58" authorId="0" shapeId="0" xr:uid="{C8B290E9-A011-4AA8-9ED1-19D4A76801C7}">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J59" authorId="0" shapeId="0" xr:uid="{C8B290E9-A011-4AA8-9ED1-19D4A76801C7}">
+    <comment ref="J59" authorId="0" shapeId="0" xr:uid="{2EDBE0C8-E556-478F-8213-72CB53B07615}">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J60" authorId="0" shapeId="0" xr:uid="{2EDBE0C8-E556-478F-8213-72CB53B07615}">
+    <comment ref="J60" authorId="0" shapeId="0" xr:uid="{418AB2AD-93E7-49C1-97D8-66BD09790E9D}">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="0" shapeId="0" xr:uid="{418AB2AD-93E7-49C1-97D8-66BD09790E9D}">
+    <comment ref="J61" authorId="0" shapeId="0" xr:uid="{04269282-C1CC-48BF-8EC8-45FCB82781EC}">
       <text>
         <r>
           <rPr>
@@ -1538,7 +1529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J62" authorId="0" shapeId="0" xr:uid="{04269282-C1CC-48BF-8EC8-45FCB82781EC}">
+    <comment ref="J62" authorId="0" shapeId="0" xr:uid="{EBD61D5E-EA67-4883-9324-99C607E07B9B}">
       <text>
         <r>
           <rPr>
@@ -1564,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J63" authorId="0" shapeId="0" xr:uid="{EBD61D5E-EA67-4883-9324-99C607E07B9B}">
+    <comment ref="J63" authorId="0" shapeId="0" xr:uid="{94732F4E-6831-499A-ABC2-BA4D4D2DEED8}">
       <text>
         <r>
           <rPr>
@@ -1590,33 +1581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J64" authorId="0" shapeId="0" xr:uid="{94732F4E-6831-499A-ABC2-BA4D4D2DEED8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0 - Session
-1 - Subscription
-2 - Monthly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J65" authorId="0" shapeId="0" xr:uid="{B6139FF7-8288-4883-8CB2-3FB498486573}">
+    <comment ref="J64" authorId="0" shapeId="0" xr:uid="{B6139FF7-8288-4883-8CB2-3FB498486573}">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="131">
   <si>
     <t>password</t>
   </si>
@@ -1994,34 +1959,52 @@
     <t>srinivas.e@netkathir.com</t>
   </si>
   <si>
-    <t>mgs</t>
-  </si>
-  <si>
-    <t>gms-academy/paint-var-1</t>
-  </si>
-  <si>
-    <t>gms-academy/paint-fix-1</t>
-  </si>
-  <si>
-    <t>gms-academy/paint-var-1-ind</t>
-  </si>
-  <si>
-    <t>gms-academy/paint-sess-4</t>
-  </si>
-  <si>
     <t>individual</t>
   </si>
   <si>
-    <t>gmz</t>
-  </si>
-  <si>
-    <t>mnc/clarinet-session-4-multi</t>
-  </si>
-  <si>
     <t>JFY4553DFF</t>
   </si>
   <si>
+    <t>se21</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>kyle-pew/pilot-sess-1</t>
+  </si>
+  <si>
+    <t>tammi.schiavi@hotmail.com</t>
+  </si>
+  <si>
+    <t>vphay@phay.com.au</t>
+  </si>
+  <si>
+    <t>emeline@gmail.com</t>
+  </si>
+  <si>
+    <t>marcos_seniff@gmail.com</t>
+  </si>
+  <si>
+    <t>ycarabajal@carabajal.com.au</t>
+  </si>
+  <si>
+    <t>jaya/3</t>
+  </si>
+  <si>
+    <t>kyle-pew/pilot-mf-6</t>
+  </si>
+  <si>
+    <t>kyle-pew/pilot-sess-6</t>
+  </si>
+  <si>
+    <t>ycs-acadamy/java-test-12</t>
+  </si>
+  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>XKAXP5BH</t>
   </si>
 </sst>
 </file>
@@ -2514,11 +2497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT129"/>
+  <dimension ref="A1:AT128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,7 +2579,7 @@
         <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>78</v>
@@ -3889,7 +3872,7 @@
         <v>0.01</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" ref="W12:W20" si="26">R12*V12</f>
+        <f t="shared" ref="W12:W21" si="26">R12*V12</f>
         <v>0.2</v>
       </c>
       <c r="X12" s="9">
@@ -4764,13 +4747,13 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -4779,17 +4762,17 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
         <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>2</v>
       </c>
       <c r="P20" s="3">
         <v>4</v>
@@ -4800,7 +4783,7 @@
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20" si="29">(((O20+1)*Q20)*I20)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="9">
@@ -4815,15 +4798,15 @@
       </c>
       <c r="W20" s="3">
         <f t="shared" si="26"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="X20" s="9">
         <f t="shared" si="27"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="28"/>
-        <v>15.15</v>
+        <v>10.1</v>
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="3" t="s">
@@ -4834,19 +4817,19 @@
       </c>
       <c r="AC20">
         <f t="shared" ref="AC20" si="30">SUM(V20*AD20)</f>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AD20" s="7">
         <f t="shared" ref="AD20" si="31">SUM(R20-AB20)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" ref="AE20" si="32">SUM(V20*AD20)</f>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" ref="AF20" si="33">SUM(AC20+AD20)</f>
-        <v>13.13</v>
+        <v>8.08</v>
       </c>
       <c r="AG20" s="4" t="s">
         <v>18</v>
@@ -4881,29 +4864,29 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -4912,16 +4895,16 @@
         <v>4</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" ref="Q21" si="34">P21+T21</f>
+        <f t="shared" ref="Q21:Q22" si="34">P21+T21</f>
         <v>5</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21" si="35">(((O21+1)*Q21)*I21)</f>
-        <v>20</v>
+        <f t="shared" ref="R21:R22" si="35">(((O21+1)*Q21)*I21)</f>
+        <v>5</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="9">
-        <f t="shared" ref="T21" si="36">P21*U21</f>
+        <f t="shared" ref="T21:T22" si="36">P21*U21</f>
         <v>1</v>
       </c>
       <c r="U21" s="3">
@@ -4931,39 +4914,39 @@
         <v>0.01</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" ref="W21" si="37">R21*V21</f>
-        <v>0.2</v>
+        <f t="shared" si="26"/>
+        <v>0.05</v>
       </c>
       <c r="X21" s="9">
-        <f t="shared" ref="X21" si="38">V21*R21</f>
-        <v>0.2</v>
+        <f t="shared" ref="X21:X22" si="37">V21*R21</f>
+        <v>0.05</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" ref="Y21" si="39">R21+X21</f>
-        <v>20.2</v>
+        <f t="shared" ref="Y21:Y22" si="38">R21+X21</f>
+        <v>5.05</v>
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="3" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="AC21">
-        <f t="shared" ref="AC21" si="40">SUM(V21*AD21)</f>
-        <v>0.18</v>
+        <f t="shared" ref="AC21:AC22" si="39">SUM(V21*AD21)</f>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="AD21" s="7">
-        <f t="shared" ref="AD21" si="41">SUM(R21-AB21)</f>
-        <v>18</v>
+        <f t="shared" ref="AD21:AD22" si="40">SUM(R21-AB21)</f>
+        <v>4.95</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" ref="AE21" si="42">SUM(V21*AD21)</f>
-        <v>0.18</v>
+        <f t="shared" ref="AE21:AE22" si="41">SUM(V21*AD21)</f>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="AF21" s="7">
-        <f t="shared" ref="AF21" si="43">SUM(AC21+AD21)</f>
-        <v>18.18</v>
+        <f t="shared" ref="AF21:AF22" si="42">SUM(AC21+AD21)</f>
+        <v>4.9995000000000003</v>
       </c>
       <c r="AG21" s="4" t="s">
         <v>18</v>
@@ -4998,13 +4981,13 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -5012,13 +4995,15 @@
       <c r="J22" s="5">
         <v>2</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>72</v>
+      <c r="K22" t="s">
+        <v>109</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
       <c r="N22" s="5">
         <v>1</v>
       </c>
@@ -5026,20 +5011,20 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" ref="Q22:Q25" si="44">P22+T22</f>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:R25" si="45">(((O22+1)*Q22)*I22)</f>
-        <v>5</v>
+        <f t="shared" si="35"/>
+        <v>3</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:T25" si="46">P22*U22</f>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.6</v>
       </c>
       <c r="U22" s="3">
         <v>0.25</v>
@@ -5048,39 +5033,39 @@
         <v>0.01</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" ref="W22:W25" si="47">R22*V22</f>
-        <v>0.05</v>
+        <f t="shared" ref="W21:W23" si="43">R22*V22</f>
+        <v>0.03</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" ref="X22:X25" si="48">V22*R22</f>
-        <v>0.05</v>
+        <f t="shared" si="37"/>
+        <v>0.03</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" ref="Y22:Y25" si="49">R22+X22</f>
-        <v>5.05</v>
+        <f t="shared" si="38"/>
+        <v>3.03</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="39"/>
+        <v>0.02</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="AC22">
-        <f t="shared" ref="AC22:AC25" si="50">SUM(V22*AD22)</f>
-        <v>0.03</v>
-      </c>
-      <c r="AD22" s="7">
-        <f t="shared" ref="AD22:AD25" si="51">SUM(R22-AB22)</f>
-        <v>3</v>
-      </c>
       <c r="AE22" s="7">
-        <f t="shared" ref="AE22:AE25" si="52">SUM(V22*AD22)</f>
-        <v>0.03</v>
+        <f t="shared" si="41"/>
+        <v>0.02</v>
       </c>
       <c r="AF22" s="7">
-        <f t="shared" ref="AF22:AF25" si="53">SUM(AC22+AD22)</f>
-        <v>3.03</v>
+        <f t="shared" si="42"/>
+        <v>2.02</v>
       </c>
       <c r="AG22" s="4" t="s">
         <v>18</v>
@@ -5109,7 +5094,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
@@ -5118,10 +5103,10 @@
         <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -5130,34 +5115,32 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
       </c>
-      <c r="M23" s="5">
-        <v>1</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>4</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="Q23" si="44">P23+T23</f>
         <v>5</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="45"/>
-        <v>10</v>
+        <f t="shared" ref="R23" si="45">(((O23+1)*Q23)*I23)</f>
+        <v>5</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="T23" si="46">P23*U23</f>
         <v>1</v>
       </c>
       <c r="U23" s="3">
@@ -5167,41 +5150,41 @@
         <v>0.01</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
+        <f t="shared" si="43"/>
+        <v>0.05</v>
       </c>
       <c r="X23" s="9">
-        <f t="shared" si="48"/>
-        <v>0.1</v>
+        <f t="shared" ref="X23" si="47">V23*R23</f>
+        <v>0.05</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="49"/>
-        <v>10.1</v>
+        <f t="shared" ref="Y23" si="48">R23+X23</f>
+        <v>5.05</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="50"/>
-        <v>0.09</v>
+        <f t="shared" ref="AC23" si="49">SUM(V23*AD23)</f>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" si="51"/>
-        <v>9</v>
+        <f t="shared" ref="AD23" si="50">SUM(R23-AB23)</f>
+        <v>4.95</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="52"/>
-        <v>0.09</v>
+        <f t="shared" ref="AE23" si="51">SUM(V23*AD23)</f>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="AF23" s="7">
-        <f t="shared" si="53"/>
-        <v>9.09</v>
+        <f t="shared" ref="AF23" si="52">SUM(AC23+AD23)</f>
+        <v>4.9995000000000003</v>
       </c>
       <c r="AG23" s="4" t="s">
         <v>18</v>
@@ -5230,19 +5213,19 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -5251,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
@@ -5263,22 +5246,22 @@
         <v>1</v>
       </c>
       <c r="O24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>4</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" ref="Q24" si="54">P24+T24</f>
+        <f t="shared" ref="Q24:Q28" si="53">P24+T24</f>
         <v>5</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ref="R24" si="55">(((O24+1)*Q24)*I24)</f>
-        <v>10</v>
+        <f t="shared" ref="R24:R28" si="54">(((O24+1)*Q24)*I24)</f>
+        <v>5</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="9">
-        <f t="shared" ref="T24" si="56">P24*U24</f>
+        <f t="shared" ref="T24:T28" si="55">P24*U24</f>
         <v>1</v>
       </c>
       <c r="U24" s="3">
@@ -5288,41 +5271,39 @@
         <v>0.01</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" ref="W24" si="57">R24*V24</f>
-        <v>0.1</v>
+        <f t="shared" ref="W24:W28" si="56">R24*V24</f>
+        <v>0.05</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" ref="X24" si="58">V24*R24</f>
-        <v>0.1</v>
+        <f t="shared" ref="X24:X28" si="57">V24*R24</f>
+        <v>0.05</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" ref="Y24" si="59">R24+X24</f>
-        <v>10.1</v>
-      </c>
-      <c r="Z24" s="15" t="s">
-        <v>124</v>
-      </c>
+        <f t="shared" ref="Y24:Y28" si="58">R24+X24</f>
+        <v>5.05</v>
+      </c>
+      <c r="Z24" s="15"/>
       <c r="AA24" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
       <c r="AC24">
-        <f t="shared" ref="AC24" si="60">SUM(V24*AD24)</f>
-        <v>0.09</v>
+        <f t="shared" ref="AC24:AC28" si="59">SUM(V24*AD24)</f>
+        <v>0.04</v>
       </c>
       <c r="AD24" s="7">
-        <f t="shared" ref="AD24" si="61">SUM(R24-AB24)</f>
-        <v>9</v>
+        <f t="shared" ref="AD24:AD28" si="60">SUM(R24-AB24)</f>
+        <v>4</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" ref="AE24" si="62">SUM(V24*AD24)</f>
-        <v>0.09</v>
+        <f t="shared" ref="AE24:AE28" si="61">SUM(V24*AD24)</f>
+        <v>0.04</v>
       </c>
       <c r="AF24" s="7">
-        <f t="shared" ref="AF24" si="63">SUM(AC24+AD24)</f>
-        <v>9.09</v>
+        <f t="shared" ref="AF24:AF28" si="62">SUM(AC24+AD24)</f>
+        <v>4.04</v>
       </c>
       <c r="AG24" s="4" t="s">
         <v>18</v>
@@ -5351,33 +5332,35 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I25" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>2</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>109</v>
       </c>
       <c r="L25" s="5">
         <v>0</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
       <c r="N25" s="5">
         <v>1</v>
       </c>
@@ -5388,16 +5371,16 @@
         <v>4</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="45"/>
-        <v>20</v>
+        <f t="shared" si="54"/>
+        <v>5</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="U25" s="3">
@@ -5407,39 +5390,39 @@
         <v>0.01</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="47"/>
-        <v>0.2</v>
+        <f t="shared" si="56"/>
+        <v>0.05</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="48"/>
-        <v>0.2</v>
+        <f t="shared" si="57"/>
+        <v>0.05</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="49"/>
-        <v>20.2</v>
+        <f t="shared" si="58"/>
+        <v>5.05</v>
       </c>
       <c r="Z25" s="15"/>
-      <c r="AA25" s="3" t="s">
-        <v>57</v>
+      <c r="AA25" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="50"/>
-        <v>0.18</v>
+        <f t="shared" si="59"/>
+        <v>0.04</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" si="51"/>
-        <v>18</v>
+        <f t="shared" si="60"/>
+        <v>4</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="52"/>
-        <v>0.18</v>
+        <f t="shared" si="61"/>
+        <v>0.04</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" si="53"/>
-        <v>18.18</v>
+        <f t="shared" si="62"/>
+        <v>4.04</v>
       </c>
       <c r="AG25" s="4" t="s">
         <v>18</v>
@@ -5457,137 +5440,481 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="11"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="6"/>
+    <row r="26" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
       <c r="S26" s="6"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="6"/>
+      <c r="T26" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="56"/>
+        <v>0.05</v>
+      </c>
+      <c r="X26" s="9">
+        <f t="shared" si="57"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="58"/>
+        <v>5.05</v>
+      </c>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="3"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="C27" s="8"/>
-      <c r="E27" s="11"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="6"/>
+      <c r="AA26" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="59"/>
+        <v>0.04</v>
+      </c>
+      <c r="AD26" s="7">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="AE26" s="7">
+        <f t="shared" si="61"/>
+        <v>0.04</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" si="62"/>
+        <v>4.04</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>14</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
       <c r="S27" s="6"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="6"/>
+      <c r="T27" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="56"/>
+        <v>0.05</v>
+      </c>
+      <c r="X27" s="9">
+        <f t="shared" si="57"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="58"/>
+        <v>5.05</v>
+      </c>
       <c r="Z27" s="15"/>
-      <c r="AA27" s="3"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="C28" s="8"/>
-      <c r="E28" s="11"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="6"/>
+      <c r="AA27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="59"/>
+        <v>0.04</v>
+      </c>
+      <c r="AD27" s="7">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="AE27" s="7">
+        <f t="shared" si="61"/>
+        <v>0.04</v>
+      </c>
+      <c r="AF27" s="7">
+        <f t="shared" si="62"/>
+        <v>4.04</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>14</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
       <c r="S28" s="6"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="6"/>
+      <c r="T28" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="56"/>
+        <v>0.05</v>
+      </c>
+      <c r="X28" s="9">
+        <f t="shared" si="57"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" si="58"/>
+        <v>5.05</v>
+      </c>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="3"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="11"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="6"/>
+      <c r="AA28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="59"/>
+        <v>0.04</v>
+      </c>
+      <c r="AD28" s="7">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="AE28" s="7">
+        <f t="shared" si="61"/>
+        <v>0.04</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="62"/>
+        <v>4.04</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>14</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" ref="Q29" si="63">P29+T29</f>
+        <v>5</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" ref="R29" si="64">(((O29+1)*Q29)*I29)</f>
+        <v>5</v>
+      </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="6"/>
+      <c r="T29" s="9">
+        <f t="shared" ref="T29" si="65">P29*U29</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" ref="W29" si="66">R29*V29</f>
+        <v>0.05</v>
+      </c>
+      <c r="X29" s="9">
+        <f t="shared" ref="X29" si="67">V29*R29</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" ref="Y29" si="68">R29+X29</f>
+        <v>5.05</v>
+      </c>
       <c r="Z29" s="15"/>
-      <c r="AA29" s="3"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
+      <c r="AA29" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" ref="AC29" si="69">SUM(V29*AD29)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AD29" s="7">
+        <f t="shared" ref="AD29" si="70">SUM(R29-AB29)</f>
+        <v>4</v>
+      </c>
+      <c r="AE29" s="7">
+        <f t="shared" ref="AE29" si="71">SUM(V29*AD29)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AF29" s="7">
+        <f t="shared" ref="AF29" si="72">SUM(AC29+AD29)</f>
+        <v>4.04</v>
+      </c>
+      <c r="AG29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>14</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -5809,7 +6136,6 @@
       <c r="W36" s="3"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="15"/>
       <c r="AA36" s="3"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
@@ -5842,6 +6168,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="6"/>
+      <c r="Z37" s="15"/>
       <c r="AA37" s="3"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -6823,7 +7150,7 @@
       <c r="O67" s="5"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="6"/>
+      <c r="R67" s="13"/>
       <c r="S67" s="6"/>
       <c r="T67" s="9"/>
       <c r="U67" s="3"/>
@@ -6833,8 +7160,8 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="15"/>
       <c r="AA67" s="3"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="14"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
@@ -6910,6 +7237,7 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="8"/>
       <c r="E70" s="11"/>
       <c r="H70" s="3"/>
@@ -6943,7 +7271,6 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
       <c r="C71" s="8"/>
       <c r="E71" s="11"/>
       <c r="H71" s="3"/>
@@ -6977,6 +7304,7 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="8"/>
       <c r="E72" s="11"/>
       <c r="H72" s="3"/>
@@ -7044,10 +7372,11 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
       <c r="C74" s="8"/>
       <c r="E74" s="11"/>
-      <c r="H74" s="3"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="16"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -7055,7 +7384,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="3"/>
+      <c r="P74" s="16"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="13"/>
       <c r="S74" s="6"/>
@@ -7078,11 +7407,10 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="8"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="16"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -7090,7 +7418,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
-      <c r="P75" s="16"/>
+      <c r="P75" s="3"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="13"/>
       <c r="S75" s="6"/>
@@ -7240,6 +7568,7 @@
       <c r="AA79" s="3"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="14"/>
+      <c r="AE79" s="7"/>
       <c r="AF79" s="7"/>
       <c r="AG79" s="4"/>
       <c r="AH79" s="4"/>
@@ -7414,7 +7743,6 @@
       <c r="AA84" s="3"/>
       <c r="AC84" s="7"/>
       <c r="AD84" s="14"/>
-      <c r="AE84" s="7"/>
       <c r="AF84" s="7"/>
       <c r="AG84" s="4"/>
       <c r="AH84" s="4"/>
@@ -7506,7 +7834,7 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="13"/>
-      <c r="S87" s="6"/>
+      <c r="S87" s="9"/>
       <c r="T87" s="9"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
@@ -7540,7 +7868,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="9"/>
       <c r="R88" s="13"/>
-      <c r="S88" s="9"/>
+      <c r="S88" s="6"/>
       <c r="T88" s="9"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7642,7 +7970,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="13"/>
-      <c r="S91" s="6"/>
+      <c r="S91" s="9"/>
       <c r="T91" s="9"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
@@ -7676,7 +8004,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="9"/>
       <c r="R92" s="13"/>
-      <c r="S92" s="9"/>
+      <c r="S92" s="6"/>
       <c r="T92" s="9"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -7778,7 +8106,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="13"/>
-      <c r="S95" s="6"/>
+      <c r="S95" s="9"/>
       <c r="T95" s="9"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
@@ -7812,7 +8140,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="9"/>
       <c r="R96" s="13"/>
-      <c r="S96" s="9"/>
+      <c r="S96" s="6"/>
       <c r="T96" s="9"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -7889,8 +8217,6 @@
       <c r="Y98" s="6"/>
       <c r="Z98" s="15"/>
       <c r="AA98" s="3"/>
-      <c r="AC98" s="7"/>
-      <c r="AD98" s="14"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="4"/>
       <c r="AH98" s="4"/>
@@ -7914,7 +8240,7 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="9"/>
       <c r="R99" s="13"/>
-      <c r="S99" s="6"/>
+      <c r="S99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
@@ -7931,10 +8257,6 @@
       <c r="AK99" s="3"/>
     </row>
     <row r="100" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="8"/>
-      <c r="E100" s="11"/>
       <c r="H100" s="3"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -7946,7 +8268,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="9"/>
       <c r="R100" s="13"/>
-      <c r="S100" s="9"/>
+      <c r="S100" s="6"/>
       <c r="T100" s="9"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -8019,43 +8341,47 @@
       <c r="AK102" s="3"/>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="H103" s="3"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="9"/>
       <c r="R103" s="13"/>
-      <c r="S103" s="6"/>
       <c r="T103" s="9"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="6"/>
-      <c r="Z103" s="15"/>
-      <c r="AA103" s="3"/>
       <c r="AF103" s="7"/>
-      <c r="AG103" s="4"/>
-      <c r="AH103" s="4"/>
-      <c r="AI103" s="4"/>
-      <c r="AJ103" s="3"/>
-      <c r="AK103" s="3"/>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="C104" s="8"/>
+      <c r="E104" s="11"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="9"/>
       <c r="R104" s="13"/>
+      <c r="S104" s="6"/>
       <c r="T104" s="9"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
       <c r="W104" s="3"/>
       <c r="X104" s="9"/>
       <c r="Y104" s="6"/>
+      <c r="Z104" s="15"/>
+      <c r="AA104" s="3"/>
       <c r="AF104" s="7"/>
+      <c r="AG104" s="4"/>
+      <c r="AH104" s="4"/>
+      <c r="AI104" s="4"/>
+      <c r="AJ104" s="3"/>
+      <c r="AK104" s="3"/>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="8"/>
       <c r="E105" s="11"/>
       <c r="H105" s="3"/>
@@ -8118,36 +8444,11 @@
       <c r="AK106" s="3"/>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="8"/>
-      <c r="E107" s="11"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="9"/>
       <c r="R107" s="13"/>
-      <c r="S107" s="6"/>
       <c r="T107" s="9"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="6"/>
-      <c r="Z107" s="15"/>
-      <c r="AA107" s="3"/>
-      <c r="AF107" s="7"/>
-      <c r="AG107" s="4"/>
-      <c r="AH107" s="4"/>
-      <c r="AI107" s="4"/>
-      <c r="AJ107" s="3"/>
-      <c r="AK107" s="3"/>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.3">
       <c r="R108" s="13"/>
@@ -8157,11 +8458,52 @@
       <c r="Y108" s="6"/>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
       <c r="R109" s="13"/>
+      <c r="S109" s="16"/>
       <c r="T109" s="9"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
       <c r="W109" s="3"/>
       <c r="X109" s="9"/>
       <c r="Y109" s="6"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="18"/>
+      <c r="AC109" s="18"/>
+      <c r="AD109" s="18"/>
+      <c r="AE109" s="18"/>
+      <c r="AF109" s="18"/>
+      <c r="AG109" s="19"/>
+      <c r="AH109" s="4"/>
+      <c r="AI109" s="4"/>
+      <c r="AJ109" s="16"/>
+      <c r="AK109" s="16"/>
+      <c r="AL109" s="18"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="18"/>
+      <c r="AO109" s="18"/>
+      <c r="AP109" s="18"/>
+      <c r="AQ109" s="18"/>
+      <c r="AR109" s="18"/>
+      <c r="AS109" s="18"/>
+      <c r="AT109" s="18"/>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A110" s="16"/>
@@ -8215,7 +8557,7 @@
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
-      <c r="D111" s="18"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
@@ -8263,7 +8605,7 @@
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
-      <c r="D112" s="11"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="11"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -8404,59 +8746,59 @@
       <c r="AT114" s="18"/>
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
       <c r="R115" s="13"/>
-      <c r="S115" s="16"/>
       <c r="T115" s="9"/>
-      <c r="U115" s="16"/>
-      <c r="V115" s="16"/>
       <c r="W115" s="3"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="6"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="16"/>
-      <c r="AB115" s="18"/>
-      <c r="AC115" s="18"/>
-      <c r="AD115" s="18"/>
-      <c r="AE115" s="18"/>
-      <c r="AF115" s="18"/>
-      <c r="AG115" s="19"/>
-      <c r="AH115" s="4"/>
-      <c r="AI115" s="4"/>
-      <c r="AJ115" s="16"/>
-      <c r="AK115" s="16"/>
-      <c r="AL115" s="18"/>
-      <c r="AM115" s="18"/>
-      <c r="AN115" s="18"/>
-      <c r="AO115" s="18"/>
-      <c r="AP115" s="18"/>
-      <c r="AQ115" s="18"/>
-      <c r="AR115" s="18"/>
-      <c r="AS115" s="18"/>
-      <c r="AT115" s="18"/>
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
       <c r="R116" s="13"/>
+      <c r="S116" s="16"/>
       <c r="T116" s="9"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="16"/>
       <c r="W116" s="3"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="6"/>
+      <c r="Z116" s="21"/>
+      <c r="AA116" s="16"/>
+      <c r="AB116" s="18"/>
+      <c r="AC116" s="18"/>
+      <c r="AD116" s="18"/>
+      <c r="AE116" s="18"/>
+      <c r="AF116" s="18"/>
+      <c r="AG116" s="19"/>
+      <c r="AH116" s="4"/>
+      <c r="AI116" s="4"/>
+      <c r="AJ116" s="16"/>
+      <c r="AK116" s="16"/>
+      <c r="AL116" s="18"/>
+      <c r="AM116" s="18"/>
+      <c r="AN116" s="18"/>
+      <c r="AO116" s="18"/>
+      <c r="AP116" s="18"/>
+      <c r="AQ116" s="18"/>
+      <c r="AR116" s="18"/>
+      <c r="AS116" s="18"/>
+      <c r="AT116" s="18"/>
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A117" s="16"/>
@@ -8510,7 +8852,7 @@
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
-      <c r="D118" s="18"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
@@ -8558,7 +8900,7 @@
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
-      <c r="D119" s="11"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="11"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
@@ -8699,59 +9041,59 @@
       <c r="AT121" s="18"/>
     </row>
     <row r="122" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
       <c r="R122" s="13"/>
-      <c r="S122" s="16"/>
       <c r="T122" s="9"/>
-      <c r="U122" s="16"/>
-      <c r="V122" s="16"/>
       <c r="W122" s="3"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="6"/>
-      <c r="Z122" s="21"/>
-      <c r="AA122" s="16"/>
-      <c r="AB122" s="18"/>
-      <c r="AC122" s="18"/>
-      <c r="AD122" s="18"/>
-      <c r="AE122" s="18"/>
-      <c r="AF122" s="18"/>
-      <c r="AG122" s="19"/>
-      <c r="AH122" s="4"/>
-      <c r="AI122" s="4"/>
-      <c r="AJ122" s="16"/>
-      <c r="AK122" s="16"/>
-      <c r="AL122" s="18"/>
-      <c r="AM122" s="18"/>
-      <c r="AN122" s="18"/>
-      <c r="AO122" s="18"/>
-      <c r="AP122" s="18"/>
-      <c r="AQ122" s="18"/>
-      <c r="AR122" s="18"/>
-      <c r="AS122" s="18"/>
-      <c r="AT122" s="18"/>
     </row>
     <row r="123" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
       <c r="R123" s="13"/>
+      <c r="S123" s="16"/>
       <c r="T123" s="9"/>
+      <c r="U123" s="16"/>
+      <c r="V123" s="16"/>
       <c r="W123" s="3"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="6"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="16"/>
+      <c r="AB123" s="18"/>
+      <c r="AC123" s="18"/>
+      <c r="AD123" s="18"/>
+      <c r="AE123" s="18"/>
+      <c r="AF123" s="18"/>
+      <c r="AG123" s="19"/>
+      <c r="AH123" s="4"/>
+      <c r="AI123" s="4"/>
+      <c r="AJ123" s="16"/>
+      <c r="AK123" s="16"/>
+      <c r="AL123" s="18"/>
+      <c r="AM123" s="18"/>
+      <c r="AN123" s="18"/>
+      <c r="AO123" s="18"/>
+      <c r="AP123" s="18"/>
+      <c r="AQ123" s="18"/>
+      <c r="AR123" s="18"/>
+      <c r="AS123" s="18"/>
+      <c r="AT123" s="18"/>
     </row>
     <row r="124" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A124" s="16"/>
@@ -8805,7 +9147,7 @@
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
-      <c r="D125" s="18"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
@@ -8853,7 +9195,7 @@
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="17"/>
-      <c r="D126" s="11"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="11"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
@@ -8993,54 +9335,6 @@
       <c r="AS128" s="18"/>
       <c r="AT128" s="18"/>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="16"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="16"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="6"/>
-      <c r="Z129" s="21"/>
-      <c r="AA129" s="16"/>
-      <c r="AB129" s="18"/>
-      <c r="AC129" s="18"/>
-      <c r="AD129" s="18"/>
-      <c r="AE129" s="18"/>
-      <c r="AF129" s="18"/>
-      <c r="AG129" s="19"/>
-      <c r="AH129" s="4"/>
-      <c r="AI129" s="4"/>
-      <c r="AJ129" s="16"/>
-      <c r="AK129" s="16"/>
-      <c r="AL129" s="18"/>
-      <c r="AM129" s="18"/>
-      <c r="AN129" s="18"/>
-      <c r="AO129" s="18"/>
-      <c r="AP129" s="18"/>
-      <c r="AQ129" s="18"/>
-      <c r="AR129" s="18"/>
-      <c r="AS129" s="18"/>
-      <c r="AT129" s="18"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9056,14 +9350,19 @@
     <hyperlink ref="E7" r:id="rId10" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
     <hyperlink ref="E6" r:id="rId11" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
-    <hyperlink ref="E22" r:id="rId13" xr:uid="{1D0F9F84-A9B0-40C1-B527-C53040165396}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{09EFFE25-BA30-48DE-9EBB-4C6A8EE8CA10}"/>
-    <hyperlink ref="E25" r:id="rId15" xr:uid="{1FA41424-FD89-4BD1-9182-195F4D615623}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{3583DEB2-C475-4FF3-9F86-A892C25C0BA1}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{1D0F9F84-A9B0-40C1-B527-C53040165396}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{09EFFE25-BA30-48DE-9EBB-4C6A8EE8CA10}"/>
+    <hyperlink ref="E24" r:id="rId15" xr:uid="{08BFB011-690A-4E7C-8249-CAD3D01ED97B}"/>
+    <hyperlink ref="E25" r:id="rId16" xr:uid="{E0C38C11-1AB8-4FA9-84C3-3852124D95AA}"/>
+    <hyperlink ref="E26" r:id="rId17" xr:uid="{80D83D77-81AF-48D5-81B8-AEE580716099}"/>
+    <hyperlink ref="E27" r:id="rId18" xr:uid="{D84EF115-3CA3-4771-9725-F0FA5C113F49}"/>
+    <hyperlink ref="E28" r:id="rId19" xr:uid="{2AEF3391-7A43-4D88-81ED-8CE8B9C1577B}"/>
+    <hyperlink ref="E29" r:id="rId20" xr:uid="{803E8DF3-11A4-48D8-8BA0-87CCA94C77A9}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{DB6FA363-65DB-43A8-8046-9DDD3A4BC196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/student_book_a_class.xlsx
+++ b/TestDataXls/student_book_a_class.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6838AD4-6562-45B6-9A93-741AC96289A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="class_booking" sheetId="1" r:id="rId1"/>
     <sheet name="stu" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{D48BDAB5-E9FF-4289-A630-7062C243DF16}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{C501D094-7E9B-4912-ABDC-1726C88F60A3}">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{5496C9A2-A815-4FFB-8E03-37D23206422F}">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{4FCC57CB-56F9-4704-A95E-A63C8AB01F12}">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{534F46DA-02B5-40F3-9D3C-5C1F8CBB3D99}">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{C148A50E-3CEE-4F37-8E52-C01AAFF18650}">
+    <comment ref="J8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{CD1576BD-99F7-402B-B4B0-9D804DA54A56}">
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{F6081E6C-1402-47EA-9D94-A065D8FD9D61}">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{2D6712ED-A536-49C6-B019-6A238C877F18}">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{62153193-5D10-4961-B5A5-46676F39B21B}">
+    <comment ref="J12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{7C28175A-9730-4514-B084-6D7B53073190}">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{85D2EA5F-1647-4488-9274-773E205EDF88}">
+    <comment ref="J16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{A18D6AC8-9F5F-4C87-9BAB-5BCFDF05B298}">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{3F7A04E5-F975-4D98-9528-EE67A4EA67D8}">
+    <comment ref="J18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{181A56B4-CCE0-49DB-930D-D5F5340C96F8}">
+    <comment ref="J19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{DFB392D1-62B4-4E5A-BC40-C8CB1688DAC3}">
+    <comment ref="J20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{5BA52D29-5C68-40C5-BAF5-885F8E640E8C}">
+    <comment ref="J21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{E93961A6-7FAC-4058-A683-24C5F0379999}">
+    <comment ref="J22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{4C31B62D-BBF2-4747-A5DC-D4BE9BD5A406}">
+    <comment ref="J23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{D00C69AE-D334-41BC-8EA2-3C968D7428F5}">
+    <comment ref="J24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{1E0092EC-093B-445F-9F99-3FFB26190922}">
+    <comment ref="J25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{EFC411D0-52DF-4E4A-A913-4F09337F86B3}">
+    <comment ref="J26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{5ADF4AB7-AE2C-40C9-9361-57473C15D1D8}">
+    <comment ref="J27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{ABAF2D3D-3E2B-4AA5-927F-1B9D1627E838}">
+    <comment ref="J28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{EE6968F7-0B21-4422-BD9E-0371E9BF4ACC}">
+    <comment ref="J29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -697,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{6881B2EC-FBBD-4D12-803E-C12894286824}">
+    <comment ref="J30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{CED24C5F-1D5F-4E3F-9C2C-C885FBE3D7B6}">
+    <comment ref="J31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -749,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{9E848D41-B6D0-4582-9E8D-E76C04D3A94A}">
+    <comment ref="J32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{2C005905-5C4E-422E-9C1A-79EAB5D1F24F}">
+    <comment ref="J33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -801,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{B27D97AA-E72F-44D6-B241-BB6D0A678172}">
+    <comment ref="J34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{B0342C6F-2C7A-4A60-824C-75EEE424C84F}">
+    <comment ref="J35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -853,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{905EB510-43DA-41F5-81B3-0F4250C0F004}">
+    <comment ref="J36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -879,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{B366351E-041F-4FB4-A3E1-ACB2E060B2F0}">
+    <comment ref="J37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -905,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{9E96B554-C880-4279-8B2C-23FA682F5739}">
+    <comment ref="J38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{1C3E2FA7-BB19-479C-B8E7-F6F1B42DEE17}">
+    <comment ref="J39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{32594EBF-9EEE-4081-80C3-C8BE8233ACE8}">
+    <comment ref="J40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -983,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J41" authorId="0" shapeId="0" xr:uid="{31201D85-5357-4220-B0A5-90BB5598F18F}">
+    <comment ref="J41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{745F30EC-AF71-4C46-B628-1522C2ED4D0B}">
+    <comment ref="J42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{F4D52E81-D215-4C2F-9A03-702BE23AA71D}">
+    <comment ref="J43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{B9D3D3C7-DB56-4177-B6E6-0C6569B36840}">
+    <comment ref="J44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J45" authorId="0" shapeId="0" xr:uid="{0A9FA41A-D056-4825-827A-9777058C0401}">
+    <comment ref="J45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{4A422988-7DB3-42EA-AD4F-49833B605BB7}">
+    <comment ref="J46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1139,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{9CA2CFD2-5AB3-4533-A140-DED47E16EBEF}">
+    <comment ref="J47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{32CF9599-75D4-41B2-B71D-6D72192B9E25}">
+    <comment ref="J48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{950543CB-80F3-4BF7-99C2-15DBF7A2C0A4}">
+    <comment ref="J49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{59513D08-D7EC-49DE-B675-98CDCF033316}">
+    <comment ref="J50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="0" shapeId="0" xr:uid="{C154CED4-FADB-4753-A341-8B1E36C01EF6}">
+    <comment ref="J51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1269,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{5CCE012D-9DBF-4BB7-B9E8-EA9C20BB9B32}">
+    <comment ref="J52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{537DC13E-0EFD-44AD-B350-20E8ECA8126F}">
+    <comment ref="J53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1321,7 +1320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{AD393F18-1D93-4B93-B18E-6F495E8CAD3B}">
+    <comment ref="J54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1347,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J55" authorId="0" shapeId="0" xr:uid="{B6E987FB-C5E9-42E9-98AB-D31C7E9D8D7E}">
+    <comment ref="J55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J56" authorId="0" shapeId="0" xr:uid="{74D6E9EA-F697-48CA-AF67-836605BD1680}">
+    <comment ref="J56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1399,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J57" authorId="0" shapeId="0" xr:uid="{3E1EBFD1-00EE-45F5-8009-FB6CD912F00C}">
+    <comment ref="J57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J58" authorId="0" shapeId="0" xr:uid="{C8B290E9-A011-4AA8-9ED1-19D4A76801C7}">
+    <comment ref="J58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J59" authorId="0" shapeId="0" xr:uid="{2EDBE0C8-E556-478F-8213-72CB53B07615}">
+    <comment ref="J59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J60" authorId="0" shapeId="0" xr:uid="{418AB2AD-93E7-49C1-97D8-66BD09790E9D}">
+    <comment ref="J60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1503,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="0" shapeId="0" xr:uid="{04269282-C1CC-48BF-8EC8-45FCB82781EC}">
+    <comment ref="J61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J62" authorId="0" shapeId="0" xr:uid="{EBD61D5E-EA67-4883-9324-99C607E07B9B}">
+    <comment ref="J62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J63" authorId="0" shapeId="0" xr:uid="{94732F4E-6831-499A-ABC2-BA4D4D2DEED8}">
+    <comment ref="J63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J64" authorId="0" shapeId="0" xr:uid="{B6139FF7-8288-4883-8CB2-3FB498486573}">
+    <comment ref="J64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1612,7 +1611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="127">
   <si>
     <t>password</t>
   </si>
@@ -1770,9 +1769,6 @@
     <t>Camellia</t>
   </si>
   <si>
-    <t>which_day</t>
-  </si>
-  <si>
     <t>panel</t>
   </si>
   <si>
@@ -1791,18 +1787,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>sendhan-therapist/personal-growth-online-grp-pre-scho-begi-thurs</t>
-  </si>
-  <si>
-    <t>sen2023</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
     <t>Painting</t>
   </si>
   <si>
@@ -1827,21 +1811,9 @@
     <t>jsc</t>
   </si>
   <si>
-    <t>Sunday</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>denae_saeteun@hotmail.com</t>
-  </si>
-  <si>
-    <t>irving@hotmail.com</t>
-  </si>
-  <si>
-    <t>mirene@gmail.com</t>
-  </si>
-  <si>
     <t>jaya/paint-sess-18</t>
   </si>
   <si>
@@ -1851,24 +1823,9 @@
     <t>deptfirst</t>
   </si>
   <si>
-    <t>sabrina_rabena@hotmail.com</t>
-  </si>
-  <si>
-    <t>anastacia@yahoo.com</t>
-  </si>
-  <si>
-    <t>elenor.siefken@yahoo.com</t>
-  </si>
-  <si>
     <t>crista_padua@gmail.com</t>
   </si>
   <si>
-    <t>Shakthi-coaching-academy/Clarinet-SGIN-Grade-1</t>
-  </si>
-  <si>
-    <t>Shakthi-coaching-academy/Clarinet-SGO-Grade-1-2</t>
-  </si>
-  <si>
     <t>Shakthi-coaching-academy/Clarinet-SGO-Grade-2,5</t>
   </si>
   <si>
@@ -2005,12 +1962,42 @@
   </si>
   <si>
     <t>XKAXP5BH</t>
+  </si>
+  <si>
+    <t>hudrefarti@gufum.com</t>
+  </si>
+  <si>
+    <t>vaknibigne@gufum.com</t>
+  </si>
+  <si>
+    <t>pink-pencil-math/math-fundamentals-101---learn-math-from-scratch-to-algebra</t>
+  </si>
+  <si>
+    <t>pink-pencil-math/physical-geology</t>
+  </si>
+  <si>
+    <t>tanya</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Earth Science</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Deserts</t>
+  </si>
+  <si>
+    <t>Solar System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2219,7 +2206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2252,26 +2239,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2304,23 +2274,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2496,52 +2449,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" customWidth="1"/>
-    <col min="17" max="17" width="23.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" style="10" customWidth="1"/>
-    <col min="21" max="21" width="24.44140625" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="68.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" style="10" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" style="7" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" customWidth="1"/>
-    <col min="30" max="30" width="21.88671875" customWidth="1"/>
-    <col min="31" max="31" width="22.88671875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" customWidth="1"/>
-    <col min="33" max="33" width="25.44140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="6.5546875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.109375" customWidth="1"/>
-    <col min="37" max="37" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" style="20" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" customWidth="1"/>
+    <col min="31" max="31" width="22.85546875" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
+    <col min="37" max="37" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2573,16 +2526,16 @@
         <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>20</v>
@@ -2624,10 +2577,10 @@
         <v>15</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>28</v>
@@ -2654,30 +2607,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I2" s="5">
         <v>2</v>
@@ -2686,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -2774,25 +2727,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
@@ -2801,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -2884,30 +2837,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2916,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -2999,30 +2952,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -3031,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -3077,7 +3030,7 @@
       </c>
       <c r="Z5" s="15"/>
       <c r="AA5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB5">
         <f>SUM(I5*0.05)</f>
@@ -3115,30 +3068,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
@@ -3147,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -3193,7 +3146,7 @@
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB6">
         <f>SUM(I6*0.05)</f>
@@ -3231,30 +3184,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -3263,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -3309,7 +3262,7 @@
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB7">
         <f>SUM(I7*0.05)</f>
@@ -3347,30 +3300,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -3379,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -3425,7 +3378,7 @@
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB8">
         <v>2</v>
@@ -3462,30 +3415,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -3494,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -3540,7 +3493,7 @@
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB9">
         <v>2</v>
@@ -3577,30 +3530,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -3609,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -3655,7 +3608,7 @@
       </c>
       <c r="Z10" s="15"/>
       <c r="AA10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB10">
         <v>2</v>
@@ -3692,30 +3645,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -3724,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -3770,7 +3723,7 @@
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB11">
         <v>2</v>
@@ -3807,30 +3760,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -3839,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -3885,7 +3838,7 @@
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB12">
         <v>2</v>
@@ -3922,30 +3875,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -3954,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -4000,7 +3953,7 @@
       </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB13">
         <f>SUM(I13*0.05)</f>
@@ -4038,30 +3991,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5">
         <v>2</v>
@@ -4070,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -4116,7 +4069,7 @@
       </c>
       <c r="Z14" s="15"/>
       <c r="AA14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB14">
         <v>2</v>
@@ -4153,30 +4106,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -4185,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -4231,7 +4184,7 @@
       </c>
       <c r="Z15" s="15"/>
       <c r="AA15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB15">
         <v>2</v>
@@ -4268,30 +4221,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -4300,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -4346,7 +4299,7 @@
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB16">
         <v>2</v>
@@ -4383,30 +4336,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
@@ -4415,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -4461,7 +4414,7 @@
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB17">
         <v>2</v>
@@ -4498,30 +4451,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -4530,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -4578,7 +4531,7 @@
       </c>
       <c r="Z18" s="15"/>
       <c r="AA18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB18">
         <v>2</v>
@@ -4615,30 +4568,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -4647,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -4693,7 +4646,7 @@
       </c>
       <c r="Z19" s="15"/>
       <c r="AA19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB19">
         <v>2</v>
@@ -4730,30 +4683,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -4762,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -4810,7 +4763,7 @@
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB20">
         <v>2</v>
@@ -4847,30 +4800,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -4879,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -4927,7 +4880,7 @@
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="AB21">
         <v>0.05</v>
@@ -4964,30 +4917,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -4996,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
@@ -5033,7 +4986,7 @@
         <v>0.01</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" ref="W21:W23" si="43">R22*V22</f>
+        <f t="shared" ref="W22:W23" si="43">R22*V22</f>
         <v>0.03</v>
       </c>
       <c r="X22" s="9">
@@ -5046,7 +4999,7 @@
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -5083,30 +5036,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -5115,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L23" s="5">
         <v>0</v>
@@ -5162,10 +5115,10 @@
         <v>5.05</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="AB23">
         <v>0.05</v>
@@ -5202,30 +5155,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -5234,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L24" s="5">
         <v>0</v>
@@ -5284,7 +5237,7 @@
       </c>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AB24">
         <v>1</v>
@@ -5321,30 +5274,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -5353,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L25" s="5">
         <v>0</v>
@@ -5403,7 +5356,7 @@
       </c>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AB25">
         <v>1</v>
@@ -5440,30 +5393,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
@@ -5472,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L26" s="5">
         <v>0</v>
@@ -5522,7 +5475,7 @@
       </c>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AB26">
         <v>1</v>
@@ -5559,30 +5512,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
@@ -5591,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
@@ -5641,7 +5594,7 @@
       </c>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AB27">
         <v>1</v>
@@ -5678,30 +5631,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
@@ -5710,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
@@ -5760,7 +5713,7 @@
       </c>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AB28">
         <v>1</v>
@@ -5797,30 +5750,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
@@ -5829,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
@@ -5879,7 +5832,7 @@
       </c>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AB29">
         <v>1</v>
@@ -5916,7 +5869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" s="8"/>
       <c r="E30" s="11"/>
@@ -5949,7 +5902,7 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" s="8"/>
       <c r="E31" s="11"/>
@@ -5982,7 +5935,7 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" s="8"/>
       <c r="E32" s="11"/>
@@ -6015,7 +5968,7 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="8"/>
       <c r="E33" s="11"/>
@@ -6048,7 +6001,7 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" s="8"/>
       <c r="E34" s="11"/>
@@ -6081,7 +6034,7 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" s="8"/>
       <c r="E35" s="11"/>
@@ -6114,7 +6067,7 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" s="8"/>
       <c r="E36" s="11"/>
@@ -6146,7 +6099,7 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" s="8"/>
       <c r="E37" s="11"/>
@@ -6179,7 +6132,7 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="8"/>
       <c r="E38" s="11"/>
@@ -6212,7 +6165,7 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" s="8"/>
       <c r="E39" s="11"/>
@@ -6245,7 +6198,7 @@
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="8"/>
       <c r="E40" s="11"/>
@@ -6278,7 +6231,7 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" s="8"/>
       <c r="E41" s="11"/>
@@ -6311,7 +6264,7 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" s="8"/>
       <c r="E42" s="11"/>
@@ -6344,7 +6297,7 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" s="8"/>
       <c r="E43" s="11"/>
@@ -6377,7 +6330,7 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" s="8"/>
       <c r="E44" s="11"/>
@@ -6410,7 +6363,7 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" s="8"/>
       <c r="E45" s="11"/>
@@ -6443,7 +6396,7 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" s="8"/>
       <c r="E46" s="11"/>
@@ -6476,7 +6429,7 @@
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" s="8"/>
       <c r="E47" s="11"/>
@@ -6509,7 +6462,7 @@
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" s="8"/>
       <c r="E48" s="11"/>
@@ -6542,7 +6495,7 @@
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" s="8"/>
       <c r="E49" s="11"/>
@@ -6575,7 +6528,7 @@
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" s="8"/>
       <c r="E50" s="11"/>
@@ -6608,7 +6561,7 @@
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" s="8"/>
       <c r="E51" s="11"/>
@@ -6641,7 +6594,7 @@
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" s="8"/>
       <c r="E52" s="11"/>
@@ -6674,7 +6627,7 @@
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" s="8"/>
       <c r="E53" s="11"/>
@@ -6707,7 +6660,7 @@
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" s="8"/>
       <c r="E54" s="11"/>
@@ -6740,7 +6693,7 @@
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" s="8"/>
       <c r="E55" s="11"/>
@@ -6773,7 +6726,7 @@
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" s="8"/>
       <c r="E56" s="11"/>
@@ -6806,7 +6759,7 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="C57" s="8"/>
       <c r="E57" s="11"/>
@@ -6839,7 +6792,7 @@
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="C58" s="8"/>
       <c r="E58" s="11"/>
@@ -6872,7 +6825,7 @@
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" s="8"/>
       <c r="E59" s="11"/>
@@ -6905,7 +6858,7 @@
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="C60" s="8"/>
       <c r="E60" s="11"/>
@@ -6938,7 +6891,7 @@
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="C61" s="8"/>
       <c r="E61" s="11"/>
@@ -6971,7 +6924,7 @@
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="C62" s="8"/>
       <c r="E62" s="11"/>
@@ -7004,7 +6957,7 @@
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="C63" s="8"/>
       <c r="E63" s="11"/>
@@ -7037,7 +6990,7 @@
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="C64" s="8"/>
       <c r="E64" s="11"/>
@@ -7070,7 +7023,7 @@
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="C65" s="8"/>
       <c r="E65" s="11"/>
@@ -7103,7 +7056,7 @@
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="C66" s="8"/>
       <c r="E66" s="11"/>
@@ -7136,7 +7089,7 @@
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="C67" s="8"/>
       <c r="E67" s="11"/>
@@ -7169,7 +7122,7 @@
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="C68" s="8"/>
       <c r="E68" s="11"/>
@@ -7202,7 +7155,7 @@
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="C69" s="8"/>
       <c r="E69" s="11"/>
@@ -7235,7 +7188,7 @@
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="8"/>
@@ -7269,7 +7222,7 @@
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="C71" s="8"/>
       <c r="E71" s="11"/>
@@ -7302,7 +7255,7 @@
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="8"/>
@@ -7336,7 +7289,7 @@
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="8"/>
@@ -7370,7 +7323,7 @@
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="C74" s="8"/>
       <c r="E74" s="11"/>
@@ -7405,7 +7358,7 @@
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="8"/>
@@ -7439,7 +7392,7 @@
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="8"/>
@@ -7473,7 +7426,7 @@
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="8"/>
@@ -7507,7 +7460,7 @@
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="8"/>
@@ -7541,7 +7494,7 @@
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="8"/>
@@ -7576,7 +7529,7 @@
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="8"/>
@@ -7611,7 +7564,7 @@
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="8"/>
@@ -7646,7 +7599,7 @@
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="8"/>
@@ -7681,7 +7634,7 @@
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="8"/>
@@ -7716,7 +7669,7 @@
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="8"/>
@@ -7750,7 +7703,7 @@
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="8"/>
@@ -7784,7 +7737,7 @@
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="8"/>
@@ -7818,7 +7771,7 @@
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="8"/>
@@ -7852,7 +7805,7 @@
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="8"/>
@@ -7886,7 +7839,7 @@
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="8"/>
@@ -7920,7 +7873,7 @@
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="8"/>
@@ -7954,7 +7907,7 @@
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="8"/>
@@ -7988,7 +7941,7 @@
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="8"/>
@@ -8022,7 +7975,7 @@
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="8"/>
@@ -8056,7 +8009,7 @@
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="8"/>
@@ -8090,7 +8043,7 @@
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="8"/>
@@ -8124,7 +8077,7 @@
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="8"/>
@@ -8158,7 +8111,7 @@
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="8"/>
@@ -8192,7 +8145,7 @@
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="8"/>
@@ -8224,7 +8177,7 @@
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="8"/>
@@ -8256,7 +8209,7 @@
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H100" s="3"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -8284,7 +8237,7 @@
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H101" s="3"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -8312,7 +8265,7 @@
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="H102" s="3"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -8340,7 +8293,7 @@
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="R103" s="13"/>
       <c r="T103" s="9"/>
       <c r="W103" s="3"/>
@@ -8348,7 +8301,7 @@
       <c r="Y103" s="6"/>
       <c r="AF103" s="7"/>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="C104" s="8"/>
       <c r="E104" s="11"/>
@@ -8379,7 +8332,7 @@
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="8"/>
@@ -8411,7 +8364,7 @@
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="8"/>
@@ -8443,21 +8396,21 @@
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="R107" s="13"/>
       <c r="T107" s="9"/>
       <c r="W107" s="3"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="6"/>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="R108" s="13"/>
       <c r="T108" s="9"/>
       <c r="W108" s="3"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="6"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17"/>
@@ -8505,7 +8458,7 @@
       <c r="AS109" s="18"/>
       <c r="AT109" s="18"/>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
@@ -8553,7 +8506,7 @@
       <c r="AS110" s="18"/>
       <c r="AT110" s="18"/>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -8601,7 +8554,7 @@
       <c r="AS111" s="18"/>
       <c r="AT111" s="18"/>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
@@ -8649,7 +8602,7 @@
       <c r="AS112" s="18"/>
       <c r="AT112" s="18"/>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
@@ -8697,7 +8650,7 @@
       <c r="AS113" s="18"/>
       <c r="AT113" s="18"/>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -8745,14 +8698,14 @@
       <c r="AS114" s="18"/>
       <c r="AT114" s="18"/>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="R115" s="13"/>
       <c r="T115" s="9"/>
       <c r="W115" s="3"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="6"/>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="17"/>
@@ -8800,7 +8753,7 @@
       <c r="AS116" s="18"/>
       <c r="AT116" s="18"/>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
@@ -8848,7 +8801,7 @@
       <c r="AS117" s="18"/>
       <c r="AT117" s="18"/>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
@@ -8896,7 +8849,7 @@
       <c r="AS118" s="18"/>
       <c r="AT118" s="18"/>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
@@ -8944,7 +8897,7 @@
       <c r="AS119" s="18"/>
       <c r="AT119" s="18"/>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17"/>
@@ -8992,7 +8945,7 @@
       <c r="AS120" s="18"/>
       <c r="AT120" s="18"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
@@ -9040,14 +8993,14 @@
       <c r="AS121" s="18"/>
       <c r="AT121" s="18"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="R122" s="13"/>
       <c r="T122" s="9"/>
       <c r="W122" s="3"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="6"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="17"/>
@@ -9095,7 +9048,7 @@
       <c r="AS123" s="18"/>
       <c r="AT123" s="18"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="17"/>
@@ -9143,7 +9096,7 @@
       <c r="AS124" s="18"/>
       <c r="AT124" s="18"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
@@ -9191,7 +9144,7 @@
       <c r="AS125" s="18"/>
       <c r="AT125" s="18"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="17"/>
@@ -9239,7 +9192,7 @@
       <c r="AS126" s="18"/>
       <c r="AT126" s="18"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="17"/>
@@ -9287,7 +9240,7 @@
       <c r="AS127" s="18"/>
       <c r="AT127" s="18"/>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
@@ -9338,27 +9291,27 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E5" r:id="rId9" xr:uid="{445C7A49-F66B-4AE0-8FC4-6DD56F8EECEB}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{DCEB99D7-D81A-4B5B-8AED-C5DD967D17A0}"/>
-    <hyperlink ref="E6" r:id="rId11" xr:uid="{E0DA131B-1FDC-4C6F-A6A3-3193A0E74CD0}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{A5225E2C-2967-4D45-9DE4-E6CFF0B77232}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{1D0F9F84-A9B0-40C1-B527-C53040165396}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{09EFFE25-BA30-48DE-9EBB-4C6A8EE8CA10}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{08BFB011-690A-4E7C-8249-CAD3D01ED97B}"/>
-    <hyperlink ref="E25" r:id="rId16" xr:uid="{E0C38C11-1AB8-4FA9-84C3-3852124D95AA}"/>
-    <hyperlink ref="E26" r:id="rId17" xr:uid="{80D83D77-81AF-48D5-81B8-AEE580716099}"/>
-    <hyperlink ref="E27" r:id="rId18" xr:uid="{D84EF115-3CA3-4771-9725-F0FA5C113F49}"/>
-    <hyperlink ref="E28" r:id="rId19" xr:uid="{2AEF3391-7A43-4D88-81ED-8CE8B9C1577B}"/>
-    <hyperlink ref="E29" r:id="rId20" xr:uid="{803E8DF3-11A4-48D8-8BA0-87CCA94C77A9}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{DB6FA363-65DB-43A8-8046-9DDD3A4BC196}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E14" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5"/>
+    <hyperlink ref="E17" r:id="rId6"/>
+    <hyperlink ref="E18" r:id="rId7"/>
+    <hyperlink ref="E19" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="E6" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E21" r:id="rId13"/>
+    <hyperlink ref="E22" r:id="rId14"/>
+    <hyperlink ref="E24" r:id="rId15"/>
+    <hyperlink ref="E25" r:id="rId16"/>
+    <hyperlink ref="E26" r:id="rId17"/>
+    <hyperlink ref="E27" r:id="rId18"/>
+    <hyperlink ref="E28" r:id="rId19"/>
+    <hyperlink ref="E29" r:id="rId20"/>
+    <hyperlink ref="E23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
@@ -9367,14 +9320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
